--- a/データ解析_2_J4210494 2.xlsx
+++ b/データ解析_2_J4210494 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9B1A65-62FA-CD4F-B89E-A6638A41E0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C64A3-C14D-784C-B449-44C72C48063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鋼材国内消費量" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="製品使用年数" sheetId="4" r:id="rId3"/>
     <sheet name="ストック量" sheetId="6" r:id="rId4"/>
     <sheet name="時系列分析" sheetId="5" r:id="rId5"/>
-    <sheet name="国内投入量" sheetId="7" r:id="rId6"/>
+    <sheet name="時系列分析2" sheetId="8" r:id="rId6"/>
+    <sheet name="国内投入量" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
   <si>
     <t>建築</t>
     <rPh sb="0" eb="2">
@@ -285,10 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ストック量（トン）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一人当たりのストック量（トン/人）</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">ヒトリアタリノ </t>
@@ -332,6 +329,42 @@
     <t>穴埋め後</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">アナウメゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船舶_fillna</t>
+    <rPh sb="0" eb="2">
+      <t>センパク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建築と土木_fillna</t>
+    <rPh sb="0" eb="2">
+      <t>ケンチク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>steel stock [ton/cap]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CDP/cap [million $/cap]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストック量（千トン）</t>
+    <rPh sb="6" eb="7">
+      <t>セン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,53 +664,101 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>時系列分析!$E$34:$E$48</c:f>
+              <c:f>時系列分析!$E$18:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>1356.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1468.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1574.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1659.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1747.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1929.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2218.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2569.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2921.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3225.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3514.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3858.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4239.6899999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4698.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5011.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4969.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4448.18</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="17">
                   <c:v>4697.45</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
                   <c:v>5014.7299999999996</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="19">
                   <c:v>5152.71</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
                   <c:v>5464.57</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
                   <c:v>5919.62</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>6350.11</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
                   <c:v>6835.04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="24">
                   <c:v>7387.38</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>7910.28</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>8192.77</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>7996.1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>8673.68</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
                   <c:v>8810.49</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="30">
                   <c:v>9502.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -685,54 +766,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>時系列分析!$G$34:$G$48</c:f>
+              <c:f>時系列分析!$G$18:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.2546042999701315</c:v>
+                  <c:v>251.60297488071873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3298117915815741</c:v>
+                  <c:v>272.19189277850575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4041687630394539</c:v>
+                  <c:v>292.19897527940361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.484836469503062</c:v>
+                  <c:v>309.03372380205843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5995830934501751</c:v>
+                  <c:v>328.99333346050065</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7225945285768658</c:v>
+                  <c:v>358.14637293156255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8642055057032765</c:v>
+                  <c:v>396.8712744817837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0170495399172261</c:v>
+                  <c:v>441.97632524876639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1547488340659289</c:v>
+                  <c:v>507.14883423726462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2860495671912662</c:v>
+                  <c:v>576.3924810934476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4226741262826978</c:v>
+                  <c:v>668.81060083659122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5159095859559062</c:v>
+                  <c:v>756.64748016068302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6439281452390975</c:v>
+                  <c:v>841.51513793264758</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.776669968326849</c:v>
+                  <c:v>940.45737306670492</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9260702583985423</c:v>
+                  <c:v>1031.0280813050645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1108.5319003058485</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1254.6042999701315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1329.811791581574</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1404.168763039454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1484.8364695030621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1599.5830934501753</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1722.5945285768657</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1864.2055057032762</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017.049539917226</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2154.7488340659288</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2286.0495671912663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2422.6741262826977</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2515.9095859559061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2643.9281452390974</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2776.6699683268484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2926.0702583985421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,53 +1313,101 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>時系列分析!$A$34:$A$48</c:f>
+              <c:f>時系列分析!$A$18:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="17">
                   <c:v>1999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="19">
                   <c:v>2001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
                   <c:v>2002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
                   <c:v>2003</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>2004</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
                   <c:v>2005</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="24">
                   <c:v>2006</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="30">
                   <c:v>2012</c:v>
                 </c:pt>
               </c:numCache>
@@ -1238,54 +1415,102 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>時系列分析!$G$34:$G$48</c:f>
+              <c:f>時系列分析!$G$18:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.2546042999701315</c:v>
+                  <c:v>251.60297488071873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3298117915815741</c:v>
+                  <c:v>272.19189277850575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4041687630394539</c:v>
+                  <c:v>292.19897527940361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.484836469503062</c:v>
+                  <c:v>309.03372380205843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5995830934501751</c:v>
+                  <c:v>328.99333346050065</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7225945285768658</c:v>
+                  <c:v>358.14637293156255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8642055057032765</c:v>
+                  <c:v>396.8712744817837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0170495399172261</c:v>
+                  <c:v>441.97632524876639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1547488340659289</c:v>
+                  <c:v>507.14883423726462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2860495671912662</c:v>
+                  <c:v>576.3924810934476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4226741262826978</c:v>
+                  <c:v>668.81060083659122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5159095859559062</c:v>
+                  <c:v>756.64748016068302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6439281452390975</c:v>
+                  <c:v>841.51513793264758</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.776669968326849</c:v>
+                  <c:v>940.45737306670492</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9260702583985423</c:v>
+                  <c:v>1031.0280813050645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1108.5319003058485</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1254.6042999701315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1329.811791581574</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1404.168763039454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1484.8364695030621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1599.5830934501753</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1722.5945285768657</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1864.2055057032762</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017.049539917226</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2154.7488340659288</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2286.0495671912663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2422.6741262826977</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2515.9095859559061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2643.9281452390974</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2776.6699683268484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2926.0702583985421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6234,16 +6459,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>867737</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147973</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>310268</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>90417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>5459</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133032</xdr:rowOff>
+      <xdr:colOff>369573</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>75477</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6258,8 +6483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="867737" y="2541435"/>
-          <a:ext cx="14524260" cy="4942943"/>
+          <a:off x="1241601" y="8726417"/>
+          <a:ext cx="14410305" cy="4895727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6455,7 +6680,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>船舶は</a:t>
+            <a:t>船舶、建築と土木は</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" baseline="0">
@@ -6586,16 +6811,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2053</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>87071</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>294446</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>11731</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>309934</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151122</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6622,16 +6847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>673740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>51929</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>363984</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>217373</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>154390</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>573592</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7025,8 +7250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7055,7 +7280,7 @@
     <row r="2" spans="1:25">
       <c r="A2" s="3"/>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>2</v>
@@ -7064,7 +7289,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -7104,10 +7329,10 @@
         <v>4</v>
       </c>
       <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
         <v>31</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11088,7 +11313,7 @@
   <dimension ref="A1:AA158"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -14180,7 +14405,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -14274,8 +14499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -14525,7 +14750,7 @@
         <v>1609695.4659403949</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="18">
         <v>1980</v>
       </c>
@@ -14550,7 +14775,7 @@
         <v>1849003.6887513362</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="18">
         <v>1981</v>
       </c>
@@ -14575,9 +14800,13 @@
         <v>2021012.832509178</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="18">
         <v>1982</v>
+      </c>
+      <c r="B19" s="11">
+        <f>SUM(国内投入量!$B3:B19)</f>
+        <v>8444639.5433705654</v>
       </c>
       <c r="D19" s="11">
         <f>SUM(国内投入量!D3:D19)</f>
@@ -14603,10 +14832,18 @@
         <f>SUM(国内投入量!I9:I19)</f>
         <v>2147712.5242450167</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="11">
+        <f t="shared" ref="J19:J34" si="0">SUM(B19:I19)</f>
+        <v>12423249.128900321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="18">
         <v>1983</v>
+      </c>
+      <c r="B20" s="11">
+        <f>SUM(国内投入量!$B4:B20)</f>
+        <v>9386658.5422470197</v>
       </c>
       <c r="D20" s="11">
         <f>SUM(国内投入量!D4:D20)</f>
@@ -14632,10 +14869,18 @@
         <f>SUM(国内投入量!I10:I20)</f>
         <v>2284682.0288213831</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>13727344.851741269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="18">
         <v>1984</v>
+      </c>
+      <c r="B21" s="11">
+        <f>SUM(国内投入量!$B5:B21)</f>
+        <v>10446054.415063834</v>
       </c>
       <c r="D21" s="11">
         <f>SUM(国内投入量!D5:D21)</f>
@@ -14661,10 +14906,18 @@
         <f>SUM(国内投入量!I11:I21)</f>
         <v>2350876.1909987419</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
+        <v>15044974.59836616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="18">
         <v>1985</v>
+      </c>
+      <c r="B22" s="11">
+        <f>SUM(国内投入量!$B6:B22)</f>
+        <v>11537142.565460885</v>
       </c>
       <c r="D22" s="11">
         <f>SUM(国内投入量!D6:D22)</f>
@@ -14690,10 +14943,18 @@
         <f>SUM(国内投入量!I12:I22)</f>
         <v>2331224.2513900795</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>16238177.017179159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="18">
         <v>1986</v>
+      </c>
+      <c r="B23" s="11">
+        <f>SUM(国内投入量!$B7:B23)</f>
+        <v>12643762.216152968</v>
       </c>
       <c r="D23" s="11">
         <f>SUM(国内投入量!D7:D23)</f>
@@ -14719,10 +14980,18 @@
         <f>SUM(国内投入量!I13:I23)</f>
         <v>2325367.7679353142</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
+        <v>17558571.602786995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="18">
         <v>1987</v>
+      </c>
+      <c r="B24" s="11">
+        <f>SUM(国内投入量!$B8:B24)</f>
+        <v>14108903.925869262</v>
       </c>
       <c r="D24" s="11">
         <f>SUM(国内投入量!D8:D24)</f>
@@ -14748,10 +15017,18 @@
         <f>SUM(国内投入量!I14:I24)</f>
         <v>2294187.0442467197</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
+        <v>19410172.456673551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="18">
         <v>1988</v>
+      </c>
+      <c r="B25" s="11">
+        <f>SUM(国内投入量!$B9:B25)</f>
+        <v>16023702.285869459</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(国内投入量!D9:D25)</f>
@@ -14777,10 +15054,18 @@
         <f>SUM(国内投入量!I15:I25)</f>
         <v>2238162.25145307</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>21836571.890281811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="18">
         <v>1989</v>
+      </c>
+      <c r="B26" s="11">
+        <f>SUM(国内投入量!$B10:B26)</f>
+        <v>18374193.412413243</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(国内投入量!D10:D26)</f>
@@ -14806,10 +15091,18 @@
         <f>SUM(国内投入量!I16:I26)</f>
         <v>2146843.1590610407</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="11">
+        <f t="shared" si="0"/>
+        <v>24683228.626697958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="18">
         <v>1990</v>
+      </c>
+      <c r="B27" s="11">
+        <f>SUM(国内投入量!$B11:B27)</f>
+        <v>21704988.787357308</v>
       </c>
       <c r="D27" s="11">
         <f>SUM(国内投入量!D11:D27)</f>
@@ -14835,10 +15128,18 @@
         <f>SUM(国内投入量!I17:I27)</f>
         <v>1934209.1191675777</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="11">
+        <f t="shared" si="0"/>
+        <v>28741645.882728495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="18">
         <v>1991</v>
+      </c>
+      <c r="B28" s="11">
+        <f>SUM(国内投入量!$B12:B28)</f>
+        <v>25304936.639314849</v>
       </c>
       <c r="D28" s="11">
         <f>SUM(国内投入量!D12:D28)</f>
@@ -14864,10 +15165,18 @@
         <f>SUM(国内投入量!I18:I28)</f>
         <v>1744456.124774287</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="11">
+        <f t="shared" si="0"/>
+        <v>33065561.62739915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="18">
         <v>1992</v>
+      </c>
+      <c r="B29" s="11">
+        <f>SUM(国内投入量!$B13:B29)</f>
+        <v>29719196.243481837</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(国内投入量!D13:D29)</f>
@@ -14893,10 +15202,18 @@
         <f>SUM(国内投入量!I19:I29)</f>
         <v>1583856.9626604768</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="11">
+        <f t="shared" si="0"/>
+        <v>38831009.722452313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="18">
         <v>1993</v>
+      </c>
+      <c r="B30" s="11">
+        <f>SUM(国内投入量!$B14:B30)</f>
+        <v>33501424.201153845</v>
       </c>
       <c r="D30" s="11">
         <f>SUM(国内投入量!D14:D30)</f>
@@ -14922,10 +15239,18 @@
         <f>SUM(国内投入量!I20:I30)</f>
         <v>1621659.9992324049</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="11">
+        <f t="shared" si="0"/>
+        <v>44455460.73137664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="18">
         <v>1994</v>
+      </c>
+      <c r="B31" s="11">
+        <f>SUM(国内投入量!$B15:B31)</f>
+        <v>37231371.383156814</v>
       </c>
       <c r="D31" s="11">
         <f>SUM(国内投入量!D15:D31)</f>
@@ -14951,10 +15276,18 @@
         <f>SUM(国内投入量!I21:I31)</f>
         <v>1565475.765044739</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="11">
+        <f t="shared" si="0"/>
+        <v>50025213.79862693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="18">
         <v>1995</v>
+      </c>
+      <c r="B32" s="11">
+        <f>SUM(国内投入量!$B16:B32)</f>
+        <v>41395127.963958807</v>
       </c>
       <c r="D32" s="11">
         <f>SUM(国内投入量!D16:D32)</f>
@@ -14980,11 +15313,19 @@
         <f>SUM(国内投入量!I22:I32)</f>
         <v>1542595.9865512082</v>
       </c>
+      <c r="J32" s="11">
+        <f t="shared" si="0"/>
+        <v>56559106.41623164</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="18">
         <v>1996</v>
       </c>
+      <c r="B33" s="11">
+        <f>SUM(国内投入量!$B17:B33)</f>
+        <v>45023490.640825905</v>
+      </c>
       <c r="D33" s="11">
         <f>SUM(国内投入量!D17:D33)</f>
         <v>5293382.6114320736</v>
@@ -15009,11 +15350,19 @@
         <f>SUM(国内投入量!I23:I33)</f>
         <v>1599258.4855347259</v>
       </c>
+      <c r="J33" s="11">
+        <f t="shared" si="0"/>
+        <v>62461124.604774624</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="18">
         <v>1997</v>
       </c>
+      <c r="B34" s="11">
+        <f>SUM(国内投入量!$B18:B34)</f>
+        <v>48302480.115485758</v>
+      </c>
       <c r="D34" s="11">
         <f>SUM(国内投入量!D18:D34)</f>
         <v>6049772.5234870594</v>
@@ -15038,6 +15387,10 @@
         <f>SUM(国内投入量!I24:I34)</f>
         <v>1642639.9425161276</v>
       </c>
+      <c r="J34" s="11">
+        <f t="shared" si="0"/>
+        <v>67645720.445983723</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="18">
@@ -15109,7 +15462,7 @@
         <v>1732483.474989685</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" ref="J36:J49" si="0">SUM(B36:I36)</f>
+        <f t="shared" ref="J36:J49" si="1">SUM(B36:I36)</f>
         <v>82322796.844932288</v>
       </c>
     </row>
@@ -15146,7 +15499,7 @@
         <v>1936062.4642524344</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87545709.869220838</v>
       </c>
     </row>
@@ -15183,7 +15536,7 @@
         <v>2227235.1264394587</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93643884.654855713</v>
       </c>
     </row>
@@ -15257,7 +15610,7 @@
         <v>3342998.1683711773</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111118371.69819073</v>
       </c>
     </row>
@@ -15294,7 +15647,7 @@
         <v>3925688.0767301512</v>
       </c>
       <c r="J41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121595041.15610303</v>
       </c>
     </row>
@@ -15331,7 +15684,7 @@
         <v>4622062.2816394493</v>
       </c>
       <c r="J42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133016348.95938137</v>
       </c>
     </row>
@@ -15368,7 +15721,7 @@
         <v>5254861.3560735993</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143042139.44993308</v>
       </c>
     </row>
@@ -15405,7 +15758,7 @@
         <v>5901396.7672510138</v>
       </c>
       <c r="J44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>152761147.43833542</v>
       </c>
     </row>
@@ -15442,7 +15795,7 @@
         <v>6619944.5239049429</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162953422.5472016</v>
       </c>
     </row>
@@ -15479,7 +15832,7 @@
         <v>7200000.6470767623</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170328085.33304921</v>
       </c>
     </row>
@@ -15516,7 +15869,7 @@
         <v>7853541.4413400758</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180154619.88844687</v>
       </c>
     </row>
@@ -15553,7 +15906,7 @@
         <v>8456100.4180581793</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190199116.16042081</v>
       </c>
     </row>
@@ -15590,7 +15943,7 @@
         <v>9104252.4246690851</v>
       </c>
       <c r="J49" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>201486271.92306522</v>
       </c>
     </row>
@@ -15736,8 +16089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15755,19 +16108,19 @@
       <c r="A1" s="22"/>
       <c r="B1" s="14"/>
       <c r="C1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15998,7 +16351,7 @@
         <v>1099.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="23">
         <v>1981</v>
       </c>
@@ -16016,7 +16369,7 @@
         <v>1236.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="23">
         <v>1982</v>
       </c>
@@ -16033,8 +16386,16 @@
       <c r="E18" s="27">
         <v>1356.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="11">
+        <f>ストック量!J19</f>
+        <v>12423249.128900321</v>
+      </c>
+      <c r="G18" s="28">
+        <f>F18*1000/(D18*1000000)</f>
+        <v>251.60297488071873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="23">
         <v>1983</v>
       </c>
@@ -16051,8 +16412,16 @@
       <c r="E19" s="27">
         <v>1468.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="11">
+        <f>ストック量!J20</f>
+        <v>13727344.851741269</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" ref="G19:G48" si="1">F19*1000/(D19*1000000)</f>
+        <v>272.19189277850575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="23">
         <v>1984</v>
       </c>
@@ -16069,8 +16438,16 @@
       <c r="E20" s="27">
         <v>1574.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="11">
+        <f>ストック量!J21</f>
+        <v>15044974.59836616</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="1"/>
+        <v>292.19897527940361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="23">
         <v>1985</v>
       </c>
@@ -16087,8 +16464,16 @@
       <c r="E21" s="27">
         <v>1659.83</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="11">
+        <f>ストック量!J22</f>
+        <v>16238177.017179159</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="1"/>
+        <v>309.03372380205843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="23">
         <v>1986</v>
       </c>
@@ -16105,8 +16490,16 @@
       <c r="E22" s="27">
         <v>1747.53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="11">
+        <f>ストック量!J23</f>
+        <v>17558571.602786995</v>
+      </c>
+      <c r="G22" s="28">
+        <f t="shared" si="1"/>
+        <v>328.99333346050065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="23">
         <v>1987</v>
       </c>
@@ -16123,8 +16516,16 @@
       <c r="E23" s="27">
         <v>1929.91</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="11">
+        <f>ストック量!J24</f>
+        <v>19410172.456673551</v>
+      </c>
+      <c r="G23" s="28">
+        <f t="shared" si="1"/>
+        <v>358.14637293156255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="23">
         <v>1988</v>
       </c>
@@ -16141,8 +16542,16 @@
       <c r="E24" s="27">
         <v>2218.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="11">
+        <f>ストック量!J25</f>
+        <v>21836571.890281811</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="1"/>
+        <v>396.8712744817837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="23">
         <v>1989</v>
       </c>
@@ -16159,8 +16568,16 @@
       <c r="E25" s="27">
         <v>2569.81</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="11">
+        <f>ストック量!J26</f>
+        <v>24683228.626697958</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" si="1"/>
+        <v>441.97632524876639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="23">
         <v>1990</v>
       </c>
@@ -16177,8 +16594,16 @@
       <c r="E26" s="27">
         <v>2921.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="11">
+        <f>ストック量!J27</f>
+        <v>28741645.882728495</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" si="1"/>
+        <v>507.14883423726462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="23">
         <v>1991</v>
       </c>
@@ -16195,8 +16620,16 @@
       <c r="E27" s="27">
         <v>3225.46</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="11">
+        <f>ストック量!J28</f>
+        <v>33065561.62739915</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="1"/>
+        <v>576.3924810934476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="23">
         <v>1992</v>
       </c>
@@ -16213,8 +16646,16 @@
       <c r="E28" s="27">
         <v>3514.57</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="11">
+        <f>ストック量!J29</f>
+        <v>38831009.722452313</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="1"/>
+        <v>668.81060083659122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="23">
         <v>1993</v>
       </c>
@@ -16231,8 +16672,16 @@
       <c r="E29" s="27">
         <v>3858.59</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="11">
+        <f>ストック量!J30</f>
+        <v>44455460.73137664</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="1"/>
+        <v>756.64748016068302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="23">
         <v>1994</v>
       </c>
@@ -16249,8 +16698,16 @@
       <c r="E30" s="27">
         <v>4239.6899999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="11">
+        <f>ストック量!J31</f>
+        <v>50025213.79862693</v>
+      </c>
+      <c r="G30" s="28">
+        <f t="shared" si="1"/>
+        <v>841.51513793264758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="23">
         <v>1995</v>
       </c>
@@ -16267,8 +16724,16 @@
       <c r="E31" s="27">
         <v>4698.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="11">
+        <f>ストック量!J32</f>
+        <v>56559106.41623164</v>
+      </c>
+      <c r="G31" s="28">
+        <f t="shared" si="1"/>
+        <v>940.45737306670492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="23">
         <v>1996</v>
       </c>
@@ -16285,6 +16750,14 @@
       <c r="E32" s="27">
         <v>5011.8100000000004</v>
       </c>
+      <c r="F32" s="11">
+        <f>ストック量!J33</f>
+        <v>62461124.604774624</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="1"/>
+        <v>1031.0280813050645</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="23">
@@ -16303,6 +16776,14 @@
       <c r="E33" s="27">
         <v>4969.79</v>
       </c>
+      <c r="F33" s="11">
+        <f>ストック量!J34</f>
+        <v>67645720.445983723</v>
+      </c>
+      <c r="G33" s="28">
+        <f t="shared" si="1"/>
+        <v>1108.5319003058485</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="23">
@@ -16326,8 +16807,8 @@
         <v>77113249.614224151</v>
       </c>
       <c r="G34" s="28">
-        <f>F34/D34/1000000</f>
-        <v>1.2546042999701315</v>
+        <f t="shared" si="1"/>
+        <v>1254.6042999701315</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -16352,8 +16833,8 @@
         <v>82322796.844932288</v>
       </c>
       <c r="G35" s="28">
-        <f t="shared" ref="G35:G48" si="1">F35/D35/1000000</f>
-        <v>1.3298117915815741</v>
+        <f t="shared" si="1"/>
+        <v>1329.811791581574</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -16379,7 +16860,7 @@
       </c>
       <c r="G36" s="28">
         <f t="shared" si="1"/>
-        <v>1.4041687630394539</v>
+        <v>1404.168763039454</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -16405,7 +16886,7 @@
       </c>
       <c r="G37" s="28">
         <f t="shared" si="1"/>
-        <v>1.484836469503062</v>
+        <v>1484.8364695030621</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -16431,7 +16912,7 @@
       </c>
       <c r="G38" s="28">
         <f t="shared" si="1"/>
-        <v>1.5995830934501751</v>
+        <v>1599.5830934501753</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -16457,7 +16938,7 @@
       </c>
       <c r="G39" s="28">
         <f t="shared" si="1"/>
-        <v>1.7225945285768658</v>
+        <v>1722.5945285768657</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -16483,7 +16964,7 @@
       </c>
       <c r="G40" s="28">
         <f t="shared" si="1"/>
-        <v>1.8642055057032765</v>
+        <v>1864.2055057032762</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -16509,7 +16990,7 @@
       </c>
       <c r="G41" s="28">
         <f t="shared" si="1"/>
-        <v>2.0170495399172261</v>
+        <v>2017.049539917226</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -16535,7 +17016,7 @@
       </c>
       <c r="G42" s="28">
         <f t="shared" si="1"/>
-        <v>2.1547488340659289</v>
+        <v>2154.7488340659288</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -16561,7 +17042,7 @@
       </c>
       <c r="G43" s="28">
         <f t="shared" si="1"/>
-        <v>2.2860495671912662</v>
+        <v>2286.0495671912663</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -16587,7 +17068,7 @@
       </c>
       <c r="G44" s="28">
         <f t="shared" si="1"/>
-        <v>2.4226741262826978</v>
+        <v>2422.6741262826977</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -16613,7 +17094,7 @@
       </c>
       <c r="G45" s="28">
         <f t="shared" si="1"/>
-        <v>2.5159095859559062</v>
+        <v>2515.9095859559061</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -16639,7 +17120,7 @@
       </c>
       <c r="G46" s="28">
         <f t="shared" si="1"/>
-        <v>2.6439281452390975</v>
+        <v>2643.9281452390974</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -16665,7 +17146,7 @@
       </c>
       <c r="G47" s="28">
         <f t="shared" si="1"/>
-        <v>2.776669968326849</v>
+        <v>2776.6699683268484</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -16691,7 +17172,7 @@
       </c>
       <c r="G48" s="28">
         <f t="shared" si="1"/>
-        <v>2.9260702583985423</v>
+        <v>2926.0702583985421</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -16745,6 +17226,320 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E237BE62-3E79-7349-867C-3D13BBE36685}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1982</v>
+      </c>
+      <c r="B2">
+        <f>時系列分析!G18</f>
+        <v>251.60297488071873</v>
+      </c>
+      <c r="C2">
+        <f>時系列分析!E18/1000000</f>
+        <v>1.35604E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1983</v>
+      </c>
+      <c r="C3">
+        <f>時系列分析!E19/1000000</f>
+        <v>1.4681E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1984</v>
+      </c>
+      <c r="C4">
+        <f>時系列分析!E20/1000000</f>
+        <v>1.5740799999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1985</v>
+      </c>
+      <c r="C5">
+        <f>時系列分析!E21/1000000</f>
+        <v>1.6598299999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1986</v>
+      </c>
+      <c r="C6">
+        <f>時系列分析!E22/1000000</f>
+        <v>1.74753E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1987</v>
+      </c>
+      <c r="C7">
+        <f>時系列分析!E23/1000000</f>
+        <v>1.9299100000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1988</v>
+      </c>
+      <c r="C8">
+        <f>時系列分析!E24/1000000</f>
+        <v>2.2180400000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1989</v>
+      </c>
+      <c r="C9">
+        <f>時系列分析!E25/1000000</f>
+        <v>2.5698100000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1990</v>
+      </c>
+      <c r="C10">
+        <f>時系列分析!E26/1000000</f>
+        <v>2.9210799999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1991</v>
+      </c>
+      <c r="C11">
+        <f>時系列分析!E27/1000000</f>
+        <v>3.2254599999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1992</v>
+      </c>
+      <c r="C12">
+        <f>時系列分析!E28/1000000</f>
+        <v>3.5145700000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1993</v>
+      </c>
+      <c r="C13">
+        <f>時系列分析!E29/1000000</f>
+        <v>3.8585900000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1994</v>
+      </c>
+      <c r="C14">
+        <f>時系列分析!E30/1000000</f>
+        <v>4.23969E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1995</v>
+      </c>
+      <c r="C15">
+        <f>時系列分析!E31/1000000</f>
+        <v>4.6989499999999995E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1996</v>
+      </c>
+      <c r="C16">
+        <f>時系列分析!E32/1000000</f>
+        <v>5.0118100000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1997</v>
+      </c>
+      <c r="C17">
+        <f>時系列分析!E33/1000000</f>
+        <v>4.96979E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1998</v>
+      </c>
+      <c r="C18">
+        <f>時系列分析!E34/1000000</f>
+        <v>4.4481800000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1999</v>
+      </c>
+      <c r="C19">
+        <f>時系列分析!E35/1000000</f>
+        <v>4.6974499999999997E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <f>時系列分析!E36/1000000</f>
+        <v>5.0147299999999994E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2001</v>
+      </c>
+      <c r="C21">
+        <f>時系列分析!E37/1000000</f>
+        <v>5.1527100000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2002</v>
+      </c>
+      <c r="C22">
+        <f>時系列分析!E38/1000000</f>
+        <v>5.4645699999999993E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2003</v>
+      </c>
+      <c r="C23">
+        <f>時系列分析!E39/1000000</f>
+        <v>5.9196199999999996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2004</v>
+      </c>
+      <c r="C24">
+        <f>時系列分析!E40/1000000</f>
+        <v>6.35011E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2005</v>
+      </c>
+      <c r="C25">
+        <f>時系列分析!E41/1000000</f>
+        <v>6.8350399999999997E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2006</v>
+      </c>
+      <c r="C26">
+        <f>時系列分析!E42/1000000</f>
+        <v>7.3873799999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2007</v>
+      </c>
+      <c r="C27">
+        <f>時系列分析!E43/1000000</f>
+        <v>7.9102800000000004E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="C28">
+        <f>時系列分析!E44/1000000</f>
+        <v>8.1927700000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2009</v>
+      </c>
+      <c r="C29">
+        <f>時系列分析!E45/1000000</f>
+        <v>7.9961000000000008E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="C30">
+        <f>時系列分析!E46/1000000</f>
+        <v>8.6736799999999996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2011</v>
+      </c>
+      <c r="C31">
+        <f>時系列分析!E47/1000000</f>
+        <v>8.8104899999999989E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2012</v>
+      </c>
+      <c r="C32">
+        <f>時系列分析!E48/1000000</f>
+        <v>9.5029299999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DA95E0-B38E-2942-B1EB-6F26359DDCB4}">
   <dimension ref="A1:J114"/>
   <sheetViews>

--- a/データ解析_2_J4210494 2.xlsx
+++ b/データ解析_2_J4210494 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C64A3-C14D-784C-B449-44C72C48063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D037C1-8EDA-FA46-A62F-9999A41E0417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鋼材国内消費量" sheetId="1" r:id="rId1"/>
@@ -354,18 +354,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CDP/cap [million $/cap]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>year</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ストック量（千トン）</t>
-    <rPh sb="6" eb="7">
-      <t>セン</t>
-    </rPh>
+    <t>ストック量（トン）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GDP/cap [million $/cap]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -771,97 +768,97 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>251.60297488071873</c:v>
+                  <c:v>0.2516029748807187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272.19189277850575</c:v>
+                  <c:v>0.27219189277850575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292.19897527940361</c:v>
+                  <c:v>0.29219897527940364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>309.03372380205843</c:v>
+                  <c:v>0.3090337238020584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>328.99333346050065</c:v>
+                  <c:v>0.32899333346050069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>358.14637293156255</c:v>
+                  <c:v>0.3581463729315626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>396.8712744817837</c:v>
+                  <c:v>0.39687127448178372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>441.97632524876639</c:v>
+                  <c:v>0.4419763252487664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>507.14883423726462</c:v>
+                  <c:v>0.50714883423726453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>576.3924810934476</c:v>
+                  <c:v>0.57639248109344754</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>668.81060083659122</c:v>
+                  <c:v>0.66881060083659116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>756.64748016068302</c:v>
+                  <c:v>0.75664748016068295</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>841.51513793264758</c:v>
+                  <c:v>0.84151513793264765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>940.45737306670492</c:v>
+                  <c:v>0.94045737306670507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1031.0280813050645</c:v>
+                  <c:v>1.0310280813050643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1108.5319003058485</c:v>
+                  <c:v>1.1085319003058483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1254.6042999701315</c:v>
+                  <c:v>1.2546042999701315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1329.811791581574</c:v>
+                  <c:v>1.3298117915815739</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1404.168763039454</c:v>
+                  <c:v>1.4041687630394539</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1484.8364695030621</c:v>
+                  <c:v>1.484836469503062</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1599.5830934501753</c:v>
+                  <c:v>1.5995830934501751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1722.5945285768657</c:v>
+                  <c:v>1.7225945285768658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1864.2055057032762</c:v>
+                  <c:v>1.8642055057032763</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2017.049539917226</c:v>
+                  <c:v>2.0170495399172257</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2154.7488340659288</c:v>
+                  <c:v>2.1547488340659289</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2286.0495671912663</c:v>
+                  <c:v>2.2860495671912662</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2422.6741262826977</c:v>
+                  <c:v>2.4226741262826978</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2515.9095859559061</c:v>
+                  <c:v>2.5159095859559062</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2643.9281452390974</c:v>
+                  <c:v>2.6439281452390975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2776.6699683268484</c:v>
+                  <c:v>2.7766699683268485</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2926.0702583985421</c:v>
+                  <c:v>2.9260702583985423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,97 +1417,97 @@
                 <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>251.60297488071873</c:v>
+                  <c:v>0.2516029748807187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272.19189277850575</c:v>
+                  <c:v>0.27219189277850575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292.19897527940361</c:v>
+                  <c:v>0.29219897527940364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>309.03372380205843</c:v>
+                  <c:v>0.3090337238020584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>328.99333346050065</c:v>
+                  <c:v>0.32899333346050069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>358.14637293156255</c:v>
+                  <c:v>0.3581463729315626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>396.8712744817837</c:v>
+                  <c:v>0.39687127448178372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>441.97632524876639</c:v>
+                  <c:v>0.4419763252487664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>507.14883423726462</c:v>
+                  <c:v>0.50714883423726453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>576.3924810934476</c:v>
+                  <c:v>0.57639248109344754</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>668.81060083659122</c:v>
+                  <c:v>0.66881060083659116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>756.64748016068302</c:v>
+                  <c:v>0.75664748016068295</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>841.51513793264758</c:v>
+                  <c:v>0.84151513793264765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>940.45737306670492</c:v>
+                  <c:v>0.94045737306670507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1031.0280813050645</c:v>
+                  <c:v>1.0310280813050643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1108.5319003058485</c:v>
+                  <c:v>1.1085319003058483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1254.6042999701315</c:v>
+                  <c:v>1.2546042999701315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1329.811791581574</c:v>
+                  <c:v>1.3298117915815739</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1404.168763039454</c:v>
+                  <c:v>1.4041687630394539</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1484.8364695030621</c:v>
+                  <c:v>1.484836469503062</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1599.5830934501753</c:v>
+                  <c:v>1.5995830934501751</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1722.5945285768657</c:v>
+                  <c:v>1.7225945285768658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1864.2055057032762</c:v>
+                  <c:v>1.8642055057032763</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2017.049539917226</c:v>
+                  <c:v>2.0170495399172257</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2154.7488340659288</c:v>
+                  <c:v>2.1547488340659289</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2286.0495671912663</c:v>
+                  <c:v>2.2860495671912662</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2422.6741262826977</c:v>
+                  <c:v>2.4226741262826978</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2515.9095859559061</c:v>
+                  <c:v>2.5159095859559062</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2643.9281452390974</c:v>
+                  <c:v>2.6439281452390975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2776.6699683268484</c:v>
+                  <c:v>2.7766699683268485</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2926.0702583985421</c:v>
+                  <c:v>2.9260702583985423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,8 +7247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J49"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -14499,8 +14496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16089,8 +16086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView zoomScale="82" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16117,7 +16114,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>27</v>
@@ -16391,8 +16388,8 @@
         <v>12423249.128900321</v>
       </c>
       <c r="G18" s="28">
-        <f>F18*1000/(D18*1000000)</f>
-        <v>251.60297488071873</v>
+        <f>F18/(D18*1000000)</f>
+        <v>0.2516029748807187</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -16417,8 +16414,8 @@
         <v>13727344.851741269</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" ref="G19:G48" si="1">F19*1000/(D19*1000000)</f>
-        <v>272.19189277850575</v>
+        <f t="shared" ref="G19:G48" si="1">F19/(D19*1000000)</f>
+        <v>0.27219189277850575</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -16444,7 +16441,7 @@
       </c>
       <c r="G20" s="28">
         <f t="shared" si="1"/>
-        <v>292.19897527940361</v>
+        <v>0.29219897527940364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -16470,7 +16467,7 @@
       </c>
       <c r="G21" s="28">
         <f t="shared" si="1"/>
-        <v>309.03372380205843</v>
+        <v>0.3090337238020584</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -16496,7 +16493,7 @@
       </c>
       <c r="G22" s="28">
         <f t="shared" si="1"/>
-        <v>328.99333346050065</v>
+        <v>0.32899333346050069</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -16522,7 +16519,7 @@
       </c>
       <c r="G23" s="28">
         <f t="shared" si="1"/>
-        <v>358.14637293156255</v>
+        <v>0.3581463729315626</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -16548,7 +16545,7 @@
       </c>
       <c r="G24" s="28">
         <f t="shared" si="1"/>
-        <v>396.8712744817837</v>
+        <v>0.39687127448178372</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -16574,7 +16571,7 @@
       </c>
       <c r="G25" s="28">
         <f t="shared" si="1"/>
-        <v>441.97632524876639</v>
+        <v>0.4419763252487664</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -16600,7 +16597,7 @@
       </c>
       <c r="G26" s="28">
         <f t="shared" si="1"/>
-        <v>507.14883423726462</v>
+        <v>0.50714883423726453</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -16626,7 +16623,7 @@
       </c>
       <c r="G27" s="28">
         <f t="shared" si="1"/>
-        <v>576.3924810934476</v>
+        <v>0.57639248109344754</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -16652,7 +16649,7 @@
       </c>
       <c r="G28" s="28">
         <f t="shared" si="1"/>
-        <v>668.81060083659122</v>
+        <v>0.66881060083659116</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -16678,7 +16675,7 @@
       </c>
       <c r="G29" s="28">
         <f t="shared" si="1"/>
-        <v>756.64748016068302</v>
+        <v>0.75664748016068295</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -16704,7 +16701,7 @@
       </c>
       <c r="G30" s="28">
         <f t="shared" si="1"/>
-        <v>841.51513793264758</v>
+        <v>0.84151513793264765</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -16730,7 +16727,7 @@
       </c>
       <c r="G31" s="28">
         <f t="shared" si="1"/>
-        <v>940.45737306670492</v>
+        <v>0.94045737306670507</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -16756,7 +16753,7 @@
       </c>
       <c r="G32" s="28">
         <f t="shared" si="1"/>
-        <v>1031.0280813050645</v>
+        <v>1.0310280813050643</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -16782,7 +16779,7 @@
       </c>
       <c r="G33" s="28">
         <f t="shared" si="1"/>
-        <v>1108.5319003058485</v>
+        <v>1.1085319003058483</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -16808,7 +16805,7 @@
       </c>
       <c r="G34" s="28">
         <f t="shared" si="1"/>
-        <v>1254.6042999701315</v>
+        <v>1.2546042999701315</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -16834,7 +16831,7 @@
       </c>
       <c r="G35" s="28">
         <f t="shared" si="1"/>
-        <v>1329.811791581574</v>
+        <v>1.3298117915815739</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -16860,7 +16857,7 @@
       </c>
       <c r="G36" s="28">
         <f t="shared" si="1"/>
-        <v>1404.168763039454</v>
+        <v>1.4041687630394539</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -16886,7 +16883,7 @@
       </c>
       <c r="G37" s="28">
         <f t="shared" si="1"/>
-        <v>1484.8364695030621</v>
+        <v>1.484836469503062</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -16912,7 +16909,7 @@
       </c>
       <c r="G38" s="28">
         <f t="shared" si="1"/>
-        <v>1599.5830934501753</v>
+        <v>1.5995830934501751</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -16938,7 +16935,7 @@
       </c>
       <c r="G39" s="28">
         <f t="shared" si="1"/>
-        <v>1722.5945285768657</v>
+        <v>1.7225945285768658</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -16964,7 +16961,7 @@
       </c>
       <c r="G40" s="28">
         <f t="shared" si="1"/>
-        <v>1864.2055057032762</v>
+        <v>1.8642055057032763</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -16990,7 +16987,7 @@
       </c>
       <c r="G41" s="28">
         <f t="shared" si="1"/>
-        <v>2017.049539917226</v>
+        <v>2.0170495399172257</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -17016,7 +17013,7 @@
       </c>
       <c r="G42" s="28">
         <f t="shared" si="1"/>
-        <v>2154.7488340659288</v>
+        <v>2.1547488340659289</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -17042,7 +17039,7 @@
       </c>
       <c r="G43" s="28">
         <f t="shared" si="1"/>
-        <v>2286.0495671912663</v>
+        <v>2.2860495671912662</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -17068,7 +17065,7 @@
       </c>
       <c r="G44" s="28">
         <f t="shared" si="1"/>
-        <v>2422.6741262826977</v>
+        <v>2.4226741262826978</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -17094,7 +17091,7 @@
       </c>
       <c r="G45" s="28">
         <f t="shared" si="1"/>
-        <v>2515.9095859559061</v>
+        <v>2.5159095859559062</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -17120,7 +17117,7 @@
       </c>
       <c r="G46" s="28">
         <f t="shared" si="1"/>
-        <v>2643.9281452390974</v>
+        <v>2.6439281452390975</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -17146,7 +17143,7 @@
       </c>
       <c r="G47" s="28">
         <f t="shared" si="1"/>
-        <v>2776.6699683268484</v>
+        <v>2.7766699683268485</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -17172,7 +17169,7 @@
       </c>
       <c r="G48" s="28">
         <f t="shared" si="1"/>
-        <v>2926.0702583985421</v>
+        <v>2.9260702583985423</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -17230,7 +17227,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -17241,13 +17238,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17256,7 +17253,7 @@
       </c>
       <c r="B2">
         <f>時系列分析!G18</f>
-        <v>251.60297488071873</v>
+        <v>0.2516029748807187</v>
       </c>
       <c r="C2">
         <f>時系列分析!E18/1000000</f>
@@ -17267,6 +17264,10 @@
       <c r="A3">
         <v>1983</v>
       </c>
+      <c r="B3">
+        <f>時系列分析!G19</f>
+        <v>0.27219189277850575</v>
+      </c>
       <c r="C3">
         <f>時系列分析!E19/1000000</f>
         <v>1.4681E-3</v>
@@ -17276,6 +17277,10 @@
       <c r="A4">
         <v>1984</v>
       </c>
+      <c r="B4">
+        <f>時系列分析!G20</f>
+        <v>0.29219897527940364</v>
+      </c>
       <c r="C4">
         <f>時系列分析!E20/1000000</f>
         <v>1.5740799999999998E-3</v>
@@ -17285,6 +17290,10 @@
       <c r="A5">
         <v>1985</v>
       </c>
+      <c r="B5">
+        <f>時系列分析!G21</f>
+        <v>0.3090337238020584</v>
+      </c>
       <c r="C5">
         <f>時系列分析!E21/1000000</f>
         <v>1.6598299999999999E-3</v>
@@ -17294,6 +17303,10 @@
       <c r="A6">
         <v>1986</v>
       </c>
+      <c r="B6">
+        <f>時系列分析!G22</f>
+        <v>0.32899333346050069</v>
+      </c>
       <c r="C6">
         <f>時系列分析!E22/1000000</f>
         <v>1.74753E-3</v>
@@ -17303,6 +17316,10 @@
       <c r="A7">
         <v>1987</v>
       </c>
+      <c r="B7">
+        <f>時系列分析!G23</f>
+        <v>0.3581463729315626</v>
+      </c>
       <c r="C7">
         <f>時系列分析!E23/1000000</f>
         <v>1.9299100000000002E-3</v>
@@ -17312,6 +17329,10 @@
       <c r="A8">
         <v>1988</v>
       </c>
+      <c r="B8">
+        <f>時系列分析!G24</f>
+        <v>0.39687127448178372</v>
+      </c>
       <c r="C8">
         <f>時系列分析!E24/1000000</f>
         <v>2.2180400000000001E-3</v>
@@ -17321,6 +17342,10 @@
       <c r="A9">
         <v>1989</v>
       </c>
+      <c r="B9">
+        <f>時系列分析!G25</f>
+        <v>0.4419763252487664</v>
+      </c>
       <c r="C9">
         <f>時系列分析!E25/1000000</f>
         <v>2.5698100000000001E-3</v>
@@ -17330,6 +17355,10 @@
       <c r="A10">
         <v>1990</v>
       </c>
+      <c r="B10">
+        <f>時系列分析!G26</f>
+        <v>0.50714883423726453</v>
+      </c>
       <c r="C10">
         <f>時系列分析!E26/1000000</f>
         <v>2.9210799999999999E-3</v>
@@ -17339,6 +17368,10 @@
       <c r="A11">
         <v>1991</v>
       </c>
+      <c r="B11">
+        <f>時系列分析!G27</f>
+        <v>0.57639248109344754</v>
+      </c>
       <c r="C11">
         <f>時系列分析!E27/1000000</f>
         <v>3.2254599999999999E-3</v>
@@ -17348,6 +17381,10 @@
       <c r="A12">
         <v>1992</v>
       </c>
+      <c r="B12">
+        <f>時系列分析!G28</f>
+        <v>0.66881060083659116</v>
+      </c>
       <c r="C12">
         <f>時系列分析!E28/1000000</f>
         <v>3.5145700000000003E-3</v>
@@ -17357,6 +17394,10 @@
       <c r="A13">
         <v>1993</v>
       </c>
+      <c r="B13">
+        <f>時系列分析!G29</f>
+        <v>0.75664748016068295</v>
+      </c>
       <c r="C13">
         <f>時系列分析!E29/1000000</f>
         <v>3.8585900000000003E-3</v>
@@ -17366,6 +17407,10 @@
       <c r="A14">
         <v>1994</v>
       </c>
+      <c r="B14">
+        <f>時系列分析!G30</f>
+        <v>0.84151513793264765</v>
+      </c>
       <c r="C14">
         <f>時系列分析!E30/1000000</f>
         <v>4.23969E-3</v>
@@ -17375,6 +17420,10 @@
       <c r="A15">
         <v>1995</v>
       </c>
+      <c r="B15">
+        <f>時系列分析!G31</f>
+        <v>0.94045737306670507</v>
+      </c>
       <c r="C15">
         <f>時系列分析!E31/1000000</f>
         <v>4.6989499999999995E-3</v>
@@ -17384,6 +17433,10 @@
       <c r="A16">
         <v>1996</v>
       </c>
+      <c r="B16">
+        <f>時系列分析!G32</f>
+        <v>1.0310280813050643</v>
+      </c>
       <c r="C16">
         <f>時系列分析!E32/1000000</f>
         <v>5.0118100000000002E-3</v>
@@ -17393,6 +17446,10 @@
       <c r="A17">
         <v>1997</v>
       </c>
+      <c r="B17">
+        <f>時系列分析!G33</f>
+        <v>1.1085319003058483</v>
+      </c>
       <c r="C17">
         <f>時系列分析!E33/1000000</f>
         <v>4.96979E-3</v>
@@ -17402,6 +17459,10 @@
       <c r="A18">
         <v>1998</v>
       </c>
+      <c r="B18">
+        <f>時系列分析!G34</f>
+        <v>1.2546042999701315</v>
+      </c>
       <c r="C18">
         <f>時系列分析!E34/1000000</f>
         <v>4.4481800000000004E-3</v>
@@ -17411,6 +17472,10 @@
       <c r="A19">
         <v>1999</v>
       </c>
+      <c r="B19">
+        <f>時系列分析!G35</f>
+        <v>1.3298117915815739</v>
+      </c>
       <c r="C19">
         <f>時系列分析!E35/1000000</f>
         <v>4.6974499999999997E-3</v>
@@ -17420,6 +17485,10 @@
       <c r="A20">
         <v>2000</v>
       </c>
+      <c r="B20">
+        <f>時系列分析!G36</f>
+        <v>1.4041687630394539</v>
+      </c>
       <c r="C20">
         <f>時系列分析!E36/1000000</f>
         <v>5.0147299999999994E-3</v>
@@ -17429,6 +17498,10 @@
       <c r="A21">
         <v>2001</v>
       </c>
+      <c r="B21">
+        <f>時系列分析!G37</f>
+        <v>1.484836469503062</v>
+      </c>
       <c r="C21">
         <f>時系列分析!E37/1000000</f>
         <v>5.1527100000000004E-3</v>
@@ -17438,6 +17511,10 @@
       <c r="A22">
         <v>2002</v>
       </c>
+      <c r="B22">
+        <f>時系列分析!G38</f>
+        <v>1.5995830934501751</v>
+      </c>
       <c r="C22">
         <f>時系列分析!E38/1000000</f>
         <v>5.4645699999999993E-3</v>
@@ -17447,6 +17524,10 @@
       <c r="A23">
         <v>2003</v>
       </c>
+      <c r="B23">
+        <f>時系列分析!G39</f>
+        <v>1.7225945285768658</v>
+      </c>
       <c r="C23">
         <f>時系列分析!E39/1000000</f>
         <v>5.9196199999999996E-3</v>
@@ -17456,6 +17537,10 @@
       <c r="A24">
         <v>2004</v>
       </c>
+      <c r="B24">
+        <f>時系列分析!G40</f>
+        <v>1.8642055057032763</v>
+      </c>
       <c r="C24">
         <f>時系列分析!E40/1000000</f>
         <v>6.35011E-3</v>
@@ -17465,6 +17550,10 @@
       <c r="A25">
         <v>2005</v>
       </c>
+      <c r="B25">
+        <f>時系列分析!G41</f>
+        <v>2.0170495399172257</v>
+      </c>
       <c r="C25">
         <f>時系列分析!E41/1000000</f>
         <v>6.8350399999999997E-3</v>
@@ -17474,6 +17563,10 @@
       <c r="A26">
         <v>2006</v>
       </c>
+      <c r="B26">
+        <f>時系列分析!G42</f>
+        <v>2.1547488340659289</v>
+      </c>
       <c r="C26">
         <f>時系列分析!E42/1000000</f>
         <v>7.3873799999999998E-3</v>
@@ -17483,6 +17576,10 @@
       <c r="A27">
         <v>2007</v>
       </c>
+      <c r="B27">
+        <f>時系列分析!G43</f>
+        <v>2.2860495671912662</v>
+      </c>
       <c r="C27">
         <f>時系列分析!E43/1000000</f>
         <v>7.9102800000000004E-3</v>
@@ -17492,6 +17589,10 @@
       <c r="A28">
         <v>2008</v>
       </c>
+      <c r="B28">
+        <f>時系列分析!G44</f>
+        <v>2.4226741262826978</v>
+      </c>
       <c r="C28">
         <f>時系列分析!E44/1000000</f>
         <v>8.1927700000000003E-3</v>
@@ -17501,6 +17602,10 @@
       <c r="A29">
         <v>2009</v>
       </c>
+      <c r="B29">
+        <f>時系列分析!G45</f>
+        <v>2.5159095859559062</v>
+      </c>
       <c r="C29">
         <f>時系列分析!E45/1000000</f>
         <v>7.9961000000000008E-3</v>
@@ -17510,6 +17615,10 @@
       <c r="A30">
         <v>2010</v>
       </c>
+      <c r="B30">
+        <f>時系列分析!G46</f>
+        <v>2.6439281452390975</v>
+      </c>
       <c r="C30">
         <f>時系列分析!E46/1000000</f>
         <v>8.6736799999999996E-3</v>
@@ -17519,6 +17628,10 @@
       <c r="A31">
         <v>2011</v>
       </c>
+      <c r="B31">
+        <f>時系列分析!G47</f>
+        <v>2.7766699683268485</v>
+      </c>
       <c r="C31">
         <f>時系列分析!E47/1000000</f>
         <v>8.8104899999999989E-3</v>
@@ -17527,6 +17640,10 @@
     <row r="32" spans="1:3">
       <c r="A32">
         <v>2012</v>
+      </c>
+      <c r="B32">
+        <f>時系列分析!G48</f>
+        <v>2.9260702583985423</v>
       </c>
       <c r="C32">
         <f>時系列分析!E48/1000000</f>
@@ -17544,7 +17661,7 @@
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/データ解析_2_J4210494 2.xlsx
+++ b/データ解析_2_J4210494 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D037C1-8EDA-FA46-A62F-9999A41E0417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D70CAD-6C8E-DE43-9E77-0E5B4BDA528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鋼材国内消費量" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t>建築</t>
     <rPh sb="0" eb="2">
@@ -365,6 +365,38 @@
     <t>GDP/cap [million $/cap]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A=-c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B=ln(b)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y=ln(K/y -1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -430,12 +462,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -476,7 +514,7 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -516,6 +554,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -774,46 +813,46 @@
                   <c:v>0.27219189277850575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29219897527940364</c:v>
+                  <c:v>0.29326568661760105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3090337238020584</c:v>
+                  <c:v>0.3105269659686416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32899333346050069</c:v>
+                  <c:v>0.33143377070511792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3581463729315626</c:v>
+                  <c:v>0.36497974083402618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39687127448178372</c:v>
+                  <c:v>0.4084505897041516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4419763252487664</c:v>
+                  <c:v>0.46133643878819891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50714883423726453</c:v>
+                  <c:v>0.5351983184602539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57639248109344754</c:v>
+                  <c:v>0.61302060017086168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66881060083659116</c:v>
+                  <c:v>0.712298634146043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75664748016068295</c:v>
+                  <c:v>0.81018021141954821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84151513793264765</c:v>
+                  <c:v>0.90682009353871862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94045737306670507</c:v>
+                  <c:v>1.0188182259327245</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0310280813050643</c:v>
+                  <c:v>1.1289153444402957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1085319003058483</c:v>
+                  <c:v>1.220815894748249</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.2546042999701315</c:v>
@@ -1423,46 +1462,46 @@
                   <c:v>0.27219189277850575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29219897527940364</c:v>
+                  <c:v>0.29326568661760105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3090337238020584</c:v>
+                  <c:v>0.3105269659686416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32899333346050069</c:v>
+                  <c:v>0.33143377070511792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3581463729315626</c:v>
+                  <c:v>0.36497974083402618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39687127448178372</c:v>
+                  <c:v>0.4084505897041516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4419763252487664</c:v>
+                  <c:v>0.46133643878819891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50714883423726453</c:v>
+                  <c:v>0.5351983184602539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57639248109344754</c:v>
+                  <c:v>0.61302060017086168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66881060083659116</c:v>
+                  <c:v>0.712298634146043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75664748016068295</c:v>
+                  <c:v>0.81018021141954821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84151513793264765</c:v>
+                  <c:v>0.90682009353871862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94045737306670507</c:v>
+                  <c:v>1.0188182259327245</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0310280813050643</c:v>
+                  <c:v>1.1289153444402957</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1085319003058483</c:v>
+                  <c:v>1.220815894748249</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.2546042999701315</c:v>
@@ -1829,6 +1868,494 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時系列分析2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y=ln(K/y -1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5347085404577169E-2"/>
+                  <c:y val="-0.58407008807734084"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>時系列分析2!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.35604E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4681E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5740799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6598299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.74753E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9299100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2180400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5698100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9210799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2254599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5145700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8585900000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.23969E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6989499999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0118100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.96979E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4481800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6974499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0147299999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1527100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4645699999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9196199999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.35011E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8350399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3873799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9102800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1927700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9961000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6736799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8104899999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5029299999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>時系列分析2!$I$2:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3.7546595598882098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6740872319918814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5975492191539717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5387439630552899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4716289583007427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3720657851069156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.255440785155403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1286784382428192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9731353171406498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8299097790905861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6702071651751189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5318877347810291</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4096711408343214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2820581439769181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1683524420125662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0807366543379984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0499747135388566</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9840103502696422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9218832580366449</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8575820425561276</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7710110113543456</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6837503237775118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.589365198576675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4936925675207082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4122065571375013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3380999913808718</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2642502542367504</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2155582910893763</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1507226977546234</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0857228837908368</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.014980006518974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34FF-2B43-A422-959059060A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1541613440"/>
+        <c:axId val="1541615088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1541613440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541615088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1541615088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541613440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4804,6 +5331,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5876,6 +6443,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6887,6 +7970,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357256</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>785191</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB85107D-6F66-6C41-BF2A-982262DF0269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>300566</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -7247,8 +8371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:Y43"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -14496,8 +15620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -14802,7 +15926,7 @@
         <v>1982</v>
       </c>
       <c r="B19" s="11">
-        <f>SUM(国内投入量!$B3:B19)</f>
+        <f>SUM(国内投入量!B$3:B19)</f>
         <v>8444639.5433705654</v>
       </c>
       <c r="D19" s="11">
@@ -14839,7 +15963,7 @@
         <v>1983</v>
       </c>
       <c r="B20" s="11">
-        <f>SUM(国内投入量!$B4:B20)</f>
+        <f>SUM(国内投入量!B$3:B20)</f>
         <v>9386658.5422470197</v>
       </c>
       <c r="D20" s="11">
@@ -14876,8 +16000,8 @@
         <v>1984</v>
       </c>
       <c r="B21" s="11">
-        <f>SUM(国内投入量!$B5:B21)</f>
-        <v>10446054.415063834</v>
+        <f>SUM(国内投入量!B$3:B21)</f>
+        <v>10500978.101814013</v>
       </c>
       <c r="D21" s="11">
         <f>SUM(国内投入量!D5:D21)</f>
@@ -14905,7 +16029,7 @@
       </c>
       <c r="J21" s="11">
         <f t="shared" si="0"/>
-        <v>15044974.59836616</v>
+        <v>15099898.285116339</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -14913,8 +16037,8 @@
         <v>1985</v>
       </c>
       <c r="B22" s="11">
-        <f>SUM(国内投入量!$B6:B22)</f>
-        <v>11537142.565460885</v>
+        <f>SUM(国内投入量!B$3:B22)</f>
+        <v>11615604.975103999</v>
       </c>
       <c r="D22" s="11">
         <f>SUM(国内投入量!D6:D22)</f>
@@ -14942,7 +16066,7 @@
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>16238177.017179159</v>
+        <v>16316639.426822273</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -14950,8 +16074,8 @@
         <v>1986</v>
       </c>
       <c r="B23" s="11">
-        <f>SUM(国内投入量!$B7:B23)</f>
-        <v>12643762.216152968</v>
+        <f>SUM(国内投入量!B$3:B23)</f>
+        <v>12774009.816160535</v>
       </c>
       <c r="D23" s="11">
         <f>SUM(国内投入量!D7:D23)</f>
@@ -14979,7 +16103,7 @@
       </c>
       <c r="J23" s="11">
         <f t="shared" si="0"/>
-        <v>17558571.602786995</v>
+        <v>17688819.202794563</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -14987,8 +16111,8 @@
         <v>1987</v>
       </c>
       <c r="B24" s="11">
-        <f>SUM(国内投入量!$B8:B24)</f>
-        <v>14108903.925869262</v>
+        <f>SUM(国内投入量!B$3:B24)</f>
+        <v>14479246.499384757</v>
       </c>
       <c r="D24" s="11">
         <f>SUM(国内投入量!D8:D24)</f>
@@ -15016,7 +16140,7 @@
       </c>
       <c r="J24" s="11">
         <f t="shared" si="0"/>
-        <v>19410172.456673551</v>
+        <v>19780515.030189048</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -15024,8 +16148,8 @@
         <v>1988</v>
       </c>
       <c r="B25" s="11">
-        <f>SUM(国内投入量!$B9:B25)</f>
-        <v>16023702.285869459</v>
+        <f>SUM(国内投入量!B$3:B25)</f>
+        <v>16660817.052171538</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(国内投入量!D9:D25)</f>
@@ -15053,7 +16177,7 @@
       </c>
       <c r="J25" s="11">
         <f t="shared" si="0"/>
-        <v>21836571.890281811</v>
+        <v>22473686.65658389</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -15061,8 +16185,8 @@
         <v>1989</v>
       </c>
       <c r="B26" s="11">
-        <f>SUM(国内投入量!$B10:B26)</f>
-        <v>18374193.412413243</v>
+        <f>SUM(国内投入量!B$3:B26)</f>
+        <v>19455405.417295344</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(国内投入量!D10:D26)</f>
@@ -15090,7 +16214,7 @@
       </c>
       <c r="J26" s="11">
         <f t="shared" si="0"/>
-        <v>24683228.626697958</v>
+        <v>25764440.631580058</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -15098,8 +16222,8 @@
         <v>1990</v>
       </c>
       <c r="B27" s="11">
-        <f>SUM(国内投入量!$B11:B27)</f>
-        <v>21704988.787357308</v>
+        <f>SUM(国内投入量!B$3:B27)</f>
+        <v>23294637.206726782</v>
       </c>
       <c r="D27" s="11">
         <f>SUM(国内投入量!D11:D27)</f>
@@ -15127,7 +16251,7 @@
       </c>
       <c r="J27" s="11">
         <f t="shared" si="0"/>
-        <v>28741645.882728495</v>
+        <v>30331294.302097969</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -15135,8 +16259,8 @@
         <v>1991</v>
       </c>
       <c r="B28" s="11">
-        <f>SUM(国内投入量!$B12:B28)</f>
-        <v>25304936.639314849</v>
+        <f>SUM(国内投入量!B$3:B28)</f>
+        <v>27406159.969557423</v>
       </c>
       <c r="D28" s="11">
         <f>SUM(国内投入量!D12:D28)</f>
@@ -15164,7 +16288,7 @@
       </c>
       <c r="J28" s="11">
         <f t="shared" si="0"/>
-        <v>33065561.62739915</v>
+        <v>35166784.957641721</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -15172,8 +16296,8 @@
         <v>1992</v>
       </c>
       <c r="B29" s="11">
-        <f>SUM(国内投入量!$B13:B29)</f>
-        <v>29719196.243481837</v>
+        <f>SUM(国内投入量!B$3:B29)</f>
+        <v>32244102.759821955</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(国内投入量!D13:D29)</f>
@@ -15201,7 +16325,7 @@
       </c>
       <c r="J29" s="11">
         <f t="shared" si="0"/>
-        <v>38831009.722452313</v>
+        <v>41355916.238792427</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -15209,8 +16333,8 @@
         <v>1993</v>
       </c>
       <c r="B30" s="11">
-        <f>SUM(国内投入量!$B14:B30)</f>
-        <v>33501424.201153845</v>
+        <f>SUM(国内投入量!B$3:B30)</f>
+        <v>36646643.467352204</v>
       </c>
       <c r="D30" s="11">
         <f>SUM(国内投入量!D14:D30)</f>
@@ -15238,7 +16362,7 @@
       </c>
       <c r="J30" s="11">
         <f t="shared" si="0"/>
-        <v>44455460.73137664</v>
+        <v>47600679.997575</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -15246,8 +16370,8 @@
         <v>1994</v>
       </c>
       <c r="B31" s="11">
-        <f>SUM(国内投入量!$B15:B31)</f>
-        <v>37231371.383156814</v>
+        <f>SUM(国内投入量!B$3:B31)</f>
+        <v>41113528.957088672</v>
       </c>
       <c r="D31" s="11">
         <f>SUM(国内投入量!D15:D31)</f>
@@ -15275,7 +16399,7 @@
       </c>
       <c r="J31" s="11">
         <f t="shared" si="0"/>
-        <v>50025213.79862693</v>
+        <v>53907371.372558787</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -15283,8 +16407,8 @@
         <v>1995</v>
       </c>
       <c r="B32" s="11">
-        <f>SUM(国内投入量!$B16:B32)</f>
-        <v>41395127.963958807</v>
+        <f>SUM(国内投入量!B$3:B32)</f>
+        <v>46107749.655321218</v>
       </c>
       <c r="D32" s="11">
         <f>SUM(国内投入量!D16:D32)</f>
@@ -15312,7 +16436,7 @@
       </c>
       <c r="J32" s="11">
         <f t="shared" si="0"/>
-        <v>56559106.41623164</v>
+        <v>61271728.10759405</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -15320,8 +16444,8 @@
         <v>1996</v>
       </c>
       <c r="B33" s="11">
-        <f>SUM(国内投入量!$B17:B33)</f>
-        <v>45023490.640825905</v>
+        <f>SUM(国内投入量!B$3:B33)</f>
+        <v>50953638.083726607</v>
       </c>
       <c r="D33" s="11">
         <f>SUM(国内投入量!D17:D33)</f>
@@ -15349,7 +16473,7 @@
       </c>
       <c r="J33" s="11">
         <f t="shared" si="0"/>
-        <v>62461124.604774624</v>
+        <v>68391272.047675326</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -15357,8 +16481,8 @@
         <v>1997</v>
       </c>
       <c r="B34" s="11">
-        <f>SUM(国内投入量!$B18:B34)</f>
-        <v>48302480.115485758</v>
+        <f>SUM(国内投入量!B$3:B34)</f>
+        <v>55154363.851545483</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(国内投入量!D18:D34)</f>
@@ -15386,7 +16510,7 @@
       </c>
       <c r="J34" s="11">
         <f t="shared" si="0"/>
-        <v>67645720.445983723</v>
+        <v>74497604.182043448</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -15394,7 +16518,7 @@
         <v>1998</v>
       </c>
       <c r="B35" s="11">
-        <f>SUM(国内投入量!B3:B35)</f>
+        <f>SUM(国内投入量!B$3:B35)</f>
         <v>57330805.558212288</v>
       </c>
       <c r="D35" s="11">
@@ -16086,8 +17210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="C1" zoomScale="88" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16437,11 +17561,11 @@
       </c>
       <c r="F20" s="11">
         <f>ストック量!J21</f>
-        <v>15044974.59836616</v>
+        <v>15099898.285116339</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" si="1"/>
-        <v>0.29219897527940364</v>
+        <v>0.29326568661760105</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -16463,11 +17587,11 @@
       </c>
       <c r="F21" s="11">
         <f>ストック量!J22</f>
-        <v>16238177.017179159</v>
+        <v>16316639.426822273</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" si="1"/>
-        <v>0.3090337238020584</v>
+        <v>0.3105269659686416</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -16489,11 +17613,11 @@
       </c>
       <c r="F22" s="11">
         <f>ストック量!J23</f>
-        <v>17558571.602786995</v>
+        <v>17688819.202794563</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" si="1"/>
-        <v>0.32899333346050069</v>
+        <v>0.33143377070511792</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -16515,11 +17639,11 @@
       </c>
       <c r="F23" s="11">
         <f>ストック量!J24</f>
-        <v>19410172.456673551</v>
+        <v>19780515.030189048</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" si="1"/>
-        <v>0.3581463729315626</v>
+        <v>0.36497974083402618</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -16541,11 +17665,11 @@
       </c>
       <c r="F24" s="11">
         <f>ストック量!J25</f>
-        <v>21836571.890281811</v>
+        <v>22473686.65658389</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" si="1"/>
-        <v>0.39687127448178372</v>
+        <v>0.4084505897041516</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -16567,11 +17691,11 @@
       </c>
       <c r="F25" s="11">
         <f>ストック量!J26</f>
-        <v>24683228.626697958</v>
+        <v>25764440.631580058</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" si="1"/>
-        <v>0.4419763252487664</v>
+        <v>0.46133643878819891</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -16593,11 +17717,11 @@
       </c>
       <c r="F26" s="11">
         <f>ストック量!J27</f>
-        <v>28741645.882728495</v>
+        <v>30331294.302097969</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" si="1"/>
-        <v>0.50714883423726453</v>
+        <v>0.5351983184602539</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -16619,11 +17743,11 @@
       </c>
       <c r="F27" s="11">
         <f>ストック量!J28</f>
-        <v>33065561.62739915</v>
+        <v>35166784.957641721</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" si="1"/>
-        <v>0.57639248109344754</v>
+        <v>0.61302060017086168</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -16645,11 +17769,11 @@
       </c>
       <c r="F28" s="11">
         <f>ストック量!J29</f>
-        <v>38831009.722452313</v>
+        <v>41355916.238792427</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" si="1"/>
-        <v>0.66881060083659116</v>
+        <v>0.712298634146043</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -16671,11 +17795,11 @@
       </c>
       <c r="F29" s="11">
         <f>ストック量!J30</f>
-        <v>44455460.73137664</v>
+        <v>47600679.997575</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" si="1"/>
-        <v>0.75664748016068295</v>
+        <v>0.81018021141954821</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -16697,11 +17821,11 @@
       </c>
       <c r="F30" s="11">
         <f>ストック量!J31</f>
-        <v>50025213.79862693</v>
+        <v>53907371.372558787</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" si="1"/>
-        <v>0.84151513793264765</v>
+        <v>0.90682009353871862</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -16723,11 +17847,11 @@
       </c>
       <c r="F31" s="11">
         <f>ストック量!J32</f>
-        <v>56559106.41623164</v>
+        <v>61271728.10759405</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" si="1"/>
-        <v>0.94045737306670507</v>
+        <v>1.0188182259327245</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -16749,11 +17873,11 @@
       </c>
       <c r="F32" s="11">
         <f>ストック量!J33</f>
-        <v>62461124.604774624</v>
+        <v>68391272.047675326</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" si="1"/>
-        <v>1.0310280813050643</v>
+        <v>1.1289153444402957</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -16775,11 +17899,11 @@
       </c>
       <c r="F33" s="11">
         <f>ストック量!J34</f>
-        <v>67645720.445983723</v>
+        <v>74497604.182043448</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" si="1"/>
-        <v>1.1085319003058483</v>
+        <v>1.220815894748249</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -17224,19 +18348,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E237BE62-3E79-7349-867C-3D13BBE36685}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -17246,8 +18371,17 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1982</v>
       </c>
@@ -17259,8 +18393,23 @@
         <f>時系列分析!E18/1000000</f>
         <v>1.35604E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <f>POWER(10,F7)</f>
+        <v>8975.6473119097882</v>
+      </c>
+      <c r="H2">
+        <f>C2</f>
+        <v>1.35604E-3</v>
+      </c>
+      <c r="I2">
+        <f>LN($F$4/B2-1)</f>
+        <v>3.7546595598882098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1983</v>
       </c>
@@ -17272,190 +18421,337 @@
         <f>時系列分析!E19/1000000</f>
         <v>1.4681E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <f>-F6</f>
+        <v>348.0689349990908</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H32" si="0">C3</f>
+        <v>1.4681E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I32" si="1">LN($F$4/B3-1)</f>
+        <v>3.6740872319918814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1984</v>
       </c>
       <c r="B4">
         <f>時系列分析!G20</f>
-        <v>0.29219897527940364</v>
+        <v>0.29326568661760105</v>
       </c>
       <c r="C4">
         <f>時系列分析!E20/1000000</f>
         <v>1.5740799999999998E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="29">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.5740799999999998E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>3.5975492191539717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1985</v>
       </c>
       <c r="B5">
         <f>時系列分析!G21</f>
-        <v>0.3090337238020584</v>
+        <v>0.3105269659686416</v>
       </c>
       <c r="C5">
         <f>時系列分析!E21/1000000</f>
         <v>1.6598299999999999E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.6598299999999999E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3.5387439630552899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1986</v>
       </c>
       <c r="B6">
         <f>時系列分析!G22</f>
-        <v>0.32899333346050069</v>
+        <v>0.33143377070511792</v>
       </c>
       <c r="C6">
         <f>時系列分析!E22/1000000</f>
         <v>1.74753E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <f>INDEX(LINEST(I2:I32,H2:H32),1,1)</f>
+        <v>-348.0689349990908</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.74753E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3.4716289583007427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1987</v>
       </c>
       <c r="B7">
         <f>時系列分析!G23</f>
-        <v>0.3581463729315626</v>
+        <v>0.36497974083402618</v>
       </c>
       <c r="C7">
         <f>時系列分析!E23/1000000</f>
         <v>1.9299100000000002E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <f>INDEX(LINEST(I2:I32,H2:H32),1,2)</f>
+        <v>3.9530657791281389</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.9299100000000002E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>3.3720657851069156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1988</v>
       </c>
       <c r="B8">
         <f>時系列分析!G24</f>
-        <v>0.39687127448178372</v>
+        <v>0.4084505897041516</v>
       </c>
       <c r="C8">
         <f>時系列分析!E24/1000000</f>
         <v>2.2180400000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.2180400000000001E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>3.255440785155403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1989</v>
       </c>
       <c r="B9">
         <f>時系列分析!G25</f>
-        <v>0.4419763252487664</v>
+        <v>0.46133643878819891</v>
       </c>
       <c r="C9">
         <f>時系列分析!E25/1000000</f>
         <v>2.5698100000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2.5698100000000001E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>3.1286784382428192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1990</v>
       </c>
       <c r="B10">
         <f>時系列分析!G26</f>
-        <v>0.50714883423726453</v>
+        <v>0.5351983184602539</v>
       </c>
       <c r="C10">
         <f>時系列分析!E26/1000000</f>
         <v>2.9210799999999999E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2.9210799999999999E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>2.9731353171406498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1991</v>
       </c>
       <c r="B11">
         <f>時系列分析!G27</f>
-        <v>0.57639248109344754</v>
+        <v>0.61302060017086168</v>
       </c>
       <c r="C11">
         <f>時系列分析!E27/1000000</f>
         <v>3.2254599999999999E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.2254599999999999E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2.8299097790905861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1992</v>
       </c>
       <c r="B12">
         <f>時系列分析!G28</f>
-        <v>0.66881060083659116</v>
+        <v>0.712298634146043</v>
       </c>
       <c r="C12">
         <f>時系列分析!E28/1000000</f>
         <v>3.5145700000000003E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.5145700000000003E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2.6702071651751189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1993</v>
       </c>
       <c r="B13">
         <f>時系列分析!G29</f>
-        <v>0.75664748016068295</v>
+        <v>0.81018021141954821</v>
       </c>
       <c r="C13">
         <f>時系列分析!E29/1000000</f>
         <v>3.8585900000000003E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.8585900000000003E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2.5318877347810291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1994</v>
       </c>
       <c r="B14">
         <f>時系列分析!G30</f>
-        <v>0.84151513793264765</v>
+        <v>0.90682009353871862</v>
       </c>
       <c r="C14">
         <f>時系列分析!E30/1000000</f>
         <v>4.23969E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4.23969E-3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.4096711408343214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1995</v>
       </c>
       <c r="B15">
         <f>時系列分析!G31</f>
-        <v>0.94045737306670507</v>
+        <v>1.0188182259327245</v>
       </c>
       <c r="C15">
         <f>時系列分析!E31/1000000</f>
         <v>4.6989499999999995E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.6989499999999995E-3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>2.2820581439769181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1996</v>
       </c>
       <c r="B16">
         <f>時系列分析!G32</f>
-        <v>1.0310280813050643</v>
+        <v>1.1289153444402957</v>
       </c>
       <c r="C16">
         <f>時系列分析!E32/1000000</f>
         <v>5.0118100000000002E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5.0118100000000002E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>2.1683524420125662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1997</v>
       </c>
       <c r="B17">
         <f>時系列分析!G33</f>
-        <v>1.1085319003058483</v>
+        <v>1.220815894748249</v>
       </c>
       <c r="C17">
         <f>時系列分析!E33/1000000</f>
         <v>4.96979E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>4.96979E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>2.0807366543379984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -17467,8 +18763,16 @@
         <f>時系列分析!E34/1000000</f>
         <v>4.4481800000000004E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>4.4481800000000004E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>2.0499747135388566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -17480,8 +18784,16 @@
         <f>時系列分析!E35/1000000</f>
         <v>4.6974499999999997E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>4.6974499999999997E-3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.9840103502696422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -17493,8 +18805,16 @@
         <f>時系列分析!E36/1000000</f>
         <v>5.0147299999999994E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>5.0147299999999994E-3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.9218832580366449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>2001</v>
       </c>
@@ -17506,8 +18826,16 @@
         <f>時系列分析!E37/1000000</f>
         <v>5.1527100000000004E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>5.1527100000000004E-3</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.8575820425561276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -17519,8 +18847,16 @@
         <f>時系列分析!E38/1000000</f>
         <v>5.4645699999999993E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>5.4645699999999993E-3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1.7710110113543456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>2003</v>
       </c>
@@ -17532,8 +18868,16 @@
         <f>時系列分析!E39/1000000</f>
         <v>5.9196199999999996E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>5.9196199999999996E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1.6837503237775118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>2004</v>
       </c>
@@ -17545,8 +18889,16 @@
         <f>時系列分析!E40/1000000</f>
         <v>6.35011E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>6.35011E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1.589365198576675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -17558,8 +18910,16 @@
         <f>時系列分析!E41/1000000</f>
         <v>6.8350399999999997E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>6.8350399999999997E-3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1.4936925675207082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>2006</v>
       </c>
@@ -17571,8 +18931,16 @@
         <f>時系列分析!E42/1000000</f>
         <v>7.3873799999999998E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>7.3873799999999998E-3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1.4122065571375013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>2007</v>
       </c>
@@ -17584,8 +18952,16 @@
         <f>時系列分析!E43/1000000</f>
         <v>7.9102800000000004E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>7.9102800000000004E-3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1.3380999913808718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>2008</v>
       </c>
@@ -17597,8 +18973,16 @@
         <f>時系列分析!E44/1000000</f>
         <v>8.1927700000000003E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>8.1927700000000003E-3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1.2642502542367504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -17610,8 +18994,16 @@
         <f>時系列分析!E45/1000000</f>
         <v>7.9961000000000008E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>7.9961000000000008E-3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1.2155582910893763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -17623,8 +19015,16 @@
         <f>時系列分析!E46/1000000</f>
         <v>8.6736799999999996E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>8.6736799999999996E-3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1.1507226977546234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -17636,8 +19036,16 @@
         <f>時系列分析!E47/1000000</f>
         <v>8.8104899999999989E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>8.8104899999999989E-3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>1.0857228837908368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>2012</v>
       </c>
@@ -17649,10 +19057,19 @@
         <f>時系列分析!E48/1000000</f>
         <v>9.5029299999999997E-3</v>
       </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>9.5029299999999997E-3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1.014980006518974</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17661,7 +19078,7 @@
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/データ解析_2_J4210494 2.xlsx
+++ b/データ解析_2_J4210494 2.xlsx
@@ -3,19 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D70CAD-6C8E-DE43-9E77-0E5B4BDA528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74415F6-D0BC-884F-9563-3DE125BFB66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13120" yWindow="820" windowWidth="16960" windowHeight="16060" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鋼材国内消費量" sheetId="1" r:id="rId1"/>
     <sheet name="投入量" sheetId="2" r:id="rId2"/>
     <sheet name="製品使用年数" sheetId="4" r:id="rId3"/>
     <sheet name="ストック量" sheetId="6" r:id="rId4"/>
-    <sheet name="時系列分析" sheetId="5" r:id="rId5"/>
-    <sheet name="時系列分析2" sheetId="8" r:id="rId6"/>
-    <sheet name="国内投入量" sheetId="7" r:id="rId7"/>
+    <sheet name="GDP per cap preditction" sheetId="9" r:id="rId5"/>
+    <sheet name="時系列分析" sheetId="5" r:id="rId6"/>
+    <sheet name="時系列分析2" sheetId="8" r:id="rId7"/>
+    <sheet name="国内投入量" sheetId="7" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">時系列分析2!$I$2:$I$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">時系列分析2!$J$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">時系列分析2!$J$2:$J$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>建築</t>
     <rPh sb="0" eb="2">
@@ -312,13 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GDP (UDドル/人）</t>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">ニン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予測値</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">ヨソクチ </t>
@@ -397,12 +396,55 @@
     <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>GDP (UDドル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pred. steel stock [ton/cap]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cap [1000 person]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先生提供のデータ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">テイキョウノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトのデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←比率2005基準</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ヒリツ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">キジュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先生提供のデータ+pred.</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">センセイテイキョウノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -410,8 +452,9 @@
     <numFmt numFmtId="180" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="181" formatCode="#,##0.000_ "/>
     <numFmt numFmtId="182" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="186" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +503,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -514,7 +564,7 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -555,6 +605,12 @@
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1883,7 +1939,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9337165385962045E-2"/>
+          <c:y val="3.088918742613286E-2"/>
+          <c:w val="0.85675374580034613"/>
+          <c:h val="0.82230920771684568"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1892,7 +1958,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>時系列分析2!$I$1</c:f>
+              <c:f>時系列分析2!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1970,7 +2036,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>時系列分析2!$H$2:$H$32</c:f>
+              <c:f>時系列分析2!$I$2:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2072,102 +2138,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>時系列分析2!$I$2:$I$32</c:f>
+              <c:f>時系列分析2!$J$2:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3.7546595598882098</c:v>
+                  <c:v>3.5713773432827374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6740872319918814</c:v>
+                  <c:v>3.4904188853108575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5975492191539717</c:v>
+                  <c:v>3.4134839556139616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5387439630552899</c:v>
+                  <c:v>3.3543523059666049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4716289583007427</c:v>
+                  <c:v>3.28684041658865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3720657851069156</c:v>
+                  <c:v>3.1866368303312584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.255440785155403</c:v>
+                  <c:v>3.0691752932560172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1286784382428192</c:v>
+                  <c:v>2.9413849673769032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9731353171406498</c:v>
+                  <c:v>2.7843869476684486</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8299097790905861</c:v>
+                  <c:v>2.6396037708039963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6702071651751189</c:v>
+                  <c:v>2.4778762431194683</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5318877347810291</c:v>
+                  <c:v>2.3375176137647671</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4096711408343214</c:v>
+                  <c:v>2.2132446808686437</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2820581439769181</c:v>
+                  <c:v>2.0831932577658314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1683524420125662</c:v>
+                  <c:v>1.9670305795683749</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0807366543379984</c:v>
+                  <c:v>1.877316762377147</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0499747135388566</c:v>
+                  <c:v>1.8457723796229226</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9840103502696422</c:v>
+                  <c:v>1.7780445546778574</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9218832580366449</c:v>
+                  <c:v>1.7141436340476328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8575820425561276</c:v>
+                  <c:v>1.6478830373815205</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7710110113543456</c:v>
+                  <c:v>1.5584600732139982</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6837503237775118</c:v>
+                  <c:v>1.4680542685973521</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.589365198576675</c:v>
+                  <c:v>1.3699307612163063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4936925675207082</c:v>
+                  <c:v>1.2700744063816802</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4122065571375013</c:v>
+                  <c:v>1.1846796299278686</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3380999913808718</c:v>
+                  <c:v>1.1067159242954767</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2642502542367504</c:v>
+                  <c:v>1.0287106692905807</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2155582910893763</c:v>
+                  <c:v>0.97709573501535218</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1507226977546234</c:v>
+                  <c:v>0.90812587588993321</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0857228837908368</c:v>
+                  <c:v>0.83868432316439645</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.014980006518974</c:v>
+                  <c:v>0.76274259729783023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,6 +2422,907 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12780843102799183"/>
+          <c:y val="3.088918742613286E-2"/>
+          <c:w val="0.82051132328745757"/>
+          <c:h val="0.79010920112471839"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>時系列分析2!$L$2:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1.35604E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4681E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5740799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6598299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.74753E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9299100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2180400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5698100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9210799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2254599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5145700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8585900000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.23969E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6989499999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0118100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.96979E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4481800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6974499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0147299999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1527100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4645699999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9196199999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.35011E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8350399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3873799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9102800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1927700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9961000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6736799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8104899999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5029299999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8745099999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0226819999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.054438992627953E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1073416428325588E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1611053114424194E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2348956550494282E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2817898362588495E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2153128177131932E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2664487807720321E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3656718220568605E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4471673473988211E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5269281738948997E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6123082784042217E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>時系列分析2!$M$2:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.2516029748807187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27219189277850575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29326568661760105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3105269659686416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33143377070511792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36497974083402618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4084505897041516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46133643878819891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5351983184602539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61302060017086168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.712298634146043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81018021141954821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90682009353871862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0188182259327245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1289153444402957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.220815894748249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2546042999701315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3298117915815739</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4041687630394539</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.484836469503062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5995830934501751</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7225945285768658</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8642055057032763</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0170495399172257</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1547488340659289</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2860495671912662</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4226741262826978</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5159095859559062</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6439281452390975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7766699683268485</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9260702583985423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2DC-1649-BC0C-C77E8106C4AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>時系列分析2!$L$2:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1.35604E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4681E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5740799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6598299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.74753E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9299100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2180400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5698100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9210799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2254599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5145700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8585900000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.23969E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6989499999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0118100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.96979E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4481800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6974499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0147299999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1527100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4645699999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9196199999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.35011E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8350399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3873799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9102800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1927700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9961000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6736799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8104899999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5029299999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8745099999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0226819999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.054438992627953E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1073416428325588E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1611053114424194E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2348956550494282E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2817898362588495E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2153128177131932E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2664487807720321E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3656718220568605E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4471673473988211E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5269281738948997E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6123082784042217E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>時系列分析2!$N$2:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.32621028839894006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33901733630861985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35157350028514511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36205857064549096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37309195493644343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39707645883394438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43799109450523216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49337796768039299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55523195714760676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61462593271696675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67645374337940911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75745945071413967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85742530786865134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99349722863988721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0967583088880195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0823682883168531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91699496384494295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99302338044554417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0977644038639114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1462223989295421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2625260086091938</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.449865516531829</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6473173863390969</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8942177038516326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2075768290408568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5353245627285217</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7244210960921862</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5919059647072866</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0642676562859612</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1647498294845713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6950264343624268</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9913684619752896</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.27721530027741</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5371048259843558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9701168619695002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4034731002606229</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.9737273324207774</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3146729476320678</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8259834437863676</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2052632030599106</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.871757623848886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.3401542143174927</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.7267796778617166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.0657463180047539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2DC-1649-BC0C-C77E8106C4AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1541613440"/>
+        <c:axId val="1541615088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1541613440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>GDP/cap</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> [million $/cap]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541615088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1541615088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Steel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> Stock [ton/cap]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541613440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5371,6 +6338,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6959,6 +7966,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7891,16 +9414,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>17540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>56096</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320609</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>309934</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151122</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>613003</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>122258</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7970,16 +9493,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357256</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>814456</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>785191</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340691</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144669</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7999,6 +9522,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469081</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3919</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008FF1E8-BEE6-A147-A1C1-CCE2D4458639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8401,7 +9962,7 @@
     <row r="2" spans="1:25">
       <c r="A2" s="3"/>
       <c r="B2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>2</v>
@@ -8410,7 +9971,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -8450,10 +10011,10 @@
         <v>4</v>
       </c>
       <c r="X2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
         <v>30</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -15620,7 +17181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -17207,11 +18768,1157 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E7BA7D-7564-A347-B541-5E5323FBFAA8}">
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="31">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1099.5</v>
+      </c>
+      <c r="C2" s="32">
+        <f>B2/$B$27</f>
+        <v>0.16086226269341511</v>
+      </c>
+      <c r="D2" s="33">
+        <v>1577.88</v>
+      </c>
+      <c r="E2" s="31">
+        <f>D2/$D$27</f>
+        <v>0.15384480383295748</v>
+      </c>
+      <c r="G2" s="31">
+        <f>B2</f>
+        <v>1099.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="31">
+        <v>1981</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1236.5</v>
+      </c>
+      <c r="C3" s="32">
+        <f t="shared" ref="C3:C26" si="0">B3/$B$27</f>
+        <v>0.18090603712633724</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1793.21</v>
+      </c>
+      <c r="E3" s="31">
+        <f t="shared" ref="E3:E47" si="1">D3/$D$27</f>
+        <v>0.17483968405791167</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" ref="G3:G36" si="2">B3</f>
+        <v>1236.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="31">
+        <v>1982</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1356.04</v>
+      </c>
+      <c r="C4" s="32">
+        <f t="shared" si="0"/>
+        <v>0.19839532760598327</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1968.07</v>
+      </c>
+      <c r="E4" s="31">
+        <f t="shared" si="1"/>
+        <v>0.19188870071204947</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="2"/>
+        <v>1356.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="31">
+        <v>1983</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1468.1</v>
+      </c>
+      <c r="C5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.21479025726257636</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2119.7800000000002</v>
+      </c>
+      <c r="E5" s="31">
+        <f t="shared" si="1"/>
+        <v>0.20668057030257475</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="2"/>
+        <v>1468.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="31">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1574.08</v>
+      </c>
+      <c r="C6" s="32">
+        <f t="shared" si="0"/>
+        <v>0.23029565298813173</v>
+      </c>
+      <c r="D6" s="33">
+        <v>2280.91</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" si="1"/>
+        <v>0.22239089887103647</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="2"/>
+        <v>1574.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="31">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1659.83</v>
+      </c>
+      <c r="C7" s="32">
+        <f t="shared" si="0"/>
+        <v>0.24284130012406657</v>
+      </c>
+      <c r="D7" s="33">
+        <v>2418.19</v>
+      </c>
+      <c r="E7" s="31">
+        <f t="shared" si="1"/>
+        <v>0.23577582970873542</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="2"/>
+        <v>1659.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="31">
+        <v>1986</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1747.53</v>
+      </c>
+      <c r="C8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.25567224185959408</v>
+      </c>
+      <c r="D8" s="33">
+        <v>2556.54</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.24926508656622121</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="2"/>
+        <v>1747.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="31">
+        <v>1987</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1929.91</v>
+      </c>
+      <c r="C9" s="32">
+        <f t="shared" si="0"/>
+        <v>0.28235533369226812</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2817.78</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="1"/>
+        <v>0.27473623554670251</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="2"/>
+        <v>1929.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="31">
+        <v>1988</v>
+      </c>
+      <c r="B10" s="32">
+        <v>2218.04</v>
+      </c>
+      <c r="C10" s="32">
+        <f t="shared" si="0"/>
+        <v>0.32451017111823777</v>
+      </c>
+      <c r="D10" s="33">
+        <v>3247.85</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="1"/>
+        <v>0.31666847043429852</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="2"/>
+        <v>2218.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="31">
+        <v>1989</v>
+      </c>
+      <c r="B11" s="32">
+        <v>2569.81</v>
+      </c>
+      <c r="C11" s="32">
+        <f t="shared" si="0"/>
+        <v>0.37597585383552984</v>
+      </c>
+      <c r="D11" s="33">
+        <v>3726.96</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="1"/>
+        <v>0.36338215206053642</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="2"/>
+        <v>2569.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="31">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2921.08</v>
+      </c>
+      <c r="C12" s="32">
+        <f t="shared" si="0"/>
+        <v>0.42736838409138789</v>
+      </c>
+      <c r="D12" s="33">
+        <v>4255.8500000000004</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="1"/>
+        <v>0.41494943113068938</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="2"/>
+        <v>2921.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="31">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="32">
+        <v>3225.46</v>
+      </c>
+      <c r="C13" s="32">
+        <f t="shared" si="0"/>
+        <v>0.47190067651396334</v>
+      </c>
+      <c r="D13" s="33">
+        <v>4713.3</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="1"/>
+        <v>0.45955124211339171</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="2"/>
+        <v>3225.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="31">
+        <v>1992</v>
+      </c>
+      <c r="B14" s="32">
+        <v>3514.57</v>
+      </c>
+      <c r="C14" s="32">
+        <f t="shared" si="0"/>
+        <v>0.51419889276434372</v>
+      </c>
+      <c r="D14" s="33">
+        <v>5212.97</v>
+      </c>
+      <c r="E14" s="31">
+        <f t="shared" si="1"/>
+        <v>0.50826954333478613</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" si="2"/>
+        <v>3514.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="31">
+        <v>1993</v>
+      </c>
+      <c r="B15" s="32">
+        <v>3858.59</v>
+      </c>
+      <c r="C15" s="32">
+        <f t="shared" si="0"/>
+        <v>0.56453071232940844</v>
+      </c>
+      <c r="D15" s="33">
+        <v>5747.1</v>
+      </c>
+      <c r="E15" s="31">
+        <f t="shared" si="1"/>
+        <v>0.56034772739903538</v>
+      </c>
+      <c r="G15" s="31">
+        <f t="shared" si="2"/>
+        <v>3858.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="31">
+        <v>1994</v>
+      </c>
+      <c r="B16" s="32">
+        <v>4239.6899999999996</v>
+      </c>
+      <c r="C16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.6202875184344202</v>
+      </c>
+      <c r="D16" s="33">
+        <v>6281.35</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="1"/>
+        <v>0.6124376115776532</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="2"/>
+        <v>4239.6899999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="31">
+        <v>1995</v>
+      </c>
+      <c r="B17" s="32">
+        <v>4698.95</v>
+      </c>
+      <c r="C17" s="32">
+        <f t="shared" si="0"/>
+        <v>0.68747951731079848</v>
+      </c>
+      <c r="D17" s="33">
+        <v>6864.79</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="1"/>
+        <v>0.66932356763787371</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="2"/>
+        <v>4698.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="31">
+        <v>1996</v>
+      </c>
+      <c r="B18" s="32">
+        <v>5011.8100000000004</v>
+      </c>
+      <c r="C18" s="32">
+        <f t="shared" si="0"/>
+        <v>0.73325247547929495</v>
+      </c>
+      <c r="D18" s="33">
+        <v>7304.17</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" si="1"/>
+        <v>0.71216353639856833</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="2"/>
+        <v>5011.8100000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="31">
+        <v>1997</v>
+      </c>
+      <c r="B19" s="32">
+        <v>4969.79</v>
+      </c>
+      <c r="C19" s="32">
+        <f t="shared" si="0"/>
+        <v>0.72710474262037972</v>
+      </c>
+      <c r="D19" s="33">
+        <v>7140.45</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="1"/>
+        <v>0.6962006803616505</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="2"/>
+        <v>4969.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="31">
+        <v>1998</v>
+      </c>
+      <c r="B20" s="32">
+        <v>4448.18</v>
+      </c>
+      <c r="C20" s="32">
+        <f t="shared" si="0"/>
+        <v>0.65079063180317898</v>
+      </c>
+      <c r="D20" s="33">
+        <v>6589.61</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" si="1"/>
+        <v>0.6424932553715712</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="2"/>
+        <v>4448.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="31">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="32">
+        <v>4697.45</v>
+      </c>
+      <c r="C21" s="32">
+        <f t="shared" si="0"/>
+        <v>0.68726005992649641</v>
+      </c>
+      <c r="D21" s="33">
+        <v>6910.35</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="1"/>
+        <v>0.67376571105982563</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="2"/>
+        <v>4697.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="31">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="32">
+        <v>5014.7299999999996</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" si="0"/>
+        <v>0.73367968585406951</v>
+      </c>
+      <c r="D22" s="33">
+        <v>7302.9</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="1"/>
+        <v>0.71203971018816714</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="2"/>
+        <v>5014.7299999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="31">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="32">
+        <v>5152.71</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" si="0"/>
+        <v>0.7538668391114024</v>
+      </c>
+      <c r="D23" s="33">
+        <v>7648.84</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="1"/>
+        <v>0.74576918989383123</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="2"/>
+        <v>5152.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="31">
+        <v>2002</v>
+      </c>
+      <c r="B24" s="32">
+        <v>5464.57</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" si="0"/>
+        <v>0.79949349235703082</v>
+      </c>
+      <c r="D24" s="33">
+        <v>8179.41</v>
+      </c>
+      <c r="E24" s="31">
+        <f t="shared" si="1"/>
+        <v>0.79750027056514483</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="2"/>
+        <v>5464.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="32">
+        <v>5919.62</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" si="0"/>
+        <v>0.86606954750813459</v>
+      </c>
+      <c r="D25" s="33">
+        <v>8863.74</v>
+      </c>
+      <c r="E25" s="31">
+        <f t="shared" si="1"/>
+        <v>0.86422309778078088</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" si="2"/>
+        <v>5919.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="31">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="32">
+        <v>6350.11</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" si="0"/>
+        <v>0.92905235375359907</v>
+      </c>
+      <c r="D26" s="33">
+        <v>9608.5400000000009</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="1"/>
+        <v>0.93684180762866975</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" si="2"/>
+        <v>6350.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="31">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="32">
+        <v>6835.04</v>
+      </c>
+      <c r="C27" s="32">
+        <f>B27/$B$27</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="33">
+        <v>10256.31</v>
+      </c>
+      <c r="E27" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="2"/>
+        <v>6835.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17">
+      <c r="A28" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="32">
+        <v>7387.38</v>
+      </c>
+      <c r="C28" s="32">
+        <f t="shared" ref="C28:C35" si="3">B28/$B$27</f>
+        <v>1.0808100610969358</v>
+      </c>
+      <c r="D28" s="33">
+        <v>11024.84</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="1"/>
+        <v>1.074932407464283</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="2"/>
+        <v>7387.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="31">
+        <v>2007</v>
+      </c>
+      <c r="B29" s="32">
+        <v>7910.28</v>
+      </c>
+      <c r="C29" s="32">
+        <f t="shared" si="3"/>
+        <v>1.1573129052646363</v>
+      </c>
+      <c r="D29" s="33">
+        <v>11869.69</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="1"/>
+        <v>1.1573060876670072</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="2"/>
+        <v>7910.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="32">
+        <v>8192.77</v>
+      </c>
+      <c r="C30" s="32">
+        <f t="shared" si="3"/>
+        <v>1.1986425829256304</v>
+      </c>
+      <c r="D30" s="33">
+        <v>12244.81</v>
+      </c>
+      <c r="E30" s="31">
+        <f t="shared" si="1"/>
+        <v>1.1938806451833066</v>
+      </c>
+      <c r="G30" s="31">
+        <f t="shared" si="2"/>
+        <v>8192.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17">
+      <c r="A31" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B31" s="32">
+        <v>7996.1</v>
+      </c>
+      <c r="C31" s="32">
+        <f t="shared" si="3"/>
+        <v>1.1698687937451719</v>
+      </c>
+      <c r="D31" s="33">
+        <v>12191.41</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="1"/>
+        <v>1.1886740942892717</v>
+      </c>
+      <c r="G31" s="31">
+        <f t="shared" si="2"/>
+        <v>7996.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17">
+      <c r="A32" s="31">
+        <v>2010</v>
+      </c>
+      <c r="B32" s="32">
+        <v>8673.68</v>
+      </c>
+      <c r="C32" s="32">
+        <f t="shared" si="3"/>
+        <v>1.2690020833821016</v>
+      </c>
+      <c r="D32" s="33">
+        <v>13195.36</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="1"/>
+        <v>1.2865601761257217</v>
+      </c>
+      <c r="G32" s="31">
+        <f t="shared" si="2"/>
+        <v>8673.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B33" s="32">
+        <v>8810.49</v>
+      </c>
+      <c r="C33" s="32">
+        <f t="shared" si="3"/>
+        <v>1.2890180598796788</v>
+      </c>
+      <c r="D33" s="33">
+        <v>13519.13</v>
+      </c>
+      <c r="E33" s="31">
+        <f t="shared" si="1"/>
+        <v>1.3181280597017835</v>
+      </c>
+      <c r="G33" s="31">
+        <f t="shared" si="2"/>
+        <v>8810.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B34" s="32">
+        <v>9502.93</v>
+      </c>
+      <c r="C34" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3903254406704277</v>
+      </c>
+      <c r="D34" s="33">
+        <v>14870.98</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="shared" si="1"/>
+        <v>1.4499347231119184</v>
+      </c>
+      <c r="G34" s="31">
+        <f t="shared" si="2"/>
+        <v>9502.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17">
+      <c r="A35" s="31">
+        <v>2013</v>
+      </c>
+      <c r="B35" s="32">
+        <v>9874.51</v>
+      </c>
+      <c r="C35" s="32">
+        <f t="shared" si="3"/>
+        <v>1.4446894239097356</v>
+      </c>
+      <c r="D35" s="33">
+        <v>15407.67</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="1"/>
+        <v>1.5022625096160316</v>
+      </c>
+      <c r="G35" s="31">
+        <f t="shared" si="2"/>
+        <v>9874.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B36" s="32">
+        <v>10226.82</v>
+      </c>
+      <c r="C36" s="32">
+        <f>B36/$B$27</f>
+        <v>1.4962341112853765</v>
+      </c>
+      <c r="D36" s="33">
+        <v>15480.21</v>
+      </c>
+      <c r="E36" s="31">
+        <f t="shared" si="1"/>
+        <v>1.5093352287518611</v>
+      </c>
+      <c r="G36" s="31">
+        <f t="shared" si="2"/>
+        <v>10226.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17">
+      <c r="A37" s="31">
+        <v>2015</v>
+      </c>
+      <c r="D37" s="33">
+        <v>15822.37</v>
+      </c>
+      <c r="E37" s="31">
+        <f t="shared" si="1"/>
+        <v>1.5426961548549138</v>
+      </c>
+      <c r="G37" s="31">
+        <f>E37*$B$27</f>
+        <v>10544.389926279529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17">
+      <c r="A38" s="31">
+        <v>2016</v>
+      </c>
+      <c r="D38" s="33">
+        <v>16616.2</v>
+      </c>
+      <c r="E38" s="31">
+        <f t="shared" si="1"/>
+        <v>1.6200953364319137</v>
+      </c>
+      <c r="G38" s="31">
+        <f t="shared" ref="G38:G46" si="4">E38*$B$27</f>
+        <v>11073.416428325587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17">
+      <c r="A39" s="31">
+        <v>2017</v>
+      </c>
+      <c r="D39" s="33">
+        <v>17422.95</v>
+      </c>
+      <c r="E39" s="31">
+        <f t="shared" si="1"/>
+        <v>1.6987542303226015</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" si="4"/>
+        <v>11611.053114424194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17">
+      <c r="A40" s="31">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="33">
+        <v>18530.21</v>
+      </c>
+      <c r="E40" s="31">
+        <f t="shared" si="1"/>
+        <v>1.8067131356209007</v>
+      </c>
+      <c r="G40" s="31">
+        <f t="shared" si="4"/>
+        <v>12348.956550494282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17">
+      <c r="A41" s="31">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="33">
+        <v>19233.88</v>
+      </c>
+      <c r="E41" s="31">
+        <f t="shared" si="1"/>
+        <v>1.8753216312689458</v>
+      </c>
+      <c r="G41" s="31">
+        <f t="shared" si="4"/>
+        <v>12817.898362588496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17">
+      <c r="A42" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="33">
+        <v>18236.36</v>
+      </c>
+      <c r="E42" s="31">
+        <f t="shared" si="1"/>
+        <v>1.7780624805607477</v>
+      </c>
+      <c r="G42" s="31">
+        <f t="shared" si="4"/>
+        <v>12153.128177131932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17">
+      <c r="A43" s="31">
+        <v>2021</v>
+      </c>
+      <c r="D43" s="33">
+        <v>19003.68</v>
+      </c>
+      <c r="E43" s="31">
+        <f t="shared" si="1"/>
+        <v>1.8528769118718136</v>
+      </c>
+      <c r="G43" s="31">
+        <f t="shared" si="4"/>
+        <v>12664.487807720321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17">
+      <c r="A44" s="31">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="33">
+        <v>20492.57</v>
+      </c>
+      <c r="E44" s="31">
+        <f t="shared" si="1"/>
+        <v>1.9980451058909101</v>
+      </c>
+      <c r="G44" s="31">
+        <f t="shared" si="4"/>
+        <v>13656.718220568606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17">
+      <c r="A45" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D45" s="33">
+        <v>21715.45</v>
+      </c>
+      <c r="E45" s="31">
+        <f t="shared" si="1"/>
+        <v>2.1172770713833731</v>
+      </c>
+      <c r="G45" s="31">
+        <f t="shared" si="4"/>
+        <v>14471.67347398821</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17">
+      <c r="A46" s="31">
+        <v>2024</v>
+      </c>
+      <c r="D46" s="33">
+        <v>22912.3</v>
+      </c>
+      <c r="E46" s="31">
+        <f t="shared" si="1"/>
+        <v>2.2339710870673759</v>
+      </c>
+      <c r="G46" s="31">
+        <f t="shared" si="4"/>
+        <v>15269.281738948997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17">
+      <c r="A47" s="31">
+        <v>2025</v>
+      </c>
+      <c r="D47" s="33">
+        <v>24193.47</v>
+      </c>
+      <c r="E47" s="31">
+        <f t="shared" si="1"/>
+        <v>2.3588863831143954</v>
+      </c>
+      <c r="G47" s="31">
+        <f>E47*$B$27</f>
+        <v>16123.082784042217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="31">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="31">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="31">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="31">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="31">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="31">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="31">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="31">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="31">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="31">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="31">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="31">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="31">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="31">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="31">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="31">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="31">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="31">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="31">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="31">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="31">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="31">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="31">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="31">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="31">
+        <v>2050</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="88" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A21" zoomScale="88" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -17235,10 +19942,10 @@
         <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>27</v>
@@ -17538,7 +20245,7 @@
         <v>13727344.851741269</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" ref="G19:G48" si="1">F19/(D19*1000000)</f>
+        <f>F19/(D19*1000000)</f>
         <v>0.27219189277850575</v>
       </c>
     </row>
@@ -17564,7 +20271,7 @@
         <v>15099898.285116339</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" si="1"/>
+        <f>F20/(D20*1000000)</f>
         <v>0.29326568661760105</v>
       </c>
     </row>
@@ -17590,7 +20297,7 @@
         <v>16316639.426822273</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="1"/>
+        <f>F21/(D21*1000000)</f>
         <v>0.3105269659686416</v>
       </c>
     </row>
@@ -17616,7 +20323,7 @@
         <v>17688819.202794563</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="1"/>
+        <f>F22/(D22*1000000)</f>
         <v>0.33143377070511792</v>
       </c>
     </row>
@@ -17642,7 +20349,7 @@
         <v>19780515.030189048</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="1"/>
+        <f>F23/(D23*1000000)</f>
         <v>0.36497974083402618</v>
       </c>
     </row>
@@ -17668,7 +20375,7 @@
         <v>22473686.65658389</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="1"/>
+        <f>F24/(D24*1000000)</f>
         <v>0.4084505897041516</v>
       </c>
     </row>
@@ -17694,7 +20401,7 @@
         <v>25764440.631580058</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="1"/>
+        <f>F25/(D25*1000000)</f>
         <v>0.46133643878819891</v>
       </c>
     </row>
@@ -17720,7 +20427,7 @@
         <v>30331294.302097969</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="1"/>
+        <f>F26/(D26*1000000)</f>
         <v>0.5351983184602539</v>
       </c>
     </row>
@@ -17746,7 +20453,7 @@
         <v>35166784.957641721</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="1"/>
+        <f>F27/(D27*1000000)</f>
         <v>0.61302060017086168</v>
       </c>
     </row>
@@ -17772,7 +20479,7 @@
         <v>41355916.238792427</v>
       </c>
       <c r="G28" s="28">
-        <f t="shared" si="1"/>
+        <f>F28/(D28*1000000)</f>
         <v>0.712298634146043</v>
       </c>
     </row>
@@ -17798,7 +20505,7 @@
         <v>47600679.997575</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" si="1"/>
+        <f>F29/(D29*1000000)</f>
         <v>0.81018021141954821</v>
       </c>
     </row>
@@ -17824,7 +20531,7 @@
         <v>53907371.372558787</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" si="1"/>
+        <f>F30/(D30*1000000)</f>
         <v>0.90682009353871862</v>
       </c>
     </row>
@@ -17850,7 +20557,7 @@
         <v>61271728.10759405</v>
       </c>
       <c r="G31" s="28">
-        <f t="shared" si="1"/>
+        <f>F31/(D31*1000000)</f>
         <v>1.0188182259327245</v>
       </c>
     </row>
@@ -17876,11 +20583,11 @@
         <v>68391272.047675326</v>
       </c>
       <c r="G32" s="28">
-        <f t="shared" si="1"/>
+        <f>F32/(D32*1000000)</f>
         <v>1.1289153444402957</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:9">
       <c r="A33" s="23">
         <v>1997</v>
       </c>
@@ -17902,11 +20609,11 @@
         <v>74497604.182043448</v>
       </c>
       <c r="G33" s="28">
-        <f t="shared" si="1"/>
+        <f>F33/(D33*1000000)</f>
         <v>1.220815894748249</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34" s="23">
         <v>1998</v>
       </c>
@@ -17928,11 +20635,11 @@
         <v>77113249.614224151</v>
       </c>
       <c r="G34" s="28">
-        <f t="shared" si="1"/>
+        <f>F34/(D34*1000000)</f>
         <v>1.2546042999701315</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35" s="23">
         <v>1999</v>
       </c>
@@ -17954,11 +20661,11 @@
         <v>82322796.844932288</v>
       </c>
       <c r="G35" s="28">
-        <f t="shared" si="1"/>
+        <f>F35/(D35*1000000)</f>
         <v>1.3298117915815739</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:9">
       <c r="A36" s="23">
         <v>2000</v>
       </c>
@@ -17980,11 +20687,11 @@
         <v>87545709.869220838</v>
       </c>
       <c r="G36" s="28">
-        <f t="shared" si="1"/>
+        <f>F36/(D36*1000000)</f>
         <v>1.4041687630394539</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37" s="23">
         <v>2001</v>
       </c>
@@ -18006,11 +20713,11 @@
         <v>93643884.654855713</v>
       </c>
       <c r="G37" s="28">
-        <f t="shared" si="1"/>
+        <f>F37/(D37*1000000)</f>
         <v>1.484836469503062</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" s="23">
         <v>2002</v>
       </c>
@@ -18032,11 +20739,11 @@
         <v>102031966.94866894</v>
       </c>
       <c r="G38" s="28">
-        <f t="shared" si="1"/>
+        <f>F38/(D38*1000000)</f>
         <v>1.5995830934501751</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" s="23">
         <v>2003</v>
       </c>
@@ -18058,11 +20765,11 @@
         <v>111118371.69819073</v>
       </c>
       <c r="G39" s="28">
-        <f t="shared" si="1"/>
+        <f>F39/(D39*1000000)</f>
         <v>1.7225945285768658</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40" s="23">
         <v>2004</v>
       </c>
@@ -18084,11 +20791,11 @@
         <v>121595041.15610303</v>
       </c>
       <c r="G40" s="28">
-        <f t="shared" si="1"/>
+        <f>F40/(D40*1000000)</f>
         <v>1.8642055057032763</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41" s="23">
         <v>2005</v>
       </c>
@@ -18110,11 +20817,12 @@
         <v>133016348.95938137</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="1"/>
+        <f>F41/(D41*1000000)</f>
         <v>2.0170495399172257</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="23">
         <v>2006</v>
       </c>
@@ -18136,11 +20844,12 @@
         <v>143042139.44993308</v>
       </c>
       <c r="G42" s="28">
-        <f t="shared" si="1"/>
+        <f>F42/(D42*1000000)</f>
         <v>2.1547488340659289</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="23">
         <v>2007</v>
       </c>
@@ -18162,11 +20871,12 @@
         <v>152761147.43833542</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="1"/>
+        <f>F43/(D43*1000000)</f>
         <v>2.2860495671912662</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="23">
         <v>2008</v>
       </c>
@@ -18188,11 +20898,12 @@
         <v>162953422.5472016</v>
       </c>
       <c r="G44" s="28">
-        <f t="shared" si="1"/>
+        <f>F44/(D44*1000000)</f>
         <v>2.4226741262826978</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="23">
         <v>2009</v>
       </c>
@@ -18214,11 +20925,12 @@
         <v>170328085.33304921</v>
       </c>
       <c r="G45" s="28">
-        <f t="shared" si="1"/>
+        <f>F45/(D45*1000000)</f>
         <v>2.5159095859559062</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="23">
         <v>2010</v>
       </c>
@@ -18240,11 +20952,12 @@
         <v>180154619.88844687</v>
       </c>
       <c r="G46" s="28">
-        <f t="shared" si="1"/>
+        <f>F46/(D46*1000000)</f>
         <v>2.6439281452390975</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="23">
         <v>2011</v>
       </c>
@@ -18266,11 +20979,12 @@
         <v>190199116.16042081</v>
       </c>
       <c r="G47" s="28">
-        <f t="shared" si="1"/>
+        <f>F47/(D47*1000000)</f>
         <v>2.7766699683268485</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="23">
         <v>2012</v>
       </c>
@@ -18292,50 +21006,158 @@
         <v>201486271.92306522</v>
       </c>
       <c r="G48" s="28">
-        <f t="shared" si="1"/>
+        <f>F48/(D48*1000000)</f>
         <v>2.9260702583985423</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="21"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="21"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="21"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="21"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="21"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="21"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="21"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="21"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="21"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="21"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="21"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="21"/>
-    </row>
-    <row r="62" spans="2:2">
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="23">
+        <v>2013</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="27">
+        <v>9874.51</v>
+      </c>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="23">
+        <v>2014</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="27">
+        <v>10226.82</v>
+      </c>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="23">
+        <v>2015</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="11">
+        <v>10544.389926279529</v>
+      </c>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="23">
+        <v>2016</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="11">
+        <v>11073.416428325587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="11">
+        <v>11611.053114424194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="11">
+        <v>12348.956550494282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="23">
+        <v>2019</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="11">
+        <v>12817.898362588496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="11">
+        <v>12153.128177131932</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="11">
+        <v>12664.487807720321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="11">
+        <v>13656.718220568606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="11">
+        <v>14471.67347398821</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="23">
+        <v>2024</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="11">
+        <v>15269.281738948997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="23">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="11">
+        <v>16123.082784042217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" s="21"/>
     </row>
   </sheetData>
@@ -18346,724 +21168,1966 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E237BE62-3E79-7349-867C-3D13BBE36685}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1982</v>
       </c>
       <c r="B2">
+        <v>49376.4</v>
+      </c>
+      <c r="C2">
         <f>時系列分析!G18</f>
         <v>0.2516029748807187</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <f>時系列分析!E18/1000000</f>
         <v>1.35604E-3</v>
       </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <f>POWER(10,F7)</f>
-        <v>8975.6473119097882</v>
-      </c>
-      <c r="H2">
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <f>POWER(10,G7)</f>
+        <v>6120.552290830753</v>
+      </c>
+      <c r="I2">
+        <f>D2</f>
+        <v>1.35604E-3</v>
+      </c>
+      <c r="J2">
+        <f>LN($G$4/C2-1)</f>
+        <v>3.5713773432827374</v>
+      </c>
+      <c r="L2">
+        <f>D2</f>
+        <v>1.35604E-3</v>
+      </c>
+      <c r="M2">
         <f>C2</f>
-        <v>1.35604E-3</v>
-      </c>
-      <c r="I2">
-        <f>LN($F$4/B2-1)</f>
-        <v>3.7546595598882098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.2516029748807187</v>
+      </c>
+      <c r="N2">
+        <f>$G$4/(1+EXP($G$6*L2+$G$7))</f>
+        <v>0.32621028839894006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1983</v>
       </c>
       <c r="B3">
+        <v>50432.6</v>
+      </c>
+      <c r="C3">
         <f>時系列分析!G19</f>
         <v>0.27219189277850575</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f>時系列分析!E19/1000000</f>
         <v>1.4681E-3</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <f>-F6</f>
-        <v>348.0689349990908</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H32" si="0">C3</f>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <f>-G6</f>
+        <v>356.53491637405011</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I32" si="0">D3</f>
         <v>1.4681E-3</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I32" si="1">LN($F$4/B3-1)</f>
-        <v>3.6740872319918814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f t="shared" ref="J3:J32" si="1">LN($G$4/C3-1)</f>
+        <v>3.4904188853108575</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="2">D3</f>
+        <v>1.4681E-3</v>
+      </c>
+      <c r="M3">
+        <f>C3</f>
+        <v>0.27219189277850575</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="3">$G$4/(1+EXP($G$6*L3+$G$7))</f>
+        <v>0.33901733630861985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1984</v>
       </c>
       <c r="B4">
+        <v>51488.800000000003</v>
+      </c>
+      <c r="C4">
         <f>時系列分析!G20</f>
         <v>0.29326568661760105</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f>時系列分析!E20/1000000</f>
         <v>1.5740799999999998E-3</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="29">
-        <v>11</v>
-      </c>
-      <c r="H4">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>1.5740799999999998E-3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>3.5975492191539717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>3.4134839556139616</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1.5740799999999998E-3</v>
+      </c>
+      <c r="M4">
+        <f>C4</f>
+        <v>0.29326568661760105</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0.35157350028514511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1985</v>
       </c>
       <c r="B5">
+        <v>52545</v>
+      </c>
+      <c r="C5">
         <f>時系列分析!G21</f>
         <v>0.3105269659686416</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f>時系列分析!E21/1000000</f>
         <v>1.6598299999999999E-3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>1.6598299999999999E-3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>3.5387439630552899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3.3543523059666049</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.6598299999999999E-3</v>
+      </c>
+      <c r="M5">
+        <f>C5</f>
+        <v>0.3105269659686416</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>0.36205857064549096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1986</v>
       </c>
       <c r="B6">
+        <v>53370.6</v>
+      </c>
+      <c r="C6">
         <f>時系列分析!G22</f>
         <v>0.33143377070511792</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f>時系列分析!E22/1000000</f>
         <v>1.74753E-3</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6">
-        <f>INDEX(LINEST(I2:I32,H2:H32),1,1)</f>
-        <v>-348.0689349990908</v>
-      </c>
-      <c r="H6">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <f>INDEX(LINEST(J2:J32,I2:I32),1,1)</f>
+        <v>-356.53491637405011</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>1.74753E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>3.4716289583007427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>3.28684041658865</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.74753E-3</v>
+      </c>
+      <c r="M6">
+        <f>C6</f>
+        <v>0.33143377070511792</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0.37309195493644343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1987</v>
       </c>
       <c r="B7">
+        <v>54196.2</v>
+      </c>
+      <c r="C7">
         <f>時系列分析!G23</f>
         <v>0.36497974083402618</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f>時系列分析!E23/1000000</f>
         <v>1.9299100000000002E-3</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7">
-        <f>INDEX(LINEST(I2:I32,H2:H32),1,2)</f>
-        <v>3.9530657791281389</v>
-      </c>
-      <c r="H7">
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <f>INDEX(LINEST(J2:J32,I2:I32),1,2)</f>
+        <v>3.7867906126746584</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>1.9299100000000002E-3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>3.3720657851069156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>3.1866368303312584</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.9299100000000002E-3</v>
+      </c>
+      <c r="M7">
+        <f>C7</f>
+        <v>0.36497974083402618</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0.39707645883394438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1988</v>
       </c>
       <c r="B8">
+        <v>55021.8</v>
+      </c>
+      <c r="C8">
         <f>時系列分析!G24</f>
         <v>0.4084505897041516</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f>時系列分析!E24/1000000</f>
         <v>2.2180400000000001E-3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>2.2180400000000001E-3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>3.255440785155403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>3.0691752932560172</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>2.2180400000000001E-3</v>
+      </c>
+      <c r="M8">
+        <f>C8</f>
+        <v>0.4084505897041516</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0.43799109450523216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1989</v>
       </c>
       <c r="B9">
+        <v>55847.4</v>
+      </c>
+      <c r="C9">
         <f>時系列分析!G25</f>
         <v>0.46133643878819891</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f>時系列分析!E25/1000000</f>
         <v>2.5698100000000001E-3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>2.5698100000000001E-3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>3.1286784382428192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>2.9413849673769032</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>2.5698100000000001E-3</v>
+      </c>
+      <c r="M9">
+        <f>C9</f>
+        <v>0.46133643878819891</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0.49337796768039299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1990</v>
       </c>
       <c r="B10">
+        <v>56673</v>
+      </c>
+      <c r="C10">
         <f>時系列分析!G26</f>
         <v>0.5351983184602539</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f>時系列分析!E26/1000000</f>
         <v>2.9210799999999999E-3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>2.9210799999999999E-3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>2.9731353171406498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>2.7843869476684486</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2.9210799999999999E-3</v>
+      </c>
+      <c r="M10">
+        <f>C10</f>
+        <v>0.5351983184602539</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0.55523195714760676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1991</v>
       </c>
       <c r="B11">
+        <v>57366.400000000001</v>
+      </c>
+      <c r="C11">
         <f>時系列分析!G27</f>
         <v>0.61302060017086168</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f>時系列分析!E27/1000000</f>
         <v>3.2254599999999999E-3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>3.2254599999999999E-3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>2.8299097790905861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>2.6396037708039963</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>3.2254599999999999E-3</v>
+      </c>
+      <c r="M11">
+        <f>C11</f>
+        <v>0.61302060017086168</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0.61462593271696675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1992</v>
       </c>
       <c r="B12">
+        <v>58059.8</v>
+      </c>
+      <c r="C12">
         <f>時系列分析!G28</f>
         <v>0.712298634146043</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f>時系列分析!E28/1000000</f>
         <v>3.5145700000000003E-3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>3.5145700000000003E-3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>2.6702071651751189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>2.4778762431194683</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>3.5145700000000003E-3</v>
+      </c>
+      <c r="M12">
+        <f>C12</f>
+        <v>0.712298634146043</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0.67645374337940911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1993</v>
       </c>
       <c r="B13">
+        <v>58753.2</v>
+      </c>
+      <c r="C13">
         <f>時系列分析!G29</f>
         <v>0.81018021141954821</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f>時系列分析!E29/1000000</f>
         <v>3.8585900000000003E-3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>3.8585900000000003E-3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>2.5318877347810291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>2.3375176137647671</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>3.8585900000000003E-3</v>
+      </c>
+      <c r="M13">
+        <f>C13</f>
+        <v>0.81018021141954821</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0.75745945071413967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1994</v>
       </c>
       <c r="B14">
+        <v>59446.6</v>
+      </c>
+      <c r="C14">
         <f>時系列分析!G30</f>
         <v>0.90682009353871862</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f>時系列分析!E30/1000000</f>
         <v>4.23969E-3</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>4.23969E-3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>2.4096711408343214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>2.2132446808686437</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>4.23969E-3</v>
+      </c>
+      <c r="M14">
+        <f>C14</f>
+        <v>0.90682009353871862</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0.85742530786865134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1995</v>
       </c>
       <c r="B15">
+        <v>60140</v>
+      </c>
+      <c r="C15">
         <f>時系列分析!G31</f>
         <v>1.0188182259327245</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f>時系列分析!E31/1000000</f>
         <v>4.6989499999999995E-3</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>4.6989499999999995E-3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>2.2820581439769181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>2.0831932577658314</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>4.6989499999999995E-3</v>
+      </c>
+      <c r="M15">
+        <f>C15</f>
+        <v>1.0188182259327245</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0.99349722863988721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1996</v>
       </c>
       <c r="B16">
+        <v>60581.4</v>
+      </c>
+      <c r="C16">
         <f>時系列分析!G32</f>
         <v>1.1289153444402957</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f>時系列分析!E32/1000000</f>
         <v>5.0118100000000002E-3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>5.0118100000000002E-3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>2.1683524420125662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1.9670305795683749</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>5.0118100000000002E-3</v>
+      </c>
+      <c r="M16">
+        <f>C16</f>
+        <v>1.1289153444402957</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>1.0967583088880195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>1997</v>
       </c>
       <c r="B17">
+        <v>61022.8</v>
+      </c>
+      <c r="C17">
         <f>時系列分析!G33</f>
         <v>1.220815894748249</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f>時系列分析!E33/1000000</f>
         <v>4.96979E-3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>4.96979E-3</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="1"/>
-        <v>2.0807366543379984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1.877316762377147</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>4.96979E-3</v>
+      </c>
+      <c r="M17">
+        <f>C17</f>
+        <v>1.220815894748249</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>1.0823682883168531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>1998</v>
       </c>
       <c r="B18">
+        <v>61464.2</v>
+      </c>
+      <c r="C18">
         <f>時系列分析!G34</f>
         <v>1.2546042999701315</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f>時系列分析!E34/1000000</f>
         <v>4.4481800000000004E-3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>4.4481800000000004E-3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="1"/>
-        <v>2.0499747135388566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1.8457723796229226</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>4.4481800000000004E-3</v>
+      </c>
+      <c r="M18">
+        <f>C18</f>
+        <v>1.2546042999701315</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0.91699496384494295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>1999</v>
       </c>
       <c r="B19">
+        <v>61905.599999999999</v>
+      </c>
+      <c r="C19">
         <f>時系列分析!G35</f>
         <v>1.3298117915815739</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f>時系列分析!E35/1000000</f>
         <v>4.6974499999999997E-3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>4.6974499999999997E-3</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
-        <v>1.9840103502696422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1.7780445546778574</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>4.6974499999999997E-3</v>
+      </c>
+      <c r="M19">
+        <f>C19</f>
+        <v>1.3298117915815739</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0.99302338044554417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>2000</v>
       </c>
       <c r="B20">
+        <v>62347</v>
+      </c>
+      <c r="C20">
         <f>時系列分析!G36</f>
         <v>1.4041687630394539</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f>時系列分析!E36/1000000</f>
         <v>5.0147299999999994E-3</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>5.0147299999999994E-3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="1"/>
-        <v>1.9218832580366449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1.7141436340476328</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>5.0147299999999994E-3</v>
+      </c>
+      <c r="M20">
+        <f>C20</f>
+        <v>1.4041687630394539</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>1.0977644038639114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>2001</v>
       </c>
       <c r="B21">
+        <v>63066.8</v>
+      </c>
+      <c r="C21">
         <f>時系列分析!G37</f>
         <v>1.484836469503062</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f>時系列分析!E37/1000000</f>
         <v>5.1527100000000004E-3</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>5.1527100000000004E-3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="1"/>
-        <v>1.8575820425561276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>1.6478830373815205</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>5.1527100000000004E-3</v>
+      </c>
+      <c r="M21">
+        <f>C21</f>
+        <v>1.484836469503062</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>1.1462223989295421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>2002</v>
       </c>
       <c r="B22">
+        <v>63786.6</v>
+      </c>
+      <c r="C22">
         <f>時系列分析!G38</f>
         <v>1.5995830934501751</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f>時系列分析!E38/1000000</f>
         <v>5.4645699999999993E-3</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>5.4645699999999993E-3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="1"/>
-        <v>1.7710110113543456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>1.5584600732139982</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>5.4645699999999993E-3</v>
+      </c>
+      <c r="M22">
+        <f>C22</f>
+        <v>1.5995830934501751</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>1.2625260086091938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>2003</v>
       </c>
       <c r="B23">
+        <v>64506.400000000001</v>
+      </c>
+      <c r="C23">
         <f>時系列分析!G39</f>
         <v>1.7225945285768658</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f>時系列分析!E39/1000000</f>
         <v>5.9196199999999996E-3</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>5.9196199999999996E-3</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
-        <v>1.6837503237775118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1.4680542685973521</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>5.9196199999999996E-3</v>
+      </c>
+      <c r="M23">
+        <f>C23</f>
+        <v>1.7225945285768658</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>1.449865516531829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>2004</v>
       </c>
       <c r="B24">
+        <v>65226.2</v>
+      </c>
+      <c r="C24">
         <f>時系列分析!G40</f>
         <v>1.8642055057032763</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f>時系列分析!E40/1000000</f>
         <v>6.35011E-3</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>6.35011E-3</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="1"/>
-        <v>1.589365198576675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>1.3699307612163063</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>6.35011E-3</v>
+      </c>
+      <c r="M24">
+        <f>C24</f>
+        <v>1.8642055057032763</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>1.6473173863390969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>2005</v>
       </c>
       <c r="B25">
+        <v>65946</v>
+      </c>
+      <c r="C25">
         <f>時系列分析!G41</f>
         <v>2.0170495399172257</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f>時系列分析!E41/1000000</f>
         <v>6.8350399999999997E-3</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>6.8350399999999997E-3</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="1"/>
-        <v>1.4936925675207082</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>1.2700744063816802</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>6.8350399999999997E-3</v>
+      </c>
+      <c r="M25">
+        <f>C25</f>
+        <v>2.0170495399172257</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>1.8942177038516326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>2006</v>
       </c>
       <c r="B26">
+        <v>66384.600000000006</v>
+      </c>
+      <c r="C26">
         <f>時系列分析!G42</f>
         <v>2.1547488340659289</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f>時系列分析!E42/1000000</f>
         <v>7.3873799999999998E-3</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>7.3873799999999998E-3</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
-        <v>1.4122065571375013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>1.1846796299278686</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>7.3873799999999998E-3</v>
+      </c>
+      <c r="M26">
+        <f>C26</f>
+        <v>2.1547488340659289</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>2.2075768290408568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>2007</v>
       </c>
       <c r="B27">
+        <v>66823.199999999997</v>
+      </c>
+      <c r="C27">
         <f>時系列分析!G43</f>
         <v>2.2860495671912662</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f>時系列分析!E43/1000000</f>
         <v>7.9102800000000004E-3</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>7.9102800000000004E-3</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
-        <v>1.3380999913808718</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>1.1067159242954767</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>7.9102800000000004E-3</v>
+      </c>
+      <c r="M27">
+        <f>C27</f>
+        <v>2.2860495671912662</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>2.5353245627285217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>2008</v>
       </c>
       <c r="B28">
+        <v>67261.8</v>
+      </c>
+      <c r="C28">
         <f>時系列分析!G44</f>
         <v>2.4226741262826978</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f>時系列分析!E44/1000000</f>
         <v>8.1927700000000003E-3</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>8.1927700000000003E-3</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="1"/>
-        <v>1.2642502542367504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>1.0287106692905807</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>8.1927700000000003E-3</v>
+      </c>
+      <c r="M28">
+        <f>C28</f>
+        <v>2.4226741262826978</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>2.7244210960921862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>2009</v>
       </c>
       <c r="B29">
+        <v>67700.399999999994</v>
+      </c>
+      <c r="C29">
         <f>時系列分析!G45</f>
         <v>2.5159095859559062</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f>時系列分析!E45/1000000</f>
         <v>7.9961000000000008E-3</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>7.9961000000000008E-3</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="1"/>
-        <v>1.2155582910893763</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.97709573501535218</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>7.9961000000000008E-3</v>
+      </c>
+      <c r="M29">
+        <f>C29</f>
+        <v>2.5159095859559062</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>2.5919059647072866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>2010</v>
       </c>
       <c r="B30">
+        <v>68139</v>
+      </c>
+      <c r="C30">
         <f>時系列分析!G46</f>
         <v>2.6439281452390975</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f>時系列分析!E46/1000000</f>
         <v>8.6736799999999996E-3</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>8.6736799999999996E-3</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="1"/>
-        <v>1.1507226977546234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.90812587588993321</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>8.6736799999999996E-3</v>
+      </c>
+      <c r="M30">
+        <f>C30</f>
+        <v>2.6439281452390975</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>3.0642676562859612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>2011</v>
       </c>
       <c r="B31">
+        <v>68499</v>
+      </c>
+      <c r="C31">
         <f>時系列分析!G47</f>
         <v>2.7766699683268485</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <f>時系列分析!E47/1000000</f>
         <v>8.8104899999999989E-3</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>8.8104899999999989E-3</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="1"/>
-        <v>1.0857228837908368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.83868432316439645</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>8.8104899999999989E-3</v>
+      </c>
+      <c r="M31">
+        <f>C31</f>
+        <v>2.7766699683268485</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>3.1647498294845713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>2012</v>
       </c>
       <c r="B32">
+        <v>68859</v>
+      </c>
+      <c r="C32">
         <f>時系列分析!G48</f>
         <v>2.9260702583985423</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <f>時系列分析!E48/1000000</f>
         <v>9.5029299999999997E-3</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>9.5029299999999997E-3</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="1"/>
-        <v>1.014980006518974</v>
+        <v>0.76274259729783023</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>9.5029299999999997E-3</v>
+      </c>
+      <c r="M32">
+        <f>C32</f>
+        <v>2.9260702583985423</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>3.6950264343624268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33">
+        <v>69219</v>
+      </c>
+      <c r="D33">
+        <f>時系列分析!E49/1000000</f>
+        <v>9.8745099999999995E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>9.8745099999999995E-3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>3.9913684619752896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34">
+        <v>69579</v>
+      </c>
+      <c r="D34">
+        <f>時系列分析!E50/1000000</f>
+        <v>1.0226819999999999E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>1.0226819999999999E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>4.27721530027741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35">
+        <v>69939</v>
+      </c>
+      <c r="D35">
+        <f>時系列分析!E51/1000000</f>
+        <v>1.054438992627953E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>1.054438992627953E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>4.5371048259843558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="B36">
+        <v>70239.8</v>
+      </c>
+      <c r="D36">
+        <f>時系列分析!E52/1000000</f>
+        <v>1.1073416428325588E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>1.1073416428325588E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>4.9701168619695002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37">
+        <v>70540.600000000006</v>
+      </c>
+      <c r="D37">
+        <f>時系列分析!E53/1000000</f>
+        <v>1.1611053114424194E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>1.1611053114424194E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>5.4034731002606229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38">
+        <v>70841.399999999994</v>
+      </c>
+      <c r="D38">
+        <f>時系列分析!E54/1000000</f>
+        <v>1.2348956550494282E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>1.2348956550494282E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>5.9737273324207774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39">
+        <v>71142.2</v>
+      </c>
+      <c r="D39">
+        <f>時系列分析!E55/1000000</f>
+        <v>1.2817898362588495E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>1.2817898362588495E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>6.3146729476320678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <v>2020</v>
+      </c>
+      <c r="B40">
+        <v>71443</v>
+      </c>
+      <c r="D40">
+        <f>時系列分析!E56/1000000</f>
+        <v>1.2153128177131932E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>1.2153128177131932E-2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>5.8259834437863676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <v>2021</v>
+      </c>
+      <c r="B41">
+        <v>71680</v>
+      </c>
+      <c r="D41">
+        <f>時系列分析!E57/1000000</f>
+        <v>1.2664487807720321E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>1.2664487807720321E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>6.2052632030599106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <v>2022</v>
+      </c>
+      <c r="B42">
+        <v>71917</v>
+      </c>
+      <c r="D42">
+        <f>時系列分析!E58/1000000</f>
+        <v>1.3656718220568605E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>1.3656718220568605E-2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>6.871757623848886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>2023</v>
+      </c>
+      <c r="B43">
+        <v>72154</v>
+      </c>
+      <c r="D43">
+        <f>時系列分析!E59/1000000</f>
+        <v>1.4471673473988211E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>1.4471673473988211E-2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>7.3401542143174927</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>72391</v>
+      </c>
+      <c r="D44">
+        <f>時系列分析!E60/1000000</f>
+        <v>1.5269281738948997E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>1.5269281738948997E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>7.7267796778617166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <v>2025</v>
+      </c>
+      <c r="B45">
+        <v>72628</v>
+      </c>
+      <c r="D45">
+        <f>時系列分析!E61/1000000</f>
+        <v>1.6123082784042217E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>1.6123082784042217E-2</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>8.0657463180047539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>2026</v>
+      </c>
+      <c r="B46">
+        <v>72794.8</v>
+      </c>
+      <c r="D46">
+        <f>時系列分析!E62/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>2027</v>
+      </c>
+      <c r="B47">
+        <v>72961.600000000006</v>
+      </c>
+      <c r="D47">
+        <f>時系列分析!E63/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
+        <v>2028</v>
+      </c>
+      <c r="B48">
+        <v>73128.399999999994</v>
+      </c>
+      <c r="D48">
+        <f>時系列分析!E64/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>2029</v>
+      </c>
+      <c r="B49">
+        <v>73295.199999999997</v>
+      </c>
+      <c r="D49">
+        <f>時系列分析!E65/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
+        <v>2030</v>
+      </c>
+      <c r="B50">
+        <v>73462</v>
+      </c>
+      <c r="D50">
+        <f>時系列分析!E66/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>2031</v>
+      </c>
+      <c r="B51">
+        <v>73551.600000000006</v>
+      </c>
+      <c r="D51">
+        <f>時系列分析!E67/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>2032</v>
+      </c>
+      <c r="B52">
+        <v>73641.2</v>
+      </c>
+      <c r="D52">
+        <f>時系列分析!E68/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>2033</v>
+      </c>
+      <c r="B53">
+        <v>73730.8</v>
+      </c>
+      <c r="D53">
+        <f>時系列分析!E69/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
+        <v>2034</v>
+      </c>
+      <c r="B54">
+        <v>73820.399999999994</v>
+      </c>
+      <c r="D54">
+        <f>時系列分析!E70/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>2035</v>
+      </c>
+      <c r="B55">
+        <v>73910</v>
+      </c>
+      <c r="D55">
+        <f>時系列分析!E71/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>2036</v>
+      </c>
+      <c r="B56">
+        <v>73928.800000000003</v>
+      </c>
+      <c r="D56">
+        <f>時系列分析!E72/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>2037</v>
+      </c>
+      <c r="B57">
+        <v>73947.600000000006</v>
+      </c>
+      <c r="D57">
+        <f>時系列分析!E73/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>2038</v>
+      </c>
+      <c r="B58">
+        <v>73966.399999999994</v>
+      </c>
+      <c r="D58">
+        <f>時系列分析!E74/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>2039</v>
+      </c>
+      <c r="B59">
+        <v>73985.2</v>
+      </c>
+      <c r="D59">
+        <f>時系列分析!E75/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>2040</v>
+      </c>
+      <c r="B60">
+        <v>74004</v>
+      </c>
+      <c r="D60">
+        <f>時系列分析!E76/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>2041</v>
+      </c>
+      <c r="B61">
+        <v>73962.2</v>
+      </c>
+      <c r="D61">
+        <f>時系列分析!E77/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>2042</v>
+      </c>
+      <c r="B62">
+        <v>73920.399999999994</v>
+      </c>
+      <c r="D62">
+        <f>時系列分析!E78/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>2043</v>
+      </c>
+      <c r="B63">
+        <v>73878.600000000006</v>
+      </c>
+      <c r="D63">
+        <f>時系列分析!E79/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>2044</v>
+      </c>
+      <c r="B64">
+        <v>73836.800000000003</v>
+      </c>
+      <c r="D64">
+        <f>時系列分析!E80/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>2045</v>
+      </c>
+      <c r="B65">
+        <v>73795</v>
+      </c>
+      <c r="D65">
+        <f>時系列分析!E81/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>2046</v>
+      </c>
+      <c r="B66">
+        <v>73708.2</v>
+      </c>
+      <c r="D66">
+        <f>時系列分析!E82/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="3"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>2047</v>
+      </c>
+      <c r="B67">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="D67">
+        <f>時系列分析!E83/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L70" si="4">D67</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N70" si="5">$G$4/(1+EXP($G$6*L67+$G$7))</f>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
+        <v>2048</v>
+      </c>
+      <c r="B68">
+        <v>73534.600000000006</v>
+      </c>
+      <c r="D68">
+        <f>時系列分析!E84/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="5"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>2049</v>
+      </c>
+      <c r="B69">
+        <v>73447.8</v>
+      </c>
+      <c r="D69">
+        <f>時系列分析!E85/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>0.20392515119316387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>2050</v>
+      </c>
+      <c r="B70">
+        <v>73361</v>
+      </c>
+      <c r="D70">
+        <f>時系列分析!E86/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="5"/>
+        <v>0.20392515119316387</v>
       </c>
     </row>
   </sheetData>
@@ -19073,11 +23137,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DA95E0-B38E-2942-B1EB-6F26359DDCB4}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="56" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="87" zoomScaleNormal="56" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>

--- a/データ解析_2_J4210494 2.xlsx
+++ b/データ解析_2_J4210494 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D490E-6DA1-4A41-A75F-91EB9C078352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D35EFC7-85F2-5246-B7A3-B37064E04945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鋼材国内消費量" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,18 @@
     <sheet name="国内投入量" sheetId="7" r:id="rId8"/>
     <sheet name="時系列分析3" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'GDP per cap preditction'!$A$2:$A$72</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'GDP per cap preditction'!$S$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'GDP per cap preditction'!$S$2:$S$72</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'GDP per cap preditction'!$T$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'GDP per cap preditction'!$T$2:$T$72</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'GDP per cap preditction'!$A$2:$A$72</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'GDP per cap preditction'!$S$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'GDP per cap preditction'!$S$2:$S$72</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'GDP per cap preditction'!$T$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'GDP per cap preditction'!$T$2:$T$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t>建築</t>
     <rPh sb="0" eb="2">
@@ -518,16 +530,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ならした後</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>廃棄量 [ton]</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ハイキリョウ </t>
     </rPh>
     <rPh sb="2" eb="3">
       <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元データ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モトデータ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ならした投入量</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">トウニュウリョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1412,6 +1434,696 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時系列分析3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>廃棄量 [ton]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>時系列分析3!$A$2:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>時系列分析3!$K$2:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>234758.96685045716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254274.15667571884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315989.53066288284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341195.69787765696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292950.50364445394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430851.78503829718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630410.16039511678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>851666.96671665716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>974263.58318737033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>974491.02381341544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>857512.77401052311</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>945427.24982239935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1082566.0528147731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000845.1447385737</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>999327.01473880024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>937277.33676527464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>906576.70946733502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>619518.16083226749</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>851625.1523546176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>841675.7217089819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>809716.71856561711</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1047431.9344134961</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1218343.5150128992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1393028.507498401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1606185.2509486345</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2031919.0769359104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2246352.0426470777</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2567407.6271054521</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3185906.7296378282</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3400720.4921695874</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3839690.9636030253</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2939634.2742263647</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3021963.3332080459</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2462206.6509823003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3341968.1268165326</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4094308.8665411938</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4752123.8612870136</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5862126.908519106</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6593105.0622220524</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7130044.0730496645</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7914140.4819717221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9129455.3861934319</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9192150.9320590179</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11982748.285436116</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10764477.166289406</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11589455.666549159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14136951.073226061</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18288160.958611637</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15976779.313170597</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15794473.325506002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18341844.266972087</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17822829.409213625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19100491.499669425</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19786656.654169753</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19873544.430279583</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19947504.037316021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20135657.224135116</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18859246.163011082</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19164632.566584244</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18137629.376651514</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16328008.039621213</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18042813.460859124</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18746020.739226684</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18951006.255819973</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22011498.590385441</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32171208.198840141</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26324232.88845263</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26919471.870538011</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31451107.313922778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A09-B844-8FBD-F43D5F8A03D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="750493407"/>
+        <c:axId val="1863258159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="750493407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1863258159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1863258159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750493407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -2801,6 +3513,1072 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各年の一人あたり</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>GDP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>とその予測値</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26939396735606008"/>
+          <c:y val="0.8984679708039579"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14770786549088483"/>
+          <c:y val="5.2661697936675723E-2"/>
+          <c:w val="0.81966403764991214"/>
+          <c:h val="0.70532458113843222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時系列分析3!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ならした投入量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>時系列分析3!$A$3:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GDP per cap preditction'!$S$2:$S$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="34">
+                  <c:v>10343.401940056801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10825.272419084593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11316.667598261303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11816.622500854741</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12324.095255652424</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12837.974763385466</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13357.089678821138</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13880.218571939715</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14406.101092909967</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14933.4499315883</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15460.963334717831</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15987.33792433638</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16511.281550175652</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17031.525907610732</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17546.838661092348</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18056.034830483775</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18557.987223408389</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19051.635729232261</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19535.995327993118</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20010.16270857937</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20473.321432830748</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20924.745624100455</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21363.802198479436</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21789.951692883231</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22202.747775404456</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22601.835548953841</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22986.948778819566</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23357.906188274217</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23714.606973959875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24057.025694921118</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24385.206686485228</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24699.258143445197</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24999.346007014839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25285.68777762022</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25558.546361563796</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25818.224044675731</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26065.05667088904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25C1-E34A-B156-F77FCFCE439A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時系列分析3!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>元データ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>時系列分析3!$A$3:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GDP per cap preditction'!$T$2:$T$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>1099.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1236.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1356.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1468.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1574.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1659.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1747.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1929.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2218.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2569.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2921.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3225.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3514.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3858.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4239.6899999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4698.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5011.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4969.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4448.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4697.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5014.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5152.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5464.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5919.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6350.11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6835.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7387.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7910.28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8192.77</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7996.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8673.68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8810.49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9502.93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9874.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25C1-E34A-B156-F77FCFCE439A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="750493407"/>
+        <c:axId val="1863258159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="750493407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1863258159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1863258159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>一人あたり</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>GDP /$</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> cap^-1</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750493407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -3285,7 +5063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4468,7 +6246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5182,7 +6960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8077,7 +9855,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -8092,6 +9870,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各年の投入量とその予測値</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26939396735606008"/>
+          <c:y val="0.8984679708039579"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8120,7 +9928,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18577397849328844"/>
+          <c:y val="5.2661697936675723E-2"/>
+          <c:w val="0.78159792464750844"/>
+          <c:h val="0.69121251876978396"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -8133,7 +9951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ならした後</c:v>
+                  <c:v>ならした投入量</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8379,92 +10197,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
-                <c:pt idx="1">
-                  <c:v>1601616.2277127381</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1637203.0277460963</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1915204.5772110398</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2503753.2262798287</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3329516.7803118546</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4335706.6607360197</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5164506.6249250909</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6132580.996074561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6682272.2477077916</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7208697.4971882487</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7648216.7720591212</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7957776.7541308226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7842560.7685757698</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6228234.1892004991</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5464965.6681072777</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5141941.9032772081</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6281151.3585091466</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7404062.5654552951</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8757162.0678859968</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10342216.223079776</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11547728.655879075</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12047108.341734091</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12065746.372538446</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11940509.986117283</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11377208.209934855</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11797712.949833928</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12133242.820710681</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13861501.591808826</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>16457750.236723235</c:v>
+                  <c:v>15126846.726247484</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>24772757.722897097</c:v>
@@ -8584,6 +10318,363 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C283-9F42-9D50-EDEB837C1E14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時系列分析3!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>元データ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>時系列分析3!$A$3:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>時系列分析3!$S$3:$S$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1558369.8795166665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1688542.9640379527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1557935.8395835944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1665130.2796167419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2522547.6124327825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3323581.7867899621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4142420.9417128195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5541117.253705278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5809981.6793571748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7046644.0551612303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7190191.0086049717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7389257.427798545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8365201.8797738487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8118870.954820076</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7043609.4711333867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3522222.1416480346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5829065.3915404137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6074538.176643176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6939850.507343851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9197799.0123788565</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10133836.683935281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11695012.972925192</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12814336.310776759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11631975.741500329</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11750927.065338247</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12438627.151513275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9942070.4129530452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13012441.285035463</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13445216.764143534</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15126846.726247484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3E6-2C4E-80B6-0EEB67E7E520}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8670,696 +10761,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>投入量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t> /ton</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
             <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="750493407"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>時系列分析3!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>廃棄量 [ton]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>時系列分析3!$A$2:$A$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>時系列分析3!$K$2:$K$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>234758.96685045716</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254274.15667571884</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>315989.53066288284</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>341195.69787765696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>292950.50364445394</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>430851.78503829718</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>630410.16039511678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>851666.96671665716</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>974263.58318737033</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>974491.02381341544</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>857512.77401052311</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>945427.24982239935</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1082566.0528147731</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000845.1447385737</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>999327.01473880024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>937277.33676527464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>906576.70946733502</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>619518.16083226749</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>851625.1523546176</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>841675.7217089819</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>809716.71856561711</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1047431.9344134961</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1218343.5150128992</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1393028.507498401</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1606185.2509486345</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2031919.0769359104</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2246352.0426470777</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2567407.6271054521</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3185906.7296378282</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3400720.4921695874</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3839690.9636030253</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2939634.2742263647</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3021963.3332080459</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2462206.6509823003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3341968.1268165326</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4094308.8665411938</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4752123.8612870136</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5862126.908519106</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6593105.0622220524</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7130044.0730496645</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7914140.4819717221</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9129455.3861934319</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9192150.9320590179</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11982748.285436116</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10764477.166289406</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11589455.666549159</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14136951.073226061</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18288160.958611637</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15976779.313170597</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15794473.325506002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18341844.266972087</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>17822829.409213625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19100491.499669425</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19786656.654169753</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>19873544.430279583</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19947504.037316021</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>20135657.224135116</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18859246.163011082</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19164632.566584244</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>18137629.376651514</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>16328008.039621213</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>18042813.460859124</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>18746020.739226684</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>18951006.255819973</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>22011498.590385441</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>32171208.198840141</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>26324232.88845263</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>26919471.870538011</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>31451107.313922778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A09-B844-8FBD-F43D5F8A03D6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="750493407"/>
-        <c:axId val="1863258159"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="750493407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1863258159"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1863258159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9446,6 +10901,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10302,6 +11797,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11354,7 +13365,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11381,8 +13392,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11462,6 +13473,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11472,6 +13488,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11483,7 +13504,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11503,6 +13524,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11515,10 +13539,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11558,23 +13582,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11679,8 +13702,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11812,20 +13835,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11839,17 +13861,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12902,6 +14913,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13390,522 +15917,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14945,15 +16956,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>499534</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>651933</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>93134</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14974,6 +16985,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>386688</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176751</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57ABFDEF-48EC-4A48-9326-B2AF88BF3466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15140,16 +17189,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>848406</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>45844</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>838876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>804379</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154470</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>675038</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15177,15 +17226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>787401</xdr:colOff>
+      <xdr:colOff>416268</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>134648</xdr:rowOff>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>546047</xdr:colOff>
+      <xdr:colOff>165797</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>65747</xdr:rowOff>
+      <xdr:rowOff>9215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25603,10 +27652,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E7BA7D-7564-A347-B541-5E5323FBFAA8}">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="L19" zoomScale="173" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -25628,7 +27677,7 @@
     <col min="16" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="31" t="s">
         <v>47</v>
       </c>
@@ -25657,7 +27706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17">
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="31">
         <v>1980</v>
       </c>
@@ -25696,11 +27745,15 @@
         <v>1377.2428841538924</v>
       </c>
       <c r="R2" s="31">
-        <f t="shared" ref="R2:R47" si="2">G2</f>
+        <f>G2</f>
         <v>1099.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="17">
+      <c r="T2" s="31">
+        <f>G2</f>
+        <v>1099.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17">
       <c r="A3" s="31">
         <v>1981</v>
       </c>
@@ -25708,18 +27761,18 @@
         <v>1236.5</v>
       </c>
       <c r="C3" s="32">
-        <f t="shared" ref="C3:C26" si="3">B3/$B$27</f>
+        <f t="shared" ref="C3:C26" si="2">B3/$B$27</f>
         <v>0.18090603712633724</v>
       </c>
       <c r="D3" s="33">
         <v>1793.21</v>
       </c>
       <c r="E3" s="31">
-        <f t="shared" ref="E3:E46" si="4">D3/$D$27</f>
+        <f t="shared" ref="E3:E46" si="3">D3/$D$27</f>
         <v>0.17483968405791167</v>
       </c>
       <c r="G3" s="31">
-        <f t="shared" ref="G3:G36" si="5">B3</f>
+        <f t="shared" ref="G3:G36" si="4">B3</f>
         <v>1236.5</v>
       </c>
       <c r="I3" t="s">
@@ -25742,11 +27795,15 @@
         <v>1472.7001346814591</v>
       </c>
       <c r="R3" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R3:R31" si="5">G3</f>
         <v>1236.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="17">
+      <c r="T3" s="31">
+        <f t="shared" ref="T3:T35" si="6">G3</f>
+        <v>1236.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17">
       <c r="A4" s="31">
         <v>1982</v>
       </c>
@@ -25754,18 +27811,18 @@
         <v>1356.04</v>
       </c>
       <c r="C4" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.19839532760598327</v>
       </c>
       <c r="D4" s="33">
         <v>1968.07</v>
       </c>
       <c r="E4" s="31">
+        <f t="shared" si="3"/>
+        <v>0.19188870071204947</v>
+      </c>
+      <c r="G4" s="31">
         <f t="shared" si="4"/>
-        <v>0.19188870071204947</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" si="5"/>
         <v>1356.04</v>
       </c>
       <c r="I4" t="s">
@@ -25788,11 +27845,15 @@
         <v>1574.4096386869189</v>
       </c>
       <c r="R4" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1356.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="17">
+      <c r="T4" s="31">
+        <f t="shared" si="6"/>
+        <v>1356.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17">
       <c r="A5" s="31">
         <v>1983</v>
       </c>
@@ -25800,18 +27861,18 @@
         <v>1468.1</v>
       </c>
       <c r="C5" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.21479025726257636</v>
       </c>
       <c r="D5" s="33">
         <v>2119.7800000000002</v>
       </c>
       <c r="E5" s="31">
+        <f t="shared" si="3"/>
+        <v>0.20668057030257475</v>
+      </c>
+      <c r="G5" s="31">
         <f t="shared" si="4"/>
-        <v>0.20668057030257475</v>
-      </c>
-      <c r="G5" s="31">
-        <f t="shared" si="5"/>
         <v>1468.1</v>
       </c>
       <c r="I5" t="s">
@@ -25833,11 +27894,15 @@
         <v>1682.7291896058707</v>
       </c>
       <c r="R5" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1468.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="17">
+      <c r="T5" s="31">
+        <f t="shared" si="6"/>
+        <v>1468.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17">
       <c r="A6" s="31">
         <v>1984</v>
       </c>
@@ -25845,18 +27910,18 @@
         <v>1574.08</v>
       </c>
       <c r="C6" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.23029565298813173</v>
       </c>
       <c r="D6" s="33">
         <v>2280.91</v>
       </c>
       <c r="E6" s="31">
+        <f t="shared" si="3"/>
+        <v>0.22239089887103647</v>
+      </c>
+      <c r="G6" s="31">
         <f t="shared" si="4"/>
-        <v>0.22239089887103647</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" si="5"/>
         <v>1574.08</v>
       </c>
       <c r="I6"/>
@@ -25874,11 +27939,15 @@
         <v>1798.029743941893</v>
       </c>
       <c r="R6" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1574.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="17">
+      <c r="T6" s="31">
+        <f t="shared" si="6"/>
+        <v>1574.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17">
       <c r="A7" s="31">
         <v>1985</v>
       </c>
@@ -25886,18 +27955,18 @@
         <v>1659.83</v>
       </c>
       <c r="C7" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.24284130012406657</v>
       </c>
       <c r="D7" s="33">
         <v>2418.19</v>
       </c>
       <c r="E7" s="31">
+        <f t="shared" si="3"/>
+        <v>0.23577582970873542</v>
+      </c>
+      <c r="G7" s="31">
         <f t="shared" si="4"/>
-        <v>0.23577582970873542</v>
-      </c>
-      <c r="G7" s="31">
-        <f t="shared" si="5"/>
         <v>1659.83</v>
       </c>
       <c r="I7" t="s">
@@ -25920,11 +27989,15 @@
         <v>1920.6948236779665</v>
       </c>
       <c r="R7" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1659.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="17">
+      <c r="T7" s="31">
+        <f t="shared" si="6"/>
+        <v>1659.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17">
       <c r="A8" s="31">
         <v>1986</v>
       </c>
@@ -25932,18 +28005,18 @@
         <v>1747.53</v>
       </c>
       <c r="C8" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.25567224185959408</v>
       </c>
       <c r="D8" s="33">
         <v>2556.54</v>
       </c>
       <c r="E8" s="31">
+        <f t="shared" si="3"/>
+        <v>0.24926508656622121</v>
+      </c>
+      <c r="G8" s="31">
         <f t="shared" si="4"/>
-        <v>0.24926508656622121</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="5"/>
         <v>1747.53</v>
       </c>
       <c r="I8" t="s">
@@ -25966,11 +28039,15 @@
         <v>2051.1197187720954</v>
       </c>
       <c r="R8" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1747.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="17">
+      <c r="T8" s="31">
+        <f t="shared" si="6"/>
+        <v>1747.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17">
       <c r="A9" s="31">
         <v>1987</v>
       </c>
@@ -25978,18 +28055,18 @@
         <v>1929.91</v>
       </c>
       <c r="C9" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.28235533369226812</v>
       </c>
       <c r="D9" s="33">
         <v>2817.78</v>
       </c>
       <c r="E9" s="31">
+        <f t="shared" si="3"/>
+        <v>0.27473623554670251</v>
+      </c>
+      <c r="G9" s="31">
         <f t="shared" si="4"/>
-        <v>0.27473623554670251</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="5"/>
         <v>1929.91</v>
       </c>
       <c r="L9" s="31">
@@ -26004,11 +28081,15 @@
         <v>2189.710466179522</v>
       </c>
       <c r="R9" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1929.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="17">
+      <c r="T9" s="31">
+        <f t="shared" si="6"/>
+        <v>1929.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17">
       <c r="A10" s="31">
         <v>1988</v>
       </c>
@@ -26016,18 +28097,18 @@
         <v>2218.04</v>
       </c>
       <c r="C10" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.32451017111823777</v>
       </c>
       <c r="D10" s="33">
         <v>3247.85</v>
       </c>
       <c r="E10" s="31">
+        <f t="shared" si="3"/>
+        <v>0.31666847043429852</v>
+      </c>
+      <c r="G10" s="31">
         <f t="shared" si="4"/>
-        <v>0.31666847043429852</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="5"/>
         <v>2218.04</v>
       </c>
       <c r="L10" s="31">
@@ -26042,11 +28123,15 @@
         <v>2336.8825811571746</v>
       </c>
       <c r="R10" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2218.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="17">
+      <c r="T10" s="31">
+        <f t="shared" si="6"/>
+        <v>2218.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17">
       <c r="A11" s="31">
         <v>1989</v>
       </c>
@@ -26054,18 +28139,18 @@
         <v>2569.81</v>
       </c>
       <c r="C11" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.37597585383552984</v>
       </c>
       <c r="D11" s="33">
         <v>3726.96</v>
       </c>
       <c r="E11" s="31">
+        <f t="shared" si="3"/>
+        <v>0.36338215206053642</v>
+      </c>
+      <c r="G11" s="31">
         <f t="shared" si="4"/>
-        <v>0.36338215206053642</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" si="5"/>
         <v>2569.81</v>
       </c>
       <c r="L11" s="31">
@@ -26080,11 +28165,15 @@
         <v>2493.059516321222</v>
       </c>
       <c r="R11" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2569.81</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="17">
+      <c r="T11" s="31">
+        <f t="shared" si="6"/>
+        <v>2569.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17">
       <c r="A12" s="31">
         <v>1990</v>
       </c>
@@ -26092,18 +28181,18 @@
         <v>2921.08</v>
       </c>
       <c r="C12" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.42736838409138789</v>
       </c>
       <c r="D12" s="33">
         <v>4255.8500000000004</v>
       </c>
       <c r="E12" s="31">
+        <f t="shared" si="3"/>
+        <v>0.41494943113068938</v>
+      </c>
+      <c r="G12" s="31">
         <f t="shared" si="4"/>
-        <v>0.41494943113068938</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" si="5"/>
         <v>2921.08</v>
       </c>
       <c r="L12" s="31">
@@ -26118,11 +28207,15 @@
         <v>2658.6708241533292</v>
       </c>
       <c r="R12" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2921.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="17">
+      <c r="T12" s="31">
+        <f t="shared" si="6"/>
+        <v>2921.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17">
       <c r="A13" s="31">
         <v>1991</v>
       </c>
@@ -26130,18 +28223,18 @@
         <v>3225.46</v>
       </c>
       <c r="C13" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.47190067651396334</v>
       </c>
       <c r="D13" s="33">
         <v>4713.3</v>
       </c>
       <c r="E13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.45955124211339171</v>
+      </c>
+      <c r="G13" s="31">
         <f t="shared" si="4"/>
-        <v>0.45955124211339171</v>
-      </c>
-      <c r="G13" s="31">
-        <f t="shared" si="5"/>
         <v>3225.46</v>
       </c>
       <c r="L13" s="31">
@@ -26156,11 +28249,15 @@
         <v>2834.1499995037852</v>
       </c>
       <c r="R13" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3225.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="17">
+      <c r="T13" s="31">
+        <f t="shared" si="6"/>
+        <v>3225.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="17">
       <c r="A14" s="31">
         <v>1992</v>
       </c>
@@ -26168,18 +28265,18 @@
         <v>3514.57</v>
       </c>
       <c r="C14" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51419889276434372</v>
       </c>
       <c r="D14" s="33">
         <v>5212.97</v>
       </c>
       <c r="E14" s="31">
+        <f t="shared" si="3"/>
+        <v>0.50826954333478613</v>
+      </c>
+      <c r="G14" s="31">
         <f t="shared" si="4"/>
-        <v>0.50826954333478613</v>
-      </c>
-      <c r="G14" s="31">
-        <f t="shared" si="5"/>
         <v>3514.57</v>
       </c>
       <c r="L14" s="31">
@@ -26194,11 +28291,15 @@
         <v>3019.9319802466212</v>
       </c>
       <c r="R14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3514.57</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="17">
+      <c r="T14" s="31">
+        <f t="shared" si="6"/>
+        <v>3514.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17">
       <c r="A15" s="31">
         <v>1993</v>
       </c>
@@ -26206,18 +28307,18 @@
         <v>3858.59</v>
       </c>
       <c r="C15" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.56453071232940844</v>
       </c>
       <c r="D15" s="33">
         <v>5747.1</v>
       </c>
       <c r="E15" s="31">
+        <f t="shared" si="3"/>
+        <v>0.56034772739903538</v>
+      </c>
+      <c r="G15" s="31">
         <f t="shared" si="4"/>
-        <v>0.56034772739903538</v>
-      </c>
-      <c r="G15" s="31">
-        <f t="shared" si="5"/>
         <v>3858.59</v>
       </c>
       <c r="L15" s="31">
@@ -26232,11 +28333,15 @@
         <v>3216.4502867387391</v>
       </c>
       <c r="R15" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3858.59</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="17">
+      <c r="T15" s="31">
+        <f t="shared" si="6"/>
+        <v>3858.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17">
       <c r="A16" s="31">
         <v>1994</v>
       </c>
@@ -26244,18 +28349,18 @@
         <v>4239.6899999999996</v>
       </c>
       <c r="C16" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6202875184344202</v>
       </c>
       <c r="D16" s="33">
         <v>6281.35</v>
       </c>
       <c r="E16" s="31">
+        <f t="shared" si="3"/>
+        <v>0.6124376115776532</v>
+      </c>
+      <c r="G16" s="31">
         <f t="shared" si="4"/>
-        <v>0.6124376115776532</v>
-      </c>
-      <c r="G16" s="31">
-        <f t="shared" si="5"/>
         <v>4239.6899999999996</v>
       </c>
       <c r="L16" s="31">
@@ -26270,11 +28375,15 @@
         <v>3424.1337842499788</v>
       </c>
       <c r="R16" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4239.6899999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="17">
+      <c r="T16" s="31">
+        <f t="shared" si="6"/>
+        <v>4239.6899999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="17">
       <c r="A17" s="31">
         <v>1995</v>
       </c>
@@ -26282,18 +28391,18 @@
         <v>4698.95</v>
       </c>
       <c r="C17" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.68747951731079848</v>
       </c>
       <c r="D17" s="33">
         <v>6864.79</v>
       </c>
       <c r="E17" s="31">
+        <f t="shared" si="3"/>
+        <v>0.66932356763787371</v>
+      </c>
+      <c r="G17" s="31">
         <f t="shared" si="4"/>
-        <v>0.66932356763787371</v>
-      </c>
-      <c r="G17" s="31">
-        <f t="shared" si="5"/>
         <v>4698.95</v>
       </c>
       <c r="L17" s="31">
@@ -26308,11 +28417,15 @@
         <v>3643.4030572024931</v>
       </c>
       <c r="R17" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4698.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="17">
+      <c r="T17" s="31">
+        <f t="shared" si="6"/>
+        <v>4698.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="17">
       <c r="A18" s="31">
         <v>1996</v>
       </c>
@@ -26320,18 +28433,18 @@
         <v>5011.8100000000004</v>
       </c>
       <c r="C18" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.73325247547929495</v>
       </c>
       <c r="D18" s="33">
         <v>7304.17</v>
       </c>
       <c r="E18" s="31">
+        <f t="shared" si="3"/>
+        <v>0.71216353639856833</v>
+      </c>
+      <c r="G18" s="31">
         <f t="shared" si="4"/>
-        <v>0.71216353639856833</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="5"/>
         <v>5011.8100000000004</v>
       </c>
       <c r="L18" s="31">
@@ -26346,11 +28459,15 @@
         <v>3874.6663899938544</v>
       </c>
       <c r="R18" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5011.8100000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="17">
+      <c r="T18" s="31">
+        <f t="shared" si="6"/>
+        <v>5011.8100000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="17">
       <c r="A19" s="31">
         <v>1997</v>
       </c>
@@ -26358,18 +28475,18 @@
         <v>4969.79</v>
       </c>
       <c r="C19" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.72710474262037972</v>
       </c>
       <c r="D19" s="33">
         <v>7140.45</v>
       </c>
       <c r="E19" s="31">
+        <f t="shared" si="3"/>
+        <v>0.6962006803616505</v>
+      </c>
+      <c r="G19" s="31">
         <f t="shared" si="4"/>
-        <v>0.6962006803616505</v>
-      </c>
-      <c r="G19" s="31">
-        <f t="shared" si="5"/>
         <v>4969.79</v>
       </c>
       <c r="L19" s="31">
@@ -26384,11 +28501,15 @@
         <v>4118.3153564802715</v>
       </c>
       <c r="R19" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4969.79</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="17">
+      <c r="T19" s="31">
+        <f t="shared" si="6"/>
+        <v>4969.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="17">
       <c r="A20" s="31">
         <v>1998</v>
       </c>
@@ -26396,18 +28517,18 @@
         <v>4448.18</v>
       </c>
       <c r="C20" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.65079063180317898</v>
       </c>
       <c r="D20" s="33">
         <v>6589.61</v>
       </c>
       <c r="E20" s="31">
+        <f t="shared" si="3"/>
+        <v>0.6424932553715712</v>
+      </c>
+      <c r="G20" s="31">
         <f t="shared" si="4"/>
-        <v>0.6424932553715712</v>
-      </c>
-      <c r="G20" s="31">
-        <f t="shared" si="5"/>
         <v>4448.18</v>
       </c>
       <c r="L20" s="31">
@@ -26422,11 +28543,15 @@
         <v>4374.7200289244001</v>
       </c>
       <c r="R20" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4448.18</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="17">
+      <c r="T20" s="31">
+        <f t="shared" si="6"/>
+        <v>4448.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="17">
       <c r="A21" s="31">
         <v>1999</v>
       </c>
@@ -26434,18 +28559,18 @@
         <v>4697.45</v>
       </c>
       <c r="C21" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.68726005992649641</v>
       </c>
       <c r="D21" s="33">
         <v>6910.35</v>
       </c>
       <c r="E21" s="31">
+        <f t="shared" si="3"/>
+        <v>0.67376571105982563</v>
+      </c>
+      <c r="G21" s="31">
         <f t="shared" si="4"/>
-        <v>0.67376571105982563</v>
-      </c>
-      <c r="G21" s="31">
-        <f t="shared" si="5"/>
         <v>4697.45</v>
       </c>
       <c r="L21" s="31">
@@ -26460,11 +28585,15 @@
         <v>4644.2238273845933</v>
       </c>
       <c r="R21" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4697.45</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="17">
+      <c r="T21" s="31">
+        <f t="shared" si="6"/>
+        <v>4697.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="17">
       <c r="A22" s="31">
         <v>2000</v>
       </c>
@@ -26472,18 +28601,18 @@
         <v>5014.7299999999996</v>
       </c>
       <c r="C22" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.73367968585406951</v>
       </c>
       <c r="D22" s="33">
         <v>7302.9</v>
       </c>
       <c r="E22" s="31">
+        <f t="shared" si="3"/>
+        <v>0.71203971018816714</v>
+      </c>
+      <c r="G22" s="31">
         <f t="shared" si="4"/>
-        <v>0.71203971018816714</v>
-      </c>
-      <c r="G22" s="31">
-        <f t="shared" si="5"/>
         <v>5014.7299999999996</v>
       </c>
       <c r="L22" s="31">
@@ -26498,11 +28627,15 @@
         <v>4927.1380420983505</v>
       </c>
       <c r="R22" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5014.7299999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="17">
+      <c r="T22" s="31">
+        <f t="shared" si="6"/>
+        <v>5014.7299999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="17">
       <c r="A23" s="31">
         <v>2001</v>
       </c>
@@ -26510,18 +28643,18 @@
         <v>5152.71</v>
       </c>
       <c r="C23" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.7538668391114024</v>
       </c>
       <c r="D23" s="33">
         <v>7648.84</v>
       </c>
       <c r="E23" s="31">
+        <f t="shared" si="3"/>
+        <v>0.74576918989383123</v>
+      </c>
+      <c r="G23" s="31">
         <f t="shared" si="4"/>
-        <v>0.74576918989383123</v>
-      </c>
-      <c r="G23" s="31">
-        <f t="shared" si="5"/>
         <v>5152.71</v>
       </c>
       <c r="L23" s="31">
@@ -26536,11 +28669,15 @@
         <v>5223.7360742790543</v>
       </c>
       <c r="R23" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5152.71</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="17">
+      <c r="T23" s="31">
+        <f t="shared" si="6"/>
+        <v>5152.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="17">
       <c r="A24" s="31">
         <v>2002</v>
       </c>
@@ -26548,18 +28685,18 @@
         <v>5464.57</v>
       </c>
       <c r="C24" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.79949349235703082</v>
       </c>
       <c r="D24" s="33">
         <v>8179.41</v>
       </c>
       <c r="E24" s="31">
+        <f t="shared" si="3"/>
+        <v>0.79750027056514483</v>
+      </c>
+      <c r="G24" s="31">
         <f t="shared" si="4"/>
-        <v>0.79750027056514483</v>
-      </c>
-      <c r="G24" s="31">
-        <f t="shared" si="5"/>
         <v>5464.57</v>
       </c>
       <c r="L24" s="31">
@@ -26574,11 +28711,15 @@
         <v>5534.2474547037527</v>
       </c>
       <c r="R24" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5464.57</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="17">
+      <c r="T24" s="31">
+        <f t="shared" si="6"/>
+        <v>5464.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17">
       <c r="A25" s="31">
         <v>2003</v>
       </c>
@@ -26586,18 +28727,18 @@
         <v>5919.62</v>
       </c>
       <c r="C25" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.86606954750813459</v>
       </c>
       <c r="D25" s="33">
         <v>8863.74</v>
       </c>
       <c r="E25" s="31">
+        <f t="shared" si="3"/>
+        <v>0.86422309778078088</v>
+      </c>
+      <c r="G25" s="31">
         <f t="shared" si="4"/>
-        <v>0.86422309778078088</v>
-      </c>
-      <c r="G25" s="31">
-        <f t="shared" si="5"/>
         <v>5919.62</v>
       </c>
       <c r="L25" s="31">
@@ -26612,11 +28753,15 @@
         <v>5858.8517142256178</v>
       </c>
       <c r="R25" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5919.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="17">
+      <c r="T25" s="31">
+        <f t="shared" si="6"/>
+        <v>5919.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="17">
       <c r="A26" s="31">
         <v>2004</v>
       </c>
@@ -26624,18 +28769,18 @@
         <v>6350.11</v>
       </c>
       <c r="C26" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.92905235375359907</v>
       </c>
       <c r="D26" s="33">
         <v>9608.5400000000009</v>
       </c>
       <c r="E26" s="31">
+        <f t="shared" si="3"/>
+        <v>0.93684180762866975</v>
+      </c>
+      <c r="G26" s="31">
         <f t="shared" si="4"/>
-        <v>0.93684180762866975</v>
-      </c>
-      <c r="G26" s="31">
-        <f t="shared" si="5"/>
         <v>6350.11</v>
       </c>
       <c r="L26" s="31">
@@ -26650,11 +28795,15 @@
         <v>6197.6721954981795</v>
       </c>
       <c r="R26" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6350.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="17">
+      <c r="T26" s="31">
+        <f t="shared" si="6"/>
+        <v>6350.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="17">
       <c r="A27" s="31">
         <v>2005</v>
       </c>
@@ -26669,11 +28818,11 @@
         <v>10256.31</v>
       </c>
       <c r="E27" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="31">
-        <f t="shared" si="5"/>
         <v>6835.04</v>
       </c>
       <c r="L27" s="31">
@@ -26688,11 +28837,15 @@
         <v>6550.7699102412198</v>
       </c>
       <c r="R27" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6835.04</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="17">
+      <c r="T27" s="31">
+        <f t="shared" si="6"/>
+        <v>6835.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="17">
       <c r="A28" s="31">
         <v>2006</v>
       </c>
@@ -26700,18 +28853,18 @@
         <v>7387.38</v>
       </c>
       <c r="C28" s="32">
-        <f t="shared" ref="C28:C35" si="6">B28/$B$27</f>
+        <f t="shared" ref="C28:C35" si="7">B28/$B$27</f>
         <v>1.0808100610969358</v>
       </c>
       <c r="D28" s="33">
         <v>11024.84</v>
       </c>
       <c r="E28" s="31">
+        <f t="shared" si="3"/>
+        <v>1.074932407464283</v>
+      </c>
+      <c r="G28" s="31">
         <f t="shared" si="4"/>
-        <v>1.074932407464283</v>
-      </c>
-      <c r="G28" s="31">
-        <f t="shared" si="5"/>
         <v>7387.38</v>
       </c>
       <c r="L28" s="31">
@@ -26726,11 +28879,15 @@
         <v>6918.1375606970132</v>
       </c>
       <c r="R28" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7387.38</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="17">
+      <c r="T28" s="31">
+        <f t="shared" si="6"/>
+        <v>7387.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="17">
       <c r="A29" s="31">
         <v>2007</v>
       </c>
@@ -26738,18 +28895,18 @@
         <v>7910.28</v>
       </c>
       <c r="C29" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1573129052646363</v>
       </c>
       <c r="D29" s="33">
         <v>11869.69</v>
       </c>
       <c r="E29" s="31">
+        <f t="shared" si="3"/>
+        <v>1.1573060876670072</v>
+      </c>
+      <c r="G29" s="31">
         <f t="shared" si="4"/>
-        <v>1.1573060876670072</v>
-      </c>
-      <c r="G29" s="31">
-        <f t="shared" si="5"/>
         <v>7910.28</v>
       </c>
       <c r="L29" s="31">
@@ -26764,11 +28921,15 @@
         <v>7299.6938568128371</v>
       </c>
       <c r="R29" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7910.28</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="17">
+      <c r="T29" s="31">
+        <f t="shared" si="6"/>
+        <v>7910.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="17">
       <c r="A30" s="31">
         <v>2008</v>
       </c>
@@ -26776,18 +28937,18 @@
         <v>8192.77</v>
       </c>
       <c r="C30" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1986425829256304</v>
       </c>
       <c r="D30" s="33">
         <v>12244.81</v>
       </c>
       <c r="E30" s="31">
+        <f t="shared" si="3"/>
+        <v>1.1938806451833066</v>
+      </c>
+      <c r="G30" s="31">
         <f t="shared" si="4"/>
-        <v>1.1938806451833066</v>
-      </c>
-      <c r="G30" s="31">
-        <f t="shared" si="5"/>
         <v>8192.77</v>
       </c>
       <c r="L30" s="31">
@@ -26802,11 +28963,15 @@
         <v>7695.2782713604802</v>
       </c>
       <c r="R30" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8192.77</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="17">
+      <c r="T30" s="31">
+        <f t="shared" si="6"/>
+        <v>8192.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="17">
       <c r="A31" s="31">
         <v>2009</v>
       </c>
@@ -26814,18 +28979,18 @@
         <v>7996.1</v>
       </c>
       <c r="C31" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1698687937451719</v>
       </c>
       <c r="D31" s="33">
         <v>12191.41</v>
       </c>
       <c r="E31" s="31">
+        <f t="shared" si="3"/>
+        <v>1.1886740942892717</v>
+      </c>
+      <c r="G31" s="31">
         <f t="shared" si="4"/>
-        <v>1.1886740942892717</v>
-      </c>
-      <c r="G31" s="31">
-        <f t="shared" si="5"/>
         <v>7996.1</v>
       </c>
       <c r="L31" s="31">
@@ -26840,23 +29005,27 @@
         <v>8104.646382840263</v>
       </c>
       <c r="R31" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7996.1</v>
       </c>
-      <c r="S31" s="31" t="s">
+      <c r="T31" s="31">
+        <f t="shared" si="6"/>
+        <v>7996.1</v>
+      </c>
+      <c r="U31" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="T31" s="31">
+      <c r="V31" s="31">
         <v>1</v>
       </c>
-      <c r="U31" s="31">
-        <v>0</v>
-      </c>
       <c r="W31" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="17">
+    <row r="32" spans="1:25" ht="17">
       <c r="A32" s="31">
         <v>2010</v>
       </c>
@@ -26864,18 +29033,18 @@
         <v>8673.68</v>
       </c>
       <c r="C32" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2690020833821016</v>
       </c>
       <c r="D32" s="33">
         <v>13195.36</v>
       </c>
       <c r="E32" s="31">
+        <f t="shared" si="3"/>
+        <v>1.2865601761257217</v>
+      </c>
+      <c r="G32" s="31">
         <f t="shared" si="4"/>
-        <v>1.2865601761257217</v>
-      </c>
-      <c r="G32" s="31">
-        <f t="shared" si="5"/>
         <v>8673.68</v>
       </c>
       <c r="L32" s="31">
@@ -26890,21 +29059,25 @@
         <v>8527.4659597963728</v>
       </c>
       <c r="R32" s="31">
-        <f>G32*T32+O32*U32</f>
+        <f>G32*V32+O32*W32</f>
         <v>8600.5729798981865</v>
       </c>
       <c r="T32" s="31">
+        <f t="shared" si="6"/>
+        <v>8673.68</v>
+      </c>
+      <c r="V32" s="31">
         <v>0.5</v>
       </c>
-      <c r="U32" s="31">
-        <f>T36</f>
+      <c r="W32" s="31">
+        <f>V36</f>
         <v>0.5</v>
       </c>
-      <c r="W32" s="31">
+      <c r="Y32" s="31">
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="17">
+    <row r="33" spans="1:25" ht="17">
       <c r="A33" s="31">
         <v>2011</v>
       </c>
@@ -26912,18 +29085,18 @@
         <v>8810.49</v>
       </c>
       <c r="C33" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2890180598796788</v>
       </c>
       <c r="D33" s="33">
         <v>13519.13</v>
       </c>
       <c r="E33" s="31">
+        <f t="shared" si="3"/>
+        <v>1.3181280597017835</v>
+      </c>
+      <c r="G33" s="31">
         <f t="shared" si="4"/>
-        <v>1.3181280597017835</v>
-      </c>
-      <c r="G33" s="31">
-        <f t="shared" si="5"/>
         <v>8810.49</v>
       </c>
       <c r="L33" s="31">
@@ -26938,21 +29111,25 @@
         <v>8963.3139393015881</v>
       </c>
       <c r="R33" s="31">
-        <f t="shared" ref="R33:R36" si="7">G33*T33+O33*U33</f>
+        <f>G33*V33+O33*W33</f>
         <v>8886.901969650793</v>
       </c>
       <c r="T33" s="31">
+        <f t="shared" si="6"/>
+        <v>8810.49</v>
+      </c>
+      <c r="V33" s="31">
         <v>0.5</v>
       </c>
-      <c r="U33" s="31">
-        <f>T35</f>
+      <c r="W33" s="31">
+        <f>V35</f>
         <v>0.5</v>
       </c>
-      <c r="W33" s="31">
+      <c r="Y33" s="31">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="17">
+    <row r="34" spans="1:25" ht="17">
       <c r="A34" s="31">
         <v>2012</v>
       </c>
@@ -26960,18 +29137,18 @@
         <v>9502.93</v>
       </c>
       <c r="C34" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3903254406704277</v>
       </c>
       <c r="D34" s="33">
         <v>14870.98</v>
       </c>
       <c r="E34" s="31">
+        <f t="shared" si="3"/>
+        <v>1.4499347231119184</v>
+      </c>
+      <c r="G34" s="31">
         <f t="shared" si="4"/>
-        <v>1.4499347231119184</v>
-      </c>
-      <c r="G34" s="31">
-        <f t="shared" si="5"/>
         <v>9502.93</v>
       </c>
       <c r="L34" s="31">
@@ -26986,20 +29163,24 @@
         <v>9411.6744462033075</v>
       </c>
       <c r="R34" s="31">
-        <f t="shared" si="7"/>
+        <f>G34*V34+O34*W34</f>
         <v>9457.3022231016548</v>
       </c>
       <c r="T34" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="U34" s="31">
+        <f t="shared" si="6"/>
+        <v>9502.93</v>
+      </c>
+      <c r="V34" s="31">
         <v>0.5</v>
       </c>
       <c r="W34" s="31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="17">
+      <c r="Y34" s="31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="17">
       <c r="A35" s="31">
         <v>2013</v>
       </c>
@@ -27007,18 +29188,18 @@
         <v>9874.51</v>
       </c>
       <c r="C35" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4446894239097356</v>
       </c>
       <c r="D35" s="33">
         <v>15407.67</v>
       </c>
       <c r="E35" s="31">
+        <f t="shared" si="3"/>
+        <v>1.5022625096160316</v>
+      </c>
+      <c r="G35" s="31">
         <f t="shared" si="4"/>
-        <v>1.5022625096160316</v>
-      </c>
-      <c r="G35" s="31">
-        <f t="shared" si="5"/>
         <v>9874.51</v>
       </c>
       <c r="L35" s="31">
@@ -27033,21 +29214,25 @@
         <v>9871.9379877376559</v>
       </c>
       <c r="R35" s="31">
-        <f t="shared" si="7"/>
+        <f>G35*V35+O35*W35</f>
         <v>9873.223993868829</v>
       </c>
       <c r="T35" s="31">
+        <f t="shared" si="6"/>
+        <v>9874.51</v>
+      </c>
+      <c r="V35" s="31">
         <v>0.5</v>
       </c>
-      <c r="U35" s="31">
-        <f>T33</f>
+      <c r="W35" s="31">
+        <f>V33</f>
         <v>0.5</v>
       </c>
-      <c r="W35" s="31">
+      <c r="Y35" s="31">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="17">
+    <row r="36" spans="1:25" ht="17">
       <c r="A36" s="31">
         <v>2014</v>
       </c>
@@ -27062,11 +29247,11 @@
         <v>15480.21</v>
       </c>
       <c r="E36" s="31">
+        <f t="shared" si="3"/>
+        <v>1.5093352287518611</v>
+      </c>
+      <c r="G36" s="31">
         <f t="shared" si="4"/>
-        <v>1.5093352287518611</v>
-      </c>
-      <c r="G36" s="31">
-        <f t="shared" si="5"/>
         <v>10226.82</v>
       </c>
       <c r="H36" s="31" t="s">
@@ -27087,24 +29272,28 @@
         <v>10343.401940056801</v>
       </c>
       <c r="R36" s="31">
-        <f t="shared" si="7"/>
+        <f>G36*V36+O36*W36</f>
         <v>10285.1109700284</v>
       </c>
-      <c r="S36" s="31" t="s">
+      <c r="S36" s="31">
+        <f>O36</f>
+        <v>10343.401940056801</v>
+      </c>
+      <c r="U36" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T36" s="31">
+      <c r="V36" s="31">
         <v>0.5</v>
       </c>
-      <c r="U36" s="31">
-        <f>T32</f>
+      <c r="W36" s="31">
+        <f>V32</f>
         <v>0.5</v>
       </c>
-      <c r="W36" s="31">
+      <c r="Y36" s="31">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="17">
+    <row r="37" spans="1:25" ht="17">
       <c r="A37" s="31">
         <v>2015</v>
       </c>
@@ -27112,7 +29301,7 @@
         <v>15822.37</v>
       </c>
       <c r="E37" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.5426961548549138</v>
       </c>
       <c r="G37" s="31">
@@ -27141,17 +29330,21 @@
         <f>O37</f>
         <v>10825.272419084593</v>
       </c>
-      <c r="T37" s="31">
-        <v>0</v>
-      </c>
-      <c r="U37" s="31">
+      <c r="S37" s="31">
+        <f>O37</f>
+        <v>10825.272419084593</v>
+      </c>
+      <c r="V37" s="31">
+        <v>0</v>
+      </c>
+      <c r="W37" s="31">
         <v>1</v>
       </c>
-      <c r="W37" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="17">
+      <c r="Y37" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="17">
       <c r="A38" s="31">
         <v>2016</v>
       </c>
@@ -27159,7 +29352,7 @@
         <v>16616.2</v>
       </c>
       <c r="E38" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6200953364319137</v>
       </c>
       <c r="G38" s="31">
@@ -27188,8 +29381,12 @@
         <f t="shared" ref="R38:R72" si="11">O38</f>
         <v>11316.667598261303</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="17">
+      <c r="S38" s="31">
+        <f>O38</f>
+        <v>11316.667598261303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="17">
       <c r="A39" s="31">
         <v>2017</v>
       </c>
@@ -27197,7 +29394,7 @@
         <v>17422.95</v>
       </c>
       <c r="E39" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6987542303226015</v>
       </c>
       <c r="G39" s="31">
@@ -27226,8 +29423,12 @@
         <f t="shared" si="11"/>
         <v>11816.622500854741</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="17">
+      <c r="S39" s="31">
+        <f>O39</f>
+        <v>11816.622500854741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="17">
       <c r="A40" s="31">
         <v>2018</v>
       </c>
@@ -27235,7 +29436,7 @@
         <v>18530.21</v>
       </c>
       <c r="E40" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8067131356209007</v>
       </c>
       <c r="G40" s="31">
@@ -27264,8 +29465,12 @@
         <f t="shared" si="11"/>
         <v>12324.095255652424</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="17">
+      <c r="S40" s="31">
+        <f>O40</f>
+        <v>12324.095255652424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="17">
       <c r="A41" s="31">
         <v>2019</v>
       </c>
@@ -27273,7 +29478,7 @@
         <v>19233.88</v>
       </c>
       <c r="E41" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8753216312689458</v>
       </c>
       <c r="G41" s="31">
@@ -27302,8 +29507,12 @@
         <f t="shared" si="11"/>
         <v>12837.974763385466</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="17">
+      <c r="S41" s="31">
+        <f>O41</f>
+        <v>12837.974763385466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="17">
       <c r="A42" s="31">
         <v>2020</v>
       </c>
@@ -27311,7 +29520,7 @@
         <v>18236.36</v>
       </c>
       <c r="E42" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.7780624805607477</v>
       </c>
       <c r="G42" s="31">
@@ -27340,8 +29549,12 @@
         <f t="shared" si="11"/>
         <v>13357.089678821138</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="17">
+      <c r="S42" s="31">
+        <f>O42</f>
+        <v>13357.089678821138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="17">
       <c r="A43" s="31">
         <v>2021</v>
       </c>
@@ -27349,7 +29562,7 @@
         <v>19003.68</v>
       </c>
       <c r="E43" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8528769118718136</v>
       </c>
       <c r="G43" s="31">
@@ -27378,8 +29591,12 @@
         <f t="shared" si="11"/>
         <v>13880.218571939715</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="17">
+      <c r="S43" s="31">
+        <f>O43</f>
+        <v>13880.218571939715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="17">
       <c r="A44" s="31">
         <v>2022</v>
       </c>
@@ -27387,7 +29604,7 @@
         <v>20492.57</v>
       </c>
       <c r="E44" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.9980451058909101</v>
       </c>
       <c r="G44" s="31">
@@ -27416,8 +29633,12 @@
         <f t="shared" si="11"/>
         <v>14406.101092909967</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="17">
+      <c r="S44" s="31">
+        <f>O44</f>
+        <v>14406.101092909967</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="17">
       <c r="A45" s="31">
         <v>2023</v>
       </c>
@@ -27425,7 +29646,7 @@
         <v>21715.45</v>
       </c>
       <c r="E45" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1172770713833731</v>
       </c>
       <c r="G45" s="31">
@@ -27454,8 +29675,12 @@
         <f t="shared" si="11"/>
         <v>14933.4499315883</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="17">
+      <c r="S45" s="31">
+        <f>O45</f>
+        <v>14933.4499315883</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="17">
       <c r="A46" s="31">
         <v>2024</v>
       </c>
@@ -27463,7 +29688,7 @@
         <v>22912.3</v>
       </c>
       <c r="E46" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.2339710870673759</v>
       </c>
       <c r="G46" s="31">
@@ -27492,8 +29717,12 @@
         <f t="shared" si="11"/>
         <v>15460.963334717831</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="17">
+      <c r="S46" s="31">
+        <f>O46</f>
+        <v>15460.963334717831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="17">
       <c r="A47" s="31">
         <v>2025</v>
       </c>
@@ -27530,8 +29759,12 @@
         <f t="shared" si="11"/>
         <v>15987.33792433638</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="S47" s="31">
+        <f>O47</f>
+        <v>15987.33792433638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="31">
         <v>2026</v>
       </c>
@@ -27546,8 +29779,12 @@
         <f t="shared" si="11"/>
         <v>16511.281550175652</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="31">
+        <f>O48</f>
+        <v>16511.281550175652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="31">
         <v>2027</v>
       </c>
@@ -27562,8 +29799,12 @@
         <f t="shared" si="11"/>
         <v>17031.525907610732</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="31">
+        <f>O49</f>
+        <v>17031.525907610732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="31">
         <v>2028</v>
       </c>
@@ -27578,8 +29819,12 @@
         <f t="shared" si="11"/>
         <v>17546.838661092348</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="31">
+        <f>O50</f>
+        <v>17546.838661092348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="31">
         <v>2029</v>
       </c>
@@ -27594,8 +29839,12 @@
         <f t="shared" si="11"/>
         <v>18056.034830483775</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="31">
+        <f>O51</f>
+        <v>18056.034830483775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="31">
         <v>2030</v>
       </c>
@@ -27621,8 +29870,12 @@
         <f t="shared" si="11"/>
         <v>18557.987223408389</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="31">
+        <f>O52</f>
+        <v>18557.987223408389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="31">
         <v>2031</v>
       </c>
@@ -27637,8 +29890,12 @@
         <f t="shared" si="11"/>
         <v>19051.635729232261</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="31">
+        <f>O53</f>
+        <v>19051.635729232261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="31">
         <v>2032</v>
       </c>
@@ -27653,8 +29910,12 @@
         <f t="shared" si="11"/>
         <v>19535.995327993118</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="31">
+        <f>O54</f>
+        <v>19535.995327993118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="31">
         <v>2033</v>
       </c>
@@ -27669,8 +29930,12 @@
         <f t="shared" si="11"/>
         <v>20010.16270857937</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="31">
+        <f>O55</f>
+        <v>20010.16270857937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="31">
         <v>2034</v>
       </c>
@@ -27685,8 +29950,12 @@
         <f t="shared" si="11"/>
         <v>20473.321432830748</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="31">
+        <f>O56</f>
+        <v>20473.321432830748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="31">
         <v>2035</v>
       </c>
@@ -27701,8 +29970,12 @@
         <f t="shared" si="11"/>
         <v>20924.745624100455</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="31">
+        <f>O57</f>
+        <v>20924.745624100455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="31">
         <v>2036</v>
       </c>
@@ -27717,8 +29990,12 @@
         <f t="shared" si="11"/>
         <v>21363.802198479436</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="31">
+        <f>O58</f>
+        <v>21363.802198479436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="31">
         <v>2037</v>
       </c>
@@ -27733,8 +30010,12 @@
         <f t="shared" si="11"/>
         <v>21789.951692883231</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="31">
+        <f>O59</f>
+        <v>21789.951692883231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="31">
         <v>2038</v>
       </c>
@@ -27749,8 +30030,12 @@
         <f t="shared" si="11"/>
         <v>22202.747775404456</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="31">
+        <f>O60</f>
+        <v>22202.747775404456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="31">
         <v>2039</v>
       </c>
@@ -27765,8 +30050,12 @@
         <f t="shared" si="11"/>
         <v>22601.835548953841</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="31">
+        <f>O61</f>
+        <v>22601.835548953841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="31">
         <v>2040</v>
       </c>
@@ -27781,8 +30070,12 @@
         <f t="shared" si="11"/>
         <v>22986.948778819566</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="31">
+        <f>O62</f>
+        <v>22986.948778819566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="31">
         <v>2041</v>
       </c>
@@ -27797,8 +30090,12 @@
         <f t="shared" si="11"/>
         <v>23357.906188274217</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="31">
+        <f>O63</f>
+        <v>23357.906188274217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="31">
         <v>2042</v>
       </c>
@@ -27813,8 +30110,12 @@
         <f t="shared" si="11"/>
         <v>23714.606973959875</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="S64" s="31">
+        <f>O64</f>
+        <v>23714.606973959875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="31">
         <v>2043</v>
       </c>
@@ -27829,8 +30130,12 @@
         <f t="shared" si="11"/>
         <v>24057.025694921118</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="S65" s="31">
+        <f>O65</f>
+        <v>24057.025694921118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="31">
         <v>2044</v>
       </c>
@@ -27845,8 +30150,12 @@
         <f t="shared" si="11"/>
         <v>24385.206686485228</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="S66" s="31">
+        <f>O66</f>
+        <v>24385.206686485228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="31">
         <v>2045</v>
       </c>
@@ -27861,8 +30170,12 @@
         <f t="shared" si="11"/>
         <v>24699.258143445197</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="S67" s="31">
+        <f>O67</f>
+        <v>24699.258143445197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="31">
         <v>2046</v>
       </c>
@@ -27877,8 +30190,12 @@
         <f t="shared" si="11"/>
         <v>24999.346007014839</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="S68" s="31">
+        <f>O68</f>
+        <v>24999.346007014839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="31">
         <v>2047</v>
       </c>
@@ -27893,8 +30210,12 @@
         <f t="shared" si="11"/>
         <v>25285.68777762022</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="S69" s="31">
+        <f>O69</f>
+        <v>25285.68777762022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="31">
         <v>2048</v>
       </c>
@@ -27909,8 +30230,12 @@
         <f t="shared" si="11"/>
         <v>25558.546361563796</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="S70" s="31">
+        <f>O70</f>
+        <v>25558.546361563796</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="31">
         <v>2049</v>
       </c>
@@ -27925,8 +30250,12 @@
         <f t="shared" si="11"/>
         <v>25818.224044675731</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="S71" s="31">
+        <f>O71</f>
+        <v>25818.224044675731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="31">
         <v>2050</v>
       </c>
@@ -27952,7 +30281,11 @@
         <f t="shared" si="11"/>
         <v>26065.05667088904</v>
       </c>
-      <c r="S72" s="31" t="s">
+      <c r="S72" s="31">
+        <f>O72</f>
+        <v>26065.05667088904</v>
+      </c>
+      <c r="U72" s="31" t="s">
         <v>60</v>
       </c>
     </row>
@@ -27968,8 +30301,8 @@
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="171" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M44" sqref="M44"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -30344,7 +32677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DA95E0-B38E-2942-B1EB-6F26359DDCB4}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="56" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="56" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -32134,7 +34467,7 @@
         <v>0.57983089199077165</v>
       </c>
       <c r="M49">
-        <f t="shared" ref="M49:T50" si="1">C49/$J$49</f>
+        <f t="shared" ref="M49:S49" si="1">C49/$J$49</f>
         <v>0</v>
       </c>
       <c r="N49">
@@ -32172,7 +34505,7 @@
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="39">
-        <f t="shared" ref="C50:I50" si="2">$J50*N50</f>
+        <f t="shared" ref="D50:I50" si="2">$J50*N50</f>
         <v>2066342.8258998429</v>
       </c>
       <c r="E50" s="39">
@@ -34494,11 +36827,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E59C77E-E924-3F47-90FC-AAF98191E3D4}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -34510,7 +36843,7 @@
     <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -34539,7 +36872,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>61</v>
@@ -34552,10 +36885,13 @@
         <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1982</v>
       </c>
@@ -34591,7 +36927,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1983</v>
       </c>
@@ -34630,7 +36966,7 @@
         <v>254274.15667571884</v>
       </c>
       <c r="M3" s="1">
-        <f>B3-B2+K3</f>
+        <f t="shared" ref="M3:M34" si="1">B3-B2+K3</f>
         <v>5556438.1328152735</v>
       </c>
       <c r="N3">
@@ -34642,8 +36978,12 @@
         <f>N3</f>
         <v>1558369.8795166665</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <f>N3</f>
+        <v>1558369.8795166665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1984</v>
       </c>
@@ -34682,7 +37022,7 @@
         <v>315989.53066288284</v>
       </c>
       <c r="M4" s="1">
-        <f>B4-B3+K4</f>
+        <f t="shared" si="1"/>
         <v>1489470.6022968551</v>
       </c>
       <c r="N4">
@@ -34691,15 +37031,15 @@
       </c>
       <c r="O4" s="1"/>
       <c r="P4">
-        <f t="shared" ref="P4:P32" si="1">N4</f>
+        <f t="shared" ref="P4:P32" si="2">N4</f>
         <v>1688542.9640379527</v>
       </c>
-      <c r="R4">
-        <f>SUM(P3:P5)/3</f>
-        <v>1601616.2277127381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <f t="shared" ref="R4:S32" si="3">N4</f>
+        <v>1688542.9640379527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1985</v>
       </c>
@@ -34738,7 +37078,7 @@
         <v>341195.69787765696</v>
       </c>
       <c r="M5" s="1">
-        <f>B5-B4+K5</f>
+        <f t="shared" si="1"/>
         <v>1527867.9552882577</v>
       </c>
       <c r="N5">
@@ -34747,15 +37087,15 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1557935.8395835944</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5:R68" si="2">SUM(P4:P6)/3</f>
-        <v>1637203.0277460963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>1557935.8395835944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1986</v>
       </c>
@@ -34794,7 +37134,7 @@
         <v>292950.50364445394</v>
       </c>
       <c r="M6" s="1">
-        <f>B6-B5+K6</f>
+        <f t="shared" si="1"/>
         <v>1405578.2791813561</v>
       </c>
       <c r="N6">
@@ -34803,15 +37143,15 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1665130.2796167419</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="2"/>
-        <v>1915204.5772110398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>1665130.2796167419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1987</v>
       </c>
@@ -34850,7 +37190,7 @@
         <v>430851.78503829718</v>
       </c>
       <c r="M7" s="1">
-        <f>B7-B6+K7</f>
+        <f t="shared" si="1"/>
         <v>1435655.6552892411</v>
       </c>
       <c r="N7">
@@ -34859,15 +37199,15 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2522547.6124327825</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>2503753.2262798287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>2522547.6124327825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1988</v>
       </c>
@@ -34906,7 +37246,7 @@
         <v>630410.16039511678</v>
       </c>
       <c r="M8" s="1">
-        <f>B8-B7+K8</f>
+        <f t="shared" si="1"/>
         <v>1692746.7987104889</v>
       </c>
       <c r="N8">
@@ -34915,15 +37255,15 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3323581.7867899621</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>3329516.7803118546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>3323581.7867899621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1989</v>
       </c>
@@ -34962,7 +37302,7 @@
         <v>851666.96671665716</v>
       </c>
       <c r="M9" s="1">
-        <f>B9-B8+K9</f>
+        <f t="shared" si="1"/>
         <v>2801752.4633773966</v>
       </c>
       <c r="N9">
@@ -34971,15 +37311,15 @@
       </c>
       <c r="O9" s="1"/>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4142420.9417128195</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="2"/>
-        <v>4335706.6607360197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>4142420.9417128195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1990</v>
       </c>
@@ -35018,7 +37358,7 @@
         <v>974263.58318737033</v>
       </c>
       <c r="M10" s="1">
-        <f>B10-B9+K10</f>
+        <f t="shared" si="1"/>
         <v>4128139.277115616</v>
       </c>
       <c r="N10">
@@ -35027,15 +37367,15 @@
       </c>
       <c r="O10" s="1"/>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5541117.253705278</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="2"/>
-        <v>5164506.6249250909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>5541117.253705278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1991</v>
       </c>
@@ -35074,7 +37414,7 @@
         <v>974491.02381341544</v>
       </c>
       <c r="M11" s="1">
-        <f>B11-B10+K11</f>
+        <f t="shared" si="1"/>
         <v>5149476.3851172887</v>
       </c>
       <c r="N11">
@@ -35083,15 +37423,15 @@
       </c>
       <c r="O11" s="1"/>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5809981.6793571748</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
-        <v>6132580.996074561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>5809981.6793571748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1992</v>
       </c>
@@ -35130,7 +37470,7 @@
         <v>857512.77401052311</v>
       </c>
       <c r="M12" s="1">
-        <f>B12-B11+K12</f>
+        <f t="shared" si="1"/>
         <v>5596782.3905083565</v>
       </c>
       <c r="N12">
@@ -35139,15 +37479,15 @@
       </c>
       <c r="O12" s="1"/>
       <c r="P12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7046644.0551612303</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
-        <v>6682272.2477077916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>7046644.0551612303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1993</v>
       </c>
@@ -35186,7 +37526,7 @@
         <v>945427.24982239935</v>
       </c>
       <c r="M13" s="1">
-        <f>B13-B12+K13</f>
+        <f t="shared" si="1"/>
         <v>5629417.2586654266</v>
       </c>
       <c r="N13">
@@ -35195,15 +37535,15 @@
       </c>
       <c r="O13" s="1"/>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7190191.0086049717</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>7208697.4971882487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>7190191.0086049717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>1994</v>
       </c>
@@ -35242,7 +37582,7 @@
         <v>1082566.0528147731</v>
       </c>
       <c r="M14" s="1">
-        <f>B14-B13+K14</f>
+        <f t="shared" si="1"/>
         <v>6055712.1308539128</v>
       </c>
       <c r="N14">
@@ -35251,15 +37591,15 @@
       </c>
       <c r="O14" s="1"/>
       <c r="P14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7389257.427798545</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>7648216.7720591212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>7389257.427798545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1995</v>
       </c>
@@ -35298,7 +37638,7 @@
         <v>1000845.1447385737</v>
       </c>
       <c r="M15" s="1">
-        <f>B15-B14+K15</f>
+        <f t="shared" si="1"/>
         <v>7499766.7637818195</v>
       </c>
       <c r="N15">
@@ -35307,15 +37647,15 @@
       </c>
       <c r="O15" s="1"/>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8365201.8797738487</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="2"/>
-        <v>7957776.7541308226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>8365201.8797738487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1996</v>
       </c>
@@ -35354,7 +37694,7 @@
         <v>999327.01473880024</v>
       </c>
       <c r="M16" s="1">
-        <f>B16-B15+K16</f>
+        <f t="shared" si="1"/>
         <v>8807941.6259562764</v>
       </c>
       <c r="N16">
@@ -35363,15 +37703,15 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8118870.954820076</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="2"/>
-        <v>7842560.7685757698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>8118870.954820076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1997</v>
       </c>
@@ -35410,7 +37750,7 @@
         <v>937277.33676527464</v>
       </c>
       <c r="M17" s="1">
-        <f>B17-B16+K17</f>
+        <f t="shared" si="1"/>
         <v>11570690.96764303</v>
       </c>
       <c r="N17">
@@ -35419,15 +37759,15 @@
       </c>
       <c r="O17" s="1"/>
       <c r="P17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7043609.4711333867</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
-        <v>6228234.1892004991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>7043609.4711333867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -35466,7 +37806,7 @@
         <v>906576.70946733502</v>
       </c>
       <c r="M18" s="1">
-        <f>B18-B17+K18</f>
+        <f t="shared" si="1"/>
         <v>9218224.224929912</v>
       </c>
       <c r="N18">
@@ -35475,15 +37815,15 @@
       </c>
       <c r="O18" s="1"/>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3522222.1416480346</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="2"/>
-        <v>5464965.6681072777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>3522222.1416480346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -35523,7 +37863,7 @@
         <v>619518.16083226749</v>
       </c>
       <c r="M19" s="1">
-        <f>B19-B18+K19</f>
+        <f t="shared" si="1"/>
         <v>101817.61771337339</v>
       </c>
       <c r="N19">
@@ -35532,15 +37872,15 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5829065.3915404137</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
-        <v>5141941.9032772081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>5829065.3915404137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -35580,7 +37920,7 @@
         <v>851625.1523546176</v>
       </c>
       <c r="M20" s="1">
-        <f>B20-B19+K20</f>
+        <f t="shared" si="1"/>
         <v>-11235981.622314211</v>
       </c>
       <c r="N20">
@@ -35589,15 +37929,15 @@
       </c>
       <c r="O20" s="1"/>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6074538.176643176</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>6281151.3585091466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>6074538.176643176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>2001</v>
       </c>
@@ -35637,7 +37977,7 @@
         <v>841675.7217089819</v>
       </c>
       <c r="M21" s="1">
-        <f>B21-B20+K21</f>
+        <f t="shared" si="1"/>
         <v>7506376.0155425807</v>
       </c>
       <c r="N21">
@@ -35646,15 +37986,15 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6939850.507343851</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="2"/>
-        <v>7404062.5654552951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>6939850.507343851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -35694,7 +38034,7 @@
         <v>809716.71856561711</v>
       </c>
       <c r="M22" s="1">
-        <f>B22-B21+K22</f>
+        <f t="shared" si="1"/>
         <v>9859176.7165998854</v>
       </c>
       <c r="N22">
@@ -35703,15 +38043,15 @@
       </c>
       <c r="O22" s="1"/>
       <c r="P22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9197799.0123788565</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>8757162.0678859968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>9197799.0123788565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>2003</v>
       </c>
@@ -35751,7 +38091,7 @@
         <v>1047431.9344134961</v>
       </c>
       <c r="M23" s="1">
-        <f>B23-B22+K23</f>
+        <f t="shared" si="1"/>
         <v>5824385.572716061</v>
       </c>
       <c r="N23">
@@ -35760,15 +38100,15 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10133836.683935281</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="2"/>
-        <v>10342216.223079776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>10133836.683935281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>2004</v>
       </c>
@@ -35808,7 +38148,7 @@
         <v>1218343.5150128992</v>
       </c>
       <c r="M24" s="1">
-        <f>B24-B23+K24</f>
+        <f t="shared" si="1"/>
         <v>11507284.521333257</v>
       </c>
       <c r="N24">
@@ -35817,15 +38157,15 @@
       </c>
       <c r="O24" s="1"/>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11695012.972925192</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>11547728.655879075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>11695012.972925192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -35865,7 +38205,7 @@
         <v>1393028.507498401</v>
       </c>
       <c r="M25" s="1">
-        <f>B25-B24+K25</f>
+        <f t="shared" si="1"/>
         <v>17602822.272705439</v>
       </c>
       <c r="N25">
@@ -35874,15 +38214,15 @@
       </c>
       <c r="O25" s="1"/>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12814336.310776759</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>12047108.341734091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>12814336.310776759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>2006</v>
       </c>
@@ -35922,7 +38262,7 @@
         <v>1606185.2509486345</v>
       </c>
       <c r="M26" s="1">
-        <f>B26-B25+K26</f>
+        <f t="shared" si="1"/>
         <v>18350029.472362768</v>
       </c>
       <c r="N26">
@@ -35931,15 +38271,15 @@
       </c>
       <c r="O26" s="1"/>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11631975.741500329</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
-        <v>12065746.372538446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>11631975.741500329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>2007</v>
       </c>
@@ -35979,7 +38319,7 @@
         <v>2031919.0769359104</v>
       </c>
       <c r="M27" s="1">
-        <f>B27-B26+K27</f>
+        <f t="shared" si="1"/>
         <v>22888023.667011566</v>
       </c>
       <c r="N27">
@@ -35988,15 +38328,15 @@
       </c>
       <c r="O27" s="1"/>
       <c r="P27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11750927.065338247</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>11940509.986117283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>11750927.065338247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>2008</v>
       </c>
@@ -36036,7 +38376,7 @@
         <v>2246352.0426470777</v>
       </c>
       <c r="M28" s="1">
-        <f>B28-B27+K28</f>
+        <f t="shared" si="1"/>
         <v>28524685.622260794</v>
       </c>
       <c r="N28">
@@ -36045,15 +38385,15 @@
       </c>
       <c r="O28" s="1"/>
       <c r="P28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12438627.151513275</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>11377208.209934855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>12438627.151513275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -36093,7 +38433,7 @@
         <v>2567407.6271054521</v>
       </c>
       <c r="M29" s="1">
-        <f>B29-B28+K29</f>
+        <f t="shared" si="1"/>
         <v>29981259.880948551</v>
       </c>
       <c r="N29">
@@ -36102,15 +38442,15 @@
       </c>
       <c r="O29" s="1"/>
       <c r="P29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9942070.4129530452</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
-        <v>11797712.949833928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>9942070.4129530452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -36150,7 +38490,7 @@
         <v>3185906.7296378282</v>
       </c>
       <c r="M30" s="1">
-        <f>B30-B29+K30</f>
+        <f t="shared" si="1"/>
         <v>19574678.424716678</v>
       </c>
       <c r="N30">
@@ -36159,15 +38499,15 @@
       </c>
       <c r="O30" s="1"/>
       <c r="P30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13012441.285035463</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="2"/>
-        <v>12133242.820710681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>13012441.285035463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -36207,7 +38547,7 @@
         <v>3400720.4921695874</v>
       </c>
       <c r="M31" s="1">
-        <f>B31-B30+K31</f>
+        <f t="shared" si="1"/>
         <v>-6015934.542205276</v>
       </c>
       <c r="N31">
@@ -36216,15 +38556,15 @@
       </c>
       <c r="O31" s="1"/>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13445216.764143534</v>
       </c>
-      <c r="R31">
-        <f t="shared" si="2"/>
-        <v>13861501.591808826</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>13445216.764143534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>2012</v>
       </c>
@@ -36264,7 +38604,7 @@
         <v>3839690.9636030253</v>
       </c>
       <c r="M32" s="1">
-        <f>B32-B31+K32</f>
+        <f t="shared" si="1"/>
         <v>38395032.036994793</v>
       </c>
       <c r="N32">
@@ -36273,12 +38613,16 @@
       </c>
       <c r="O32" s="1"/>
       <c r="P32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15126846.726247484</v>
       </c>
       <c r="R32">
-        <f t="shared" si="2"/>
-        <v>16457750.236723235</v>
+        <f>S32</f>
+        <v>15126846.726247484</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>15126846.726247484</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -36321,7 +38665,7 @@
         <v>2939634.2742263647</v>
       </c>
       <c r="M33" s="1">
-        <f>B33-B32+K33</f>
+        <f t="shared" si="1"/>
         <v>20801187.219778683</v>
       </c>
       <c r="N33" s="37"/>
@@ -36331,7 +38675,7 @@
         <v>20801187.219778683</v>
       </c>
       <c r="R33">
-        <f t="shared" si="2"/>
+        <f>SUM(P32:P34)/3</f>
         <v>24772757.722897097</v>
       </c>
     </row>
@@ -36375,7 +38719,7 @@
         <v>3021963.3332080459</v>
       </c>
       <c r="M34" s="1">
-        <f>B34-B33+K34</f>
+        <f t="shared" si="1"/>
         <v>38390239.222665124</v>
       </c>
       <c r="N34" s="37"/>
@@ -36385,7 +38729,7 @@
         <v>38390239.222665124</v>
       </c>
       <c r="R34">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R5:R68" si="4">SUM(P33:P35)/3</f>
         <v>29482892.489548463</v>
       </c>
     </row>
@@ -36429,17 +38773,17 @@
         <v>2462206.6509823003</v>
       </c>
       <c r="M35" s="1">
-        <f>B35-B34+K35</f>
+        <f t="shared" ref="M35:M70" si="5">B35-B34+K35</f>
         <v>29257251.026201587</v>
       </c>
       <c r="N35" s="37"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1">
-        <f t="shared" ref="P34:P70" si="3">M35</f>
+        <f t="shared" ref="P35:P70" si="6">M35</f>
         <v>29257251.026201587</v>
       </c>
       <c r="R35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32477202.274571538</v>
       </c>
     </row>
@@ -36483,17 +38827,17 @@
         <v>3341968.1268165326</v>
       </c>
       <c r="M36" s="1">
-        <f>B36-B35+K36</f>
+        <f t="shared" si="5"/>
         <v>29784116.574847899</v>
       </c>
       <c r="N36" s="37"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29784116.574847899</v>
       </c>
       <c r="R36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32339297.555433825</v>
       </c>
     </row>
@@ -36537,17 +38881,17 @@
         <v>4094308.8665411938</v>
       </c>
       <c r="M37" s="1">
-        <f>B37-B36+K37</f>
+        <f t="shared" si="5"/>
         <v>37976525.065251991</v>
       </c>
       <c r="N37" s="37"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37976525.065251991</v>
       </c>
       <c r="R37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34218001.226280794</v>
       </c>
     </row>
@@ -36591,17 +38935,17 @@
         <v>4752123.8612870136</v>
       </c>
       <c r="M38" s="1">
-        <f>B38-B37+K38</f>
+        <f t="shared" si="5"/>
         <v>34893362.038742498</v>
       </c>
       <c r="N38" s="37"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>34893362.038742498</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36038844.339948379</v>
       </c>
     </row>
@@ -36645,17 +38989,17 @@
         <v>5862126.908519106</v>
       </c>
       <c r="M39" s="1">
-        <f>B39-B38+K39</f>
+        <f t="shared" si="5"/>
         <v>35246645.915850654</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35246645.915850654</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34958194.275647484</v>
       </c>
     </row>
@@ -36699,17 +39043,17 @@
         <v>6593105.0622220524</v>
       </c>
       <c r="M40" s="1">
-        <f>B40-B39+K40</f>
+        <f t="shared" si="5"/>
         <v>34734574.872349307</v>
       </c>
       <c r="N40" s="37"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>34734574.872349307</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34387116.826427698</v>
       </c>
     </row>
@@ -36753,17 +39097,17 @@
         <v>7130044.0730496645</v>
       </c>
       <c r="M41" s="1">
-        <f>B41-B40+K41</f>
+        <f t="shared" si="5"/>
         <v>33180129.691083133</v>
       </c>
       <c r="N41" s="37"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33180129.691083133</v>
       </c>
       <c r="R41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33299797.794549257</v>
       </c>
     </row>
@@ -36807,17 +39151,17 @@
         <v>7914140.4819717221</v>
       </c>
       <c r="M42" s="1">
-        <f>B42-B41+K42</f>
+        <f t="shared" si="5"/>
         <v>31984688.820215326</v>
       </c>
       <c r="N42" s="37"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31984688.820215326</v>
       </c>
       <c r="R42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32070845.541209787</v>
       </c>
     </row>
@@ -36861,17 +39205,17 @@
         <v>9129455.3861934319</v>
       </c>
       <c r="M43" s="1">
-        <f>B43-B42+K43</f>
+        <f t="shared" si="5"/>
         <v>31047718.112330891</v>
       </c>
       <c r="N43" s="37"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31047718.112330891</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30642970.349081252</v>
       </c>
     </row>
@@ -36915,17 +39259,17 @@
         <v>9192150.9320590179</v>
       </c>
       <c r="M44" s="1">
-        <f>B44-B43+K44</f>
+        <f t="shared" si="5"/>
         <v>28896504.114697546</v>
       </c>
       <c r="N44" s="37"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28896504.114697546</v>
       </c>
       <c r="R44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29817117.78323723</v>
       </c>
     </row>
@@ -36969,17 +39313,17 @@
         <v>11982748.285436116</v>
       </c>
       <c r="M45" s="1">
-        <f>B45-B44+K45</f>
+        <f t="shared" si="5"/>
         <v>29507131.122683249</v>
       </c>
       <c r="N45" s="37"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29507131.122683249</v>
       </c>
       <c r="R45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28014159.757767875</v>
       </c>
     </row>
@@ -37024,17 +39368,17 @@
         <v>10764477.166289406</v>
       </c>
       <c r="M46" s="1">
-        <f>B46-B45+K46</f>
+        <f t="shared" si="5"/>
         <v>25638844.03592284</v>
       </c>
       <c r="N46" s="37"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25638844.03592284</v>
       </c>
       <c r="R46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26558359.076767046</v>
       </c>
     </row>
@@ -37079,17 +39423,17 @@
         <v>11589455.666549159</v>
       </c>
       <c r="M47" s="1">
-        <f>B47-B46+K47</f>
+        <f t="shared" si="5"/>
         <v>24529102.071695045</v>
       </c>
       <c r="N47" s="37"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24529102.071695045</v>
       </c>
       <c r="R47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25168072.239660066</v>
       </c>
     </row>
@@ -37134,17 +39478,17 @@
         <v>14136951.073226061</v>
       </c>
       <c r="M48" s="1">
-        <f>B48-B47+K48</f>
+        <f t="shared" si="5"/>
         <v>25336270.611362305</v>
       </c>
       <c r="N48" s="37"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25336270.611362305</v>
       </c>
       <c r="R48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25939375.313527171</v>
       </c>
     </row>
@@ -37189,17 +39533,17 @@
         <v>18288160.958611637</v>
       </c>
       <c r="M49" s="1">
-        <f>B49-B48+K49</f>
+        <f t="shared" si="5"/>
         <v>27952753.257524163</v>
       </c>
       <c r="N49" s="37"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27952753.257524163</v>
       </c>
       <c r="R49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25866329.878889814</v>
       </c>
     </row>
@@ -37244,17 +39588,17 @@
         <v>15976779.313170597</v>
       </c>
       <c r="M50" s="1">
-        <f>B50-B49+K50</f>
+        <f t="shared" si="5"/>
         <v>24309965.767782971</v>
       </c>
       <c r="N50" s="37"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24309965.767782971</v>
       </c>
       <c r="R50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24856820.070756193</v>
       </c>
     </row>
@@ -37299,17 +39643,17 @@
         <v>15794473.325506002</v>
       </c>
       <c r="M51" s="1">
-        <f>B51-B50+K51</f>
+        <f t="shared" si="5"/>
         <v>22307741.186961442</v>
       </c>
       <c r="N51" s="37"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22307741.186961442</v>
       </c>
       <c r="R51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23499385.287128597</v>
       </c>
     </row>
@@ -37354,16 +39698,16 @@
         <v>18341844.266972087</v>
       </c>
       <c r="M52" s="1">
-        <f>B52-B51+K52</f>
+        <f t="shared" si="5"/>
         <v>23880448.906641386</v>
       </c>
       <c r="N52" s="37"/>
       <c r="P52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23880448.906641386</v>
       </c>
       <c r="R52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22910925.064868096</v>
       </c>
     </row>
@@ -37408,16 +39752,16 @@
         <v>17822829.409213625</v>
       </c>
       <c r="M53" s="1">
-        <f>B53-B52+K53</f>
+        <f t="shared" si="5"/>
         <v>22544585.101001464</v>
       </c>
       <c r="N53" s="37"/>
       <c r="P53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22544585.101001464</v>
       </c>
       <c r="R53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23189143.425168741</v>
       </c>
     </row>
@@ -37462,16 +39806,16 @@
         <v>19100491.499669425</v>
       </c>
       <c r="M54" s="1">
-        <f>B54-B53+K54</f>
+        <f t="shared" si="5"/>
         <v>23142396.267863385</v>
       </c>
       <c r="N54" s="37"/>
       <c r="P54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23142396.267863385</v>
       </c>
       <c r="R54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22984248.90221104</v>
       </c>
     </row>
@@ -37516,16 +39860,16 @@
         <v>19786656.654169753</v>
       </c>
       <c r="M55" s="1">
-        <f>B55-B54+K55</f>
+        <f t="shared" si="5"/>
         <v>23265765.337768272</v>
       </c>
       <c r="N55" s="37"/>
       <c r="P55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23265765.337768272</v>
       </c>
       <c r="R55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22885571.940416187</v>
       </c>
     </row>
@@ -37570,16 +39914,16 @@
         <v>19873544.430279583</v>
       </c>
       <c r="M56" s="1">
-        <f>B56-B55+K56</f>
+        <f t="shared" si="5"/>
         <v>22248554.215616912</v>
       </c>
       <c r="N56" s="37"/>
       <c r="P56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22248554.215616912</v>
       </c>
       <c r="R56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22483952.819435988</v>
       </c>
     </row>
@@ -37624,16 +39968,16 @@
         <v>19947504.037316021</v>
       </c>
       <c r="M57" s="1">
-        <f>B57-B56+K57</f>
+        <f t="shared" si="5"/>
         <v>21937538.90492278</v>
       </c>
       <c r="N57" s="37"/>
       <c r="P57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21937538.90492278</v>
       </c>
       <c r="R57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21998719.247424915</v>
       </c>
     </row>
@@ -37678,16 +40022,16 @@
         <v>20135657.224135116</v>
       </c>
       <c r="M58" s="1">
-        <f>B58-B57+K58</f>
+        <f t="shared" si="5"/>
         <v>21810064.621735051</v>
       </c>
       <c r="N58" s="37"/>
       <c r="P58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21810064.621735051</v>
       </c>
       <c r="R58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21340912.6606079</v>
       </c>
     </row>
@@ -37732,16 +40076,16 @@
         <v>18859246.163011082</v>
       </c>
       <c r="M59" s="1">
-        <f>B59-B58+K59</f>
+        <f t="shared" si="5"/>
         <v>20275134.45516587</v>
       </c>
       <c r="N59" s="37"/>
       <c r="P59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20275134.45516587</v>
       </c>
       <c r="R59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20818008.846309733</v>
       </c>
     </row>
@@ -37786,16 +40130,16 @@
         <v>19164632.566584244</v>
       </c>
       <c r="M60" s="1">
-        <f>B60-B59+K60</f>
+        <f t="shared" si="5"/>
         <v>20368827.46202828</v>
       </c>
       <c r="N60" s="37"/>
       <c r="P60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20368827.46202828</v>
       </c>
       <c r="R60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19753070.974841639</v>
       </c>
     </row>
@@ -37840,16 +40184,16 @@
         <v>18137629.376651514</v>
       </c>
       <c r="M61" s="1">
-        <f>B61-B60+K61</f>
+        <f t="shared" si="5"/>
         <v>18615251.007330764</v>
       </c>
       <c r="N61" s="37"/>
       <c r="P61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18615251.007330764</v>
       </c>
       <c r="R61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18548778.642695658</v>
       </c>
     </row>
@@ -37894,16 +40238,16 @@
         <v>16328008.039621213</v>
       </c>
       <c r="M62" s="1">
-        <f>B62-B61+K62</f>
+        <f t="shared" si="5"/>
         <v>16662257.458727935</v>
       </c>
       <c r="N62" s="37"/>
       <c r="P62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16662257.458727935</v>
       </c>
       <c r="R62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17845640.259293128</v>
       </c>
     </row>
@@ -37948,16 +40292,16 @@
         <v>18042813.460859124</v>
       </c>
       <c r="M63" s="1">
-        <f>B63-B62+K63</f>
+        <f t="shared" si="5"/>
         <v>18259412.31182069</v>
       </c>
       <c r="N63" s="37"/>
       <c r="P63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18259412.31182069</v>
       </c>
       <c r="R63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17929189.516413819</v>
       </c>
     </row>
@@ -38002,16 +40346,16 @@
         <v>18746020.739226684</v>
       </c>
       <c r="M64" s="1">
-        <f>B64-B63+K64</f>
+        <f t="shared" si="5"/>
         <v>18865898.778692827</v>
       </c>
       <c r="N64" s="37"/>
       <c r="P64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18865898.778692827</v>
       </c>
       <c r="R64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18705502.601147171</v>
       </c>
     </row>
@@ -38056,16 +40400,16 @@
         <v>18951006.255819973</v>
       </c>
       <c r="M65" s="1">
-        <f>B65-B64+K65</f>
+        <f t="shared" si="5"/>
         <v>18991196.712927993</v>
       </c>
       <c r="N65" s="37"/>
       <c r="P65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18991196.712927993</v>
       </c>
       <c r="R65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19810209.339986738</v>
       </c>
     </row>
@@ -38110,16 +40454,16 @@
         <v>22011498.590385441</v>
       </c>
       <c r="M66" s="1">
-        <f>B66-B65+K66</f>
+        <f t="shared" si="5"/>
         <v>21573532.52833939</v>
       </c>
       <c r="N66" s="37"/>
       <c r="P66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21573532.52833939</v>
       </c>
       <c r="R66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24081031.796116251</v>
       </c>
     </row>
@@ -38160,20 +40504,20 @@
         <v>1561415.9061240535</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K70" si="4">SUM(D67:J67)</f>
+        <f t="shared" ref="K67:K70" si="7">SUM(D67:J67)</f>
         <v>32171208.198840141</v>
       </c>
       <c r="M67" s="1">
-        <f>B67-B66+K67</f>
+        <f t="shared" si="5"/>
         <v>31678366.147081375</v>
       </c>
       <c r="N67" s="37"/>
       <c r="P67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31678366.147081375</v>
       </c>
       <c r="R67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26345910.319164351</v>
       </c>
     </row>
@@ -38214,20 +40558,20 @@
         <v>1539588.6786799862</v>
       </c>
       <c r="K68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26324232.88845263</v>
       </c>
       <c r="M68" s="1">
-        <f>B68-B67+K68</f>
+        <f t="shared" si="5"/>
         <v>25785832.282072287</v>
       </c>
       <c r="N68" s="37"/>
       <c r="P68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25785832.282072287</v>
       </c>
       <c r="R68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27935776.7296983</v>
       </c>
     </row>
@@ -38268,20 +40612,20 @@
         <v>1530642.4626040056</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26919471.870538011</v>
       </c>
       <c r="M69" s="1">
-        <f>B69-B68+K69</f>
+        <f t="shared" si="5"/>
         <v>26343131.759941235</v>
       </c>
       <c r="N69" s="37"/>
       <c r="P69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26343131.759941235</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69" si="5">SUM(P68:P70)/3</f>
+        <f t="shared" ref="R69" si="8">SUM(P68:P70)/3</f>
         <v>27657345.116234228</v>
       </c>
     </row>
@@ -38322,16 +40666,16 @@
         <v>1422920.2100187803</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>31451107.313922778</v>
       </c>
       <c r="M70" s="1">
-        <f>B70-B69+K70</f>
+        <f t="shared" si="5"/>
         <v>30843071.306689158</v>
       </c>
       <c r="N70" s="37"/>
       <c r="P70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30843071.306689158</v>
       </c>
     </row>
